--- a/prog/data_processing/result/describe_predictors/1_initial.xlsx
+++ b/prog/data_processing/result/describe_predictors/1_initial.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="95">
   <si>
     <t>Тип данных</t>
   </si>
@@ -184,22 +184,22 @@
     <t>[11.03.1987;30.05.2019]</t>
   </si>
   <si>
-    <t>военнослужащий, другое, не отслужил, невоеннообязанный, отсрочка, призывник, уволен в запас</t>
+    <t>военнослужащий, невоеннообязанный, уволен в запас, не отслужил, отсрочка, другое, призывник, nan</t>
   </si>
   <si>
     <t>[1.0;10.0]</t>
   </si>
   <si>
-    <t>есть, нет</t>
-  </si>
-  <si>
-    <t>высшее, незаконченное высшее, неполное среднее, среднее, среднее специальное</t>
-  </si>
-  <si>
-    <t>акционер, другое, не имеет отношения, работник</t>
-  </si>
-  <si>
-    <t>безработный (временно не работающий), государственный служащий, заместитель руководителя, индивидуальный предприниматель, пенсионер, рабочий, руководитель, специалист, студент</t>
+    <t>есть, нет, nan</t>
+  </si>
+  <si>
+    <t>среднее специальное, высшее, среднее, незаконченное высшее, неполное среднее, nan</t>
+  </si>
+  <si>
+    <t>не имеет отношения, работник, акционер, другое, nan</t>
+  </si>
+  <si>
+    <t>специалист, рабочий, руководитель, заместитель руководителя, государственный служащий, пенсионер, студент, безработный (временно не работающий), индивидуальный предприниматель</t>
   </si>
   <si>
     <t>[-998.0;50.0]</t>
@@ -208,19 +208,22 @@
     <t>[-1500.0;92207.0]</t>
   </si>
   <si>
-    <t>вдовец/вдова, женат/замужем, повторный брак, разведен/разведена, холост/не замужем</t>
-  </si>
-  <si>
-    <t>-1, 10-й Блок-Пост, \\Буйничи, \\Зельва, \\Князево, \\Королево, \\Новые Рачковичи, \\Серафимово, \\Слобода, \\Стайки, Ёдки, Ёткишки, АГ КУХЧИЦЫ, АГ МАСЛАКИ, АГ ПОВИТЬЕ, АГ СЕНИЦА, АГ ТАРНОВО, АГ ЧУРИЛОВИЧИ, АГ. БОЛЬШЕВИК, АГ. ЛАНЬ, АГ. ЛУДЧИЦЫ, АГ. ОЗЕРЦО, АГ. ПАРОХОНСК, АГ. РЕЧКИ, АГ. СОСОНЫ, АГ. ХОТЫНИЧИ, АГ.МЕЖИСЕТКИ, АГРОГОРОДОК БАБИНИЧИ, АГРОГОРОДОК БЕЛИЦА, АГРОГОРОДОК БЕЛОВЕЖСКИЙ, АГРОГОРОДОК БЕЛОУСОВЩИНА, АГРОГОРОДОК БЛОНЬ, АГРОГОРОДОК БОЛЬТИНИКИ, АГРОГОРОДОК БОЛЬШИЕ МОТЫКАЛЫ, АГРОГОРОДОК БОЛЬШИЕ ОЗЁРКИ, АГРОГОРОДОК БОРОВОЕ, АГРОГОРОДОК БОЧИНО, АГРОГОРОДОК БУЙНОВИЧИ, АГРОГОРОДОК БЫТЕНЬ, АГРОГОРОДОК ВАЛЕВКА, АГРОГОРОДОК ВЕЖИ, АГРОГОРОДОК ВЕЛИКОЕ СЕЛО, АГРОГОРОДОК ВЕНЗОВЕЦ, АГРОГОРОДОК ВЕРЕМЕЙКИ, АГРОГОРОДОК ВЕСЕЯ, АГРОГОРОДОК ВИДОМЛЯ, АГРОГОРОДОК ВИСТЫЧИ, АГРОГОРОДОК ВИШНЕВО, АГРОГОРОДОК ВОЙКОВО, АГРОГОРОДОК ВОЛЫНЦЫ, АГРОГОРОДОК ВОЛЯ, АГРОГОРОДОК ВОСХОД, АГРОГОРОДОК ГЛУШКОВИЧИ, АГРОГОРОДОК ГНЕЗНО, АГРОГОРОДОК ГОЩЕВО, АГРОГОРОДОК ГРИНКИ, АГРОГОРОДОК ДВОРЕЦ, АГРОГОРОДОК ДЕМБРОВО, АГРОГОРОДОК ДИВИН, АГРОГОРОДОК ДОБОСНА, АГРОГОРОДОК ДОБРОВЛЯ, АГРОГОРОДОК ДРУЙСК, АГРОГОРОДОК ЖДАНОВИЧИ, АГРОГОРОДОК ЖЕМЧУЖНЫЙ, АГРОГОРОДОК ЖЕРЕБКОВИЧИ, АГРОГОРОДОК ЖЕРНОСЕКИ, АГРОГОРОДОК ЖОДИШКИ, АГРОГОРОДОК ЗАБОЛОТЬ, АГРОГОРОДОК ЗАЕЛИЦА, АГРОГОРОДОК ЗАОЗЕРЬЕ, АГРОГОРОДОК ЗАСУЛЬЕ, АГРОГОРОДОК ЗДИТОВО, АГРОГОРОДОК ЗЕНЬКОВИЧИ, АГРОГОРОДОК ЗУБКИ, АГРОГОРОДОК ИГОВКА, АГРОГОРОДОК КЛЕПАЧИ, АГРОГОРОДОК КОБЫЛОВКА, АГРОГОРОДОК КОЛОДИЩИ, АГРОГОРОДОК КОПАЧИ, АГРОГОРОДОК КОРНАДЬ, АГРОГОРОДОК КОЧИЩИ, АГРОГОРОДОК КРАКОВКА, АГРОГОРОДОК КРИВИЧИ, АГРОГОРОДОК КРИВСК, АГРОГОРОДОК КРИНИЧНЫЙ, АГРОГОРОДОК КРЫНКИ, АГРОГОРОДОК КУКОВО, АГРОГОРОДОК ЛАНЬ, АГРОГОРОДОК ЛЕНИНСКИЙ, АГРОГОРОДОК ЛЕОНОВИЧИ, АГРОГОРОДОК ЛЕСНОЕ, АГРОГОРОДОК ЛЕСНОЙ, АГРОГОРОДОК ЛИНОВО, АГРОГОРОДОК ЛОГНОВИЧИ, АГРОГОРОДОК ЛОПАТИНО, АГРОГОРОДОК ЛУДЧИЦЫ, АГРОГОРОДОК ЛЯДНО, АГРОГОРОДОК ЛЯСКОВИЧИ, АГРОГОРОДОК МАТЕЕВИЧИ, АГРОГОРОДОК МАЧУЛИЩИ, АГРОГОРОДОК МЕДНО, АГРОГОРОДОК МЕЖДУЛЕСЬЕ, АГРОГОРОДОК МОЖЕЙКОВО, АГРОГОРОДОК МОКРОЕ, АГРОГОРОДОК МОРОЧЬ, АГРОГОРОДОК МУРАВА, АГРОГОРОДОК МУХАВЕЦ, АГРОГОРОДОК НЕГНЕВИЧИ, АГРОГОРОДОК НЕГОРЕЛОЕ, АГРОГОРОДОК НОВОДЕВЯТКОВИЧИ, АГРОГОРОДОК НОВЫЙ ДВОР, АГРОГОРОДОК ОБИДОВИЧИ, АГРОГОРОДОК ОГАРЕВИЧИ, АГРОГОРОДОК ОЗДЯТИЧИ, АГРОГОРОДОК ОКТЯБРЬ, АГРОГОРОДОК ОЛЬШАНКА, АГРОГОРОДОК ОРЕХОВСКИЙ, АГРОГОРОДОК ОСА, АГРОГОРОДОК ОСТРОМЕЧЕВО, АГРОГОРОДОК ОСТРОМИЧИ, АГРОГОРОДОК ОСТРОШИЦКИЙ ГОРОДОК, АГРОГОРОДОК ПАЦУИ, АГРОГОРОДОК ПЕРЕСАДЫ, АГРОГОРОДОК ПЕРЕСВЯТОЕ, АГРОГОРОДОК ПЕРШАИ, АГРОГОРОДОК ПЕСКИ, АГРОГОРОДОК ПОГОЩА, АГРОГОРОДОК ПОГРАНИЧНАЯ, АГРОГОРОДОК ПОГРАНИЧНЫЙ, АГРОГОРОДОК ПОДОРЕСЬЕ, АГРОГОРОДОК ПОЛОШКОВО, АГРОГОРОДОК ПРОШКОВО, АГРОГОРОДОК РЕВЯТИЧИ, АГРОГОРОДОК РОВБИЦК, АГРОГОРОДОК РОТАНЬ, АГРОГОРОДОК РЫМДЮНЫ, АГРОГОРОДОК САМОХВАЛОВИЧИ, АГРОГОРОДОК СЕЙЛОВИЧИ, АГРОГОРОДОК СЕКЕРИЧИ, АГРОГОРОДОК СЕМЕНОВИЧИ, АГРОГОРОДОК СЕНИЦА, АГРОГОРОДОК СИВИЦА, АГРОГОРОДОК СИНЬКИ, АГРОГОРОДОК СЛОБОДА, АГРОГОРОДОК СМОЛИЦА, АГРОГОРОДОК СНОВ, АГРОГОРОДОК СОЛТАНОВЩИНА, АГРОГОРОДОК СОШНО, АГРОГОРОДОК СПОРОВО, АГРОГОРОДОК СТАЙКИ, АГРОГОРОДОК СТАРОВОЛЯ, АГРОГОРОДОК СТАРЫЕ ДОРОГИ, АГРОГОРОДОК СТОДОЛИЧИ, АГРОГОРОДОК ТОМАШОВКА, АГРОГОРОДОК ТОПИЛИШКИ, АГРОГОРОДОК ТОРКАЧИ, АГРОГОРОДОК ТУРНА БОЛЬШАЯ, АГРОГОРОДОК ТЫШКОВИЧИ, АГРОГОРОДОК УДАРНЫЙ, АГРОГОРОДОК УЗМЕНЫ, АГРОГОРОДОК ХВИНЕВИЧИ, АГРОГОРОДОК ХОДАКИ, АГРОГОРОДОК ХОЛМЕЧ, АГРОГОРОДОК ХОТЛЯНЫ, АГРОГОРОДОК ХОТЫНИЧИ, АГРОГОРОДОК ХУДОВЦЫ, АГРОГОРОДОК ЧЕРНАВЧИЦЫ, АГРОГОРОДОК ЧУДИН, АГРОГОРОДОК ШЕНИ, АГРОГОРОДОК ЩЕПИЧИ, АГРОГОРОДОК ЩЕРЧОВО, АГРОГОРОДОК ЯСЕНЬ, АНТОНОВКА, Абрамовщина-3, Авангард, Августово, Авдеевичи, Авселево, Авхуты, Агрогородок Кривое село, Агрогородок Ленинский, Адаменка, Адаменки, Адамовичи, Адамово, Адверники, Ажуболи, Ажуройсти, Азаричи, Азарки-Дворище, Азделино, Азино, Акановичи, Аксаковщина, Александрия, Александров, Александровичи, Александровка, Александрово, Алексеевичи, Алексеевка, Алексейки, Алексиничи, Алекшицы, Алесино, Альба, Альбрехтово, Альбянка, Альховик, Альховка, Альшаники, Амбилевцы, Амбросовичи, Амоляны, Амховая 1, Ананино, Ананчицы, Андраны, Андреевичи, Андреевка, Андреевщина, Андрейки, Андриевщина, Андрияновка, Андроновичи, Андроново, Андроны, Андрушевцы, Андруши, Анетово, Анибалево, Аннополь, Аножки, Аношки, Антонишки, Антонов, Антоновка, Антоново, Антополь, Антополье, Антуши, Анусино, Ануфровичи, Ануфрово, Апалино-Басино, Арабники, Арабовщина, Аронова Слобода, Артуки, Артюхи, Асаново, Асаревичи, Аславеняты, Асовец, Асташево, Аталезь, Атолино, Атражье, Ахремовичи, Ахремовцы, Ахремцы, Б ЛЕПЕСЫ, Б ЛОТВА, Б.ЗАПОТОЧИ, Б.ЯКОВЧИЦЫ, БАРАНОВИЧИ, БАРАНЬ, БЕЛАЯ, БЕРЁЗА, БЕРЕЗА, БЕРЕЗКИ, БЕШЕНКОВИЧИ, БОБРОВИЧИ, БОБРУЙСК, БОЛБАСОВА, БОЛБАСОВО, БОРИСОВ, БОРОВАЯ, БРЕСТ, БУСНИ, Бабаевичи, Бабга, Бабиничи, Бабино-1, Бабино-2, Бабиновичи, Бабирово, Бабичи, Бабуничи, Бабча, Бабыничи, Бадёрый, Байбы, Байки, Байраши, Баков, Бакуны, Бакуны д, Бакуны-1, Бакшты, Балашевичи, Балаши, Балешин, Балины, Баличи, Балотня, Баньково, Барановичи, Барановичи 3, Бараново, Баранцы, Бараны, Барань, Барбаров, Барбары, Барберовка, Бардилы, Бармуты, Баровичи, Барово, Баровцы, Барсеево, Барсуки, Барташи, Барчицы, Барышевка, Басино, Баслаки, Басмановка, Бастеновичи, Бастуны, Баськи, Батаево, Батуринка, Батчи, Бахметовка, Бахотец, Бацевичи, Бацунь, Башни, Баштан, Бегени, Бегомль, Безверховичи, Безводники, Безводное, Бездеж, Беки, Белавичи, Белановичи, Беларучи, Белая, Белая Лужа, Белев, Белевичи, Белево, Беленево, Беленок, Белин, Белинок, Белица, Белицк, Беличи, Белковщина, Белобоки, Беловежский, Беловодка, Белогурно, Белое, Белое Болото, Белое Озеро, Белоозерный, Белоозерск, Белоозёрск, Белоусовщина, Белоусовщина д., Белоуша, Белусишки, Белые, Белые Болоты, Белый Лесок, Белыничи, Белынковичи, Белыновичи, Бель-1, Бельки, Бельск, Бельчица, Бельчицы, Беляевка, Беляковщина, Беляны, Беневичи, Бенин, Беница, Беньковцы, Бенякони, Бервеновка, Бервищи, Бердичи, Бердовка, Береговая Слобода, Береговой, Береговцы, Бережки, Бережное, Бережцы, Береза, Березина, Березино, Березинское, Березка, Березки, Березница, Березняки, Березовец, Березовица, Березовичи, Березовка, Берестеново, Берестовица, Берестье, Берковичи, Беркозы, Берники, Берёза, Берёзки, Берёзовичи, Берёзовка, Беседовичи, Бесчинье, Бешенковичи, Бигосово, Бикульничи, Бильдюги, Биордо, Бирули, Бирча, Бирюзово, Бискупцы, Благовичи, Блевчицы, Близнецы, Близница, Блонь, Блужа, Блювиничи, Бобарыки, Бобинка, Бобовики, Бобовичи, Бобовка, Бобовня, Бобр, Бобра, Бобренята, Бобрик, Бобрики, Бобровичи, Боброво, Бобровцы, Бобруйск, Бобы, Богатырево, Богатырская, Богданов, Богдановка, Богданово, Богданы, Богди, Богино, Богушево, Богушевск, Богуши, Богушовка, Богушово, Божки, Бокачи, Бокшицы, Болбасово, Болдуи, Болота, Болотня, Болотчицы, Болсуны, Больники, Больтиники, Больтишки, Большая Берестовица, Большая Боровка, Большая Быховщина, Большая Зимница, Большая Колоная, Большая Колпеница, Большая Комаровка, Большая Курница, Большая Лотва, Большая Лысица, Большая Людвиновка, Большая Мощаница, Большая Мысса, Большая Обрина, Большая Показь, Большая Раковица, Большая Рогозница, Большая Слобода, Большая Страча, Большая Тростяница, Большая Угринь, Большая Ухолода, Большевик, Большие Амхиничи, Большие Березовцы, Большие Бобровники, Большие Бортники, Большие Викоровичи, Большие Воробьевичи, Большие Жуховичи, Большие Завшицы, Большие Зимовищи, Большие Карныши, Большие Князиковцы, Большие Комарники, Большие Косичи, Большие Круговичи, Большие Лежни, Большие Лепесы, Большие Лесковичи, Большие Летцы, Большие Масушины, Большие Михалки, Большие Мотыкалы, Большие Негновичи, Большие Новоселки, Большие Озерки, Большие Орлы, Большие Радваничи, Большие Роги, Большие Сехновичи, Большие Словени, Большие Смольянцы, Большие Степанишки, Большие Хольневичи, Большие Хуторы, Большие Чучевичи, Большие Шиловичи, Большие Эйсмонты, Большие Якентаны, Большие Яковичи, Большие Яковчицы, Большое Барово, Большое Бахово, Большое Городище, Большое Городно, Большое Кошо, Большое Малешево, Большое Можейково, Большое Стахово, Большое Стиклево, Большое Уланово, Большое Черное, Большой Межник, Большой Нежков, Большой Павлополь, Большой Полсвиж, Большой Рожан, Большой Трилесин, Большой Тростенец, Болюто, Бомболы, Бондари, Бор, Бордиловка, Борздовка, Борисов, Борисовичи, Борисовка, Борисово, Борисовщина, Борисы, Боричевичи, Борки, Борки-1, Борковичи, Борколабово, Боровая, Боровики, Боровица, Боровка, Боровка 2-я, Боровлянский, Боровляны, Боровно, Боровое, Боровое Лядо, Боровуха, Боровцы, Боровые, Бородино, Бородичи, Бородичи д., Бородулино, Борок, Бороники, Бортники, Бортяки, Боруны, Борщевка, Борщовка, Борщёвка, Бостынь, Босяч, Ботвиновка, Ботвиново, Боханы, Бочейково, Бочешники, Боярск, Боярская, Бояры, Боёвка, Браги, Брагин, Браздетчино, Браздецкая Слобода, Браково, Брановичи, Браслав, Братково, Братняя Гора, Братылово, Брашевичи, Брест, Брест г, Бригидово, Бриксичи, Брилев, Брилево, Брильки, Бринев, Бровки, Бровск, Бродец, Бродница, Бродовка, Бродок, Броды, Брожа, Броздецкая Слобода, Брольники, Бронислав, Бронная Гора, Бронница, Бронное, Брузги, Бруски, Брусы, Брыли, Брюхово, Бубновка, Бубны, Бугримовка, Буда, Буда Головчицкая, Буда Гресская, Буда Люшевская, Буда-Кошелево, Буда-Лельчицкая, Буда-Софиевка, Будагово, Будачи, Будевцы, Буденичи, Буденного, Буденовка, Будилка, Будилово, Будислово, Будка, Будки, Буднево, Будники, Будовля, Будслав, Будча, Буды, Буевщина, Бузуны, Буйвичи, Буйки, Буйничи, Буйновичи, Буйное, Букча, Булавки, Бульково, Бураки, Бурезь, Бурки, Бусни, Бусяж, Бухличи, Буховичи, Буцевичи, Бучатино, Бушевка, Бушики, Бушмичи, Буянцы, Буяны, Бывальки, Быки, Быковщина, Быново, Быстрица, Быстромовцы, Бытень, Бытча, Быхов, Бычиха, В/Г №1 ДОМАНОВО, ВЕЙНО, ВЕЛУТА, ВЕТКА, ВИТЕБСК, ВОЛОВИЧЕВЦЫ, Вавераны, Ваверка, Ваверка д., Вазгелы, Вайнюнцы, Вайнюны, Вал, Валавск, Валавск д., Валавская Рудня, Валевачи, Валевка, Валерьяново, Валерьяны, Валище, Валянчицы, Ванелевичи, Ванюжичи, Варакумщизна, Варганы, Вардомичи, Варки, Варковичи, Вартыцк, Васарабы, Василевичи, Василевщина, Василинки, Василишки, Васильевка, Васильки, Васильковка, Васильково, Васильчицы, Васьковичи, Васьковщина, Васюки, Вашкели, Вашково, Ведрица, Ведрич, Вежи, Вежки, Вежны, Вейно, Вейнянский, Вейшичи, Веккер, Векшицы, ВелИКОЕ ЛЯДО, Велавск, Велевщина, Велемичи, Велетин, Велешино-1, Велешковичи, Великая Гать, Великая Кракотка, Великая Крушиновка, Великая Липа, Великая Падерь, Великая Раевка, Великая Слива, Великая Слобода, Великая Уса, Великие Автюки, Великие Гаяны, Великие Дольцы, Великие Кошевники, Великие Крагли, Великие Немки, Великие Новики, Великие Стрелки, Великие Укроповичи, Великие Шестаки, Великий Боков, Великий Бор, Великий Быков, Великий Двор, Великий Лес, Великий Мох, Великий мох, Великое Журово, Великое Лядо, Великое Село, Великорита, Велин, Величковичи, Величково, Велута, Вельямовичи, Велюнь, Велятичи, Вендорож, Вендорож аг, Вензовец, Венски, Верба, Вербилки, Вербичев, Вербки, Вербовичи, Верболоты, Вердомичи, Веребки, Верейки, Верейцы, Веремеевка, Веремейки, Вереньки, Вересково, Вересница, Веретеи, Веречье, Верещаки, Веркалы, Веркуды, Веробьевка, Вертелишки, Верусино, Верх-Крупово, Верх-Лида, Верхи, Верхнедвинск, Верхнее, Верхнее Кривино, Верхние Жары, Верхняя Олба, Верхняя Тощица, Верховичи, Верховье, Верхолесье, Верхустье, Верхутино, Веселая Горка, Веселово, Веселое, Веселый, Весея, Весея д., Веска, Веснино, Веснянка, Ветвица, Ветевичи, Ветеревичи, Ветеревичи 2, Ветка, Ветренка, Ветрино, Ветче, Веть, Вехотница, Вивнево, Видавщина, Видевщина, Видейки, Видзы, Видзы-Ловчинские, Видибор, Видишки, Видомля, Виков, Викшняны, Вилейка, Вилейты, Вилы, Вильча, Вильчицы, Вильяново, Винец, Винковцы, Виричев, Вирков, Вискули, Вистычи, Витебск, Витебск г, Витунь, Вить, Витьба, Вишевичи, Вишенка, Вишенский, Вишенька, Вишеньки, Вишневец, Вишневка, Вишнево, Вишнёвка, Вишов, Владимировка, Водовичи, Воевичи, Воевода, Возгелянцы, Вознесенский, Возрождение, Войганы, Войдевичи, Войневичи, Войниловичи, Войнилово, Войнилы, Войская, Войтешин, Войтковичи, Войтово, Войты, Волки, Волковичи, Волковыск, Волковыск г, Волколата, Волма, Воловичёвцы, Воловники, Воловщина, Володьки, Воложин, Волоки, Волосковня, Волосовичи, Волосово, Волохи, Волочек, Волпа, Волчас, Волчин, Волынцы, Волька, Вольно, Воля, Ворновка, Ворняны, Воробейки, Воробьевичи, Воробьи, Ворона, Ворони, Ворониловичи, Воронино, Вороничи, Вороновичи, Вороновка, Вороново, Воронцевичи, Воронча, Вороны, Воропаево, Воротище, Воротищи, Воротынщина, Воротынь, Вороцевичи, Ворошилы, Восток, Восточная, Восточный, Восход, Вощиничи, Вселюб, Вулкан, Вулька, Вулька-1, Вулька-Городищенская, Вулька-Обровская, Вулька-Радовецкая, Вулька-Телеханская, Выверы, Выгоничи, Выгонощи, Выдрица, Выжары, Выжловичи, Вымно, Вымочь, Вынищи, Выня, Высокая, Высокая Липа, Высокие Ляды, Высокий Полк, Высокое, Высокое д., Высочаны, Вытроповщина, Вычулки, Вышелов, Вышемир, Вядерево, Вяжище, Вяз, Вязанка, Вязань, Вязки, Вязовец, Вязовица, Вязовница, Вязынка, Вязынь, Вязычин, Вязье, Вязькутин-1, Вязьма, Вятеро, Г БАРАНОВИЧИ, Г БЕРЕЗИНО, Г БОРИСОВ, Г БРЕСТ, Г БЫХОВ, Г ВИЛЕЙКА, Г ВИТЕБСК, Г ВОЛКОВЫСК, Г ВОЛОЖИН, Г ГАНЦЕВИЧИ, Г ГОМЕЛЬ, Г ГРОДНО, Г ЖОДИНО, Г ЗАСЛАВЛЬ, Г КРУПКИ, Г ЛЕПЕЛЬ, Г ЛИДА, Г МИНСК, Г МОЗЫРЬ, Г НЕСВИЖ, Г ПОЛОЦК, Г РЕЧИЦА, Г СВЕТЛОГОРСК, Г СВИСЛОЧЬ, Г СКИДЕЛЬ, Г СЛОНИМ, Г СОЛИГОРСК, Г УЗДА, Г ЧАУСЫ, Г ЩУЧИН, Г. БАРАНОВИЧИ, Г. БЕЛЫНИЧИ, Г. БЕРЕЗА, Г. БОРИСОВ, Г. БРАСЛАВ, Г. БРЕСТ, Г. БЫХОВ, Г. ВИТЕБСК, Г. ГАНЦЕВИЧИ, Г. ГОМЕЛЬ, Г. ГРОДНО, Г. ДЯТЛОВО, Г. ЖОДИНО, Г. КЛЕЦК, Г. ЛИДА, Г. ЛОГОЙСК, Г. ЛУНИНЕЦ, Г. МАРЬИНА ГОРКА, Г. МИНСК, Г. МОГИЛЕВ, Г. НОВОГРУДОК, Г. ОШМЯНЫ, Г. ПОЛОЦК, Г. ПОСТАВЫ, Г. СКИДЕЛЬ, Г. СЛУЦК, Г. СОЛИГОРСК, Г.Брест, ГЛУБОКОЕ, ГОМЕЛЬ, ГОРКИ, ГОРОД АГ. ВЕРЕМЕЙКИ, ГОРОД АГ. КУКОВО, ГОРОД БАРАНОВИЧИ, ГОРОД БАРАНЬ, ГОРОД БЕЛООЗЁРСК, ГОРОД БЕЛООЗЕРСК, ГОРОД БЕРЁЗА, ГОРОД БЕРЕЗА, ГОРОД БЕРЕЗОВКА, ГОРОД БОБРУЙСК, ГОРОД БОРИСОВ, ГОРОД БРАСЛАВ, ГОРОД БРЕСТ, ГОРОД БУДА-КОШЕЛЁВО, ГОРОД БУДА-КОШЕЛЕВО, ГОРОД БЫХОВ, ГОРОД ВЕРХНЕДВИНСК, ГОРОД ВИТЕБСК, ГОРОД ВОЛКОВЫСК, ГОРОД ВОЛОЖИН, ГОРОД ВЫСОКОЕ, ГОРОД Г.АРЖАНОВОЙ, ГОРОД ГАНЦЕВИЧИ, ГОРОД ГЛУБОКОЕ, ГОРОД ГОЛЫНЬ, ГОРОД ГОМЕЛЬ, ГОРОД ГОРКИ, ГОРОД ГОРОДОК, ГОРОД ГРОДНО, ГОРОД ДЗЕРЖИНСК, ГОРОД ДОБРУШ, ГОРОД ДРОГИЧИН, ГОРОД ДЯТЛОВО, ГОРОД ЕЛЬСК, ГОРОД ЖАБИНКА, ГОРОД ЖЛОБИН, ГОРОД ЖОДИНО, ГОРОД ЖУКОВЩИНА, ГОРОД ИВАНОВО, ГОРОД ИВАЦЕВИЧИ, ГОРОД КАМЕНЕЦ, ГОРОД КИРОВСК, ГОРОД КЛЕЦК, ГОРОД КЛИМОВИЧИ, ГОРОД КОБРИН, ГОРОД КОБРИН-2, ГОРОД КОМАРОВКА, ГОРОД КОПЫЛЬ, ГОРОД КОСТЮКОВИЧИ, ГОРОД КРИЧЕВ, ГОРОД КРУПКИ, ГОРОД ЛЕПЕЛЬ, ГОРОД ЛИДА, ГОРОД ЛОГОЙСК, ГОРОД ЛЮБАНЬ, ГОРОД ЛЯХОВИЧИ, ГОРОД МАЙЗОРОВО, ГОРОД МАЛОРИТА, ГОРОД МАРЬИНА ГОРКА, ГОРОД МИНСК, ГОРОД МОГИЛЕВ, ГОРОД МОЗЫРЬ, ГОРОД МОЛОДЕЧНО, ГОРОД МОСТЫ, ГОРОД МСТИСЛАВЛЬ, ГОРОД НЕСВИЖ, ГОРОД НОВОГРУДОК, ГОРОД НОВОЛУКОМЛЬ, ГОРОД НОВОПОЛОЦК, ГОРОД ОРША, ГОРОД ОСИПОВИЧИ, ГОРОД ОСТРОВЕЦ, ГОРОД ОШМЯНЫ, ГОРОД ПЕТРИКОВ, ГОРОД ПИНСК, ГОРОД ПОЛОЦК, ГОРОД ПОСТАВЫ, ГОРОД ПРУЖАНЫ, ГОРОД РЕЧИЦА, ГОРОД РОГАЧЁВ, ГОРОД РОГАЧЕВ, ГОРОД СВЕТЛОГОРСК, ГОРОД СВИСЛОЧЬ, ГОРОД СКИДЕЛЬ, ГОРОД СЛОНИМ, ГОРОД СЛУЦК, ГОРОД СМОРГОНЬ, ГОРОД СОЛИГОРСК, ГОРОД СТОЛБЦЫ, ГОРОД СТОЛИН, ГОРОД СУМОРОКОВО, ГОРОД УЗДА, ГОРОД ФАНИПОЛЬ, ГОРОД ХАРТИЦА, ГОРОД ХОЙНИКИ, ГОРОД ХОМИЧИ, ГОРОД ЧАУСЫ, ГОРОД ЧАШНИКИ, ГОРОД ЧЕРИКОВ, ГОРОД ЧЕЧЕРСК, ГОРОД ЩУЧИН, ГОРОД ЮРАТИШКИ, ГОРОДЕЯ, ГОРОДСКОЙ ПОСЕЛОК БОЛЬШАЯ БЕРЕСТОВИЦА, ГОРОДСКОЙ ПОСЕЛОК ВОРОНОВО, ГОРОДСКОЙ ПОСЕЛОК ГОРОДЕЯ, ГОРОДСКОЙ ПОСЕЛОК ЗЕЛЬВА, ГОРОДСКОЙ ПОСЕЛОК ИВЕНЕЦ, ГОРОДСКОЙ ПОСЕЛОК КОРЕЛИЧИ, ГОРОДСКОЙ ПОСЕЛОК КРАСНОСЕЛЬСКИЙ, ГОРОДСКОЙ ПОСЕЛОК ЛЕЛЬЧИЦЫ, ГОРОДСКОЙ ПОСЕЛОК ЛОГИШИН, ГОРОДСКОЙ ПОСЕЛОК МИР, ГОРОДСКОЙ ПОСЕЛОК НОВОЕЛЬНЯ, ГОРОДСКОЙ ПОСЕЛОК ПЛЕЩЕНИЦЫ, ГОРОДСКОЙ ПОСЕЛОК ПОРОЗОВО, ГОРОДСКОЙ ПОСЕЛОК ПРИВОЛЬНЫЙ, ГОРОДСКОЙ ПОСЕЛОК РАДУНЬ, ГОРОДСКОЙ ПОСЕЛОК РОССЬ, ГОРОДСКОЙ ПОСЕЛОК РУДЕНСК, ГОРОДСКОЙ ПОСЕЛОК РУЖАНЫ, ГОРОДСКОЙ ПОСЕЛОК СТАРОБИН, ГОРОДСКОЙ ПОСЕЛОК ТЕЛЕХАНЫ, ГОРОДСКОЙ ПОСЕЛОК ШАРКОВЩИНА, ГП БЕГОМЛЬ, ГП ЛЕЛЬЧИЦЫ, ГП ТЕЛЕХАНЫ, ГП УШАЧИ, ГП ШЕРЕШЕВО, ГРОДНО, Габриелевка, Габруны, Гавли, Гавриловцы, Гаврильчицы, Гадиловичи, Гадилуны, Гаек, Гажин, Гайковка, Гайлеши, Гайна, Гайнинец, Галево, Галенчицы, Галены, Галимцы, Галимщина, Галый Бор, Галынка, Гальки, Гальковка, Гальчуны, Ганевичи, Ганковичи, Ганусовщина, Ганцевичи, Ганчицы, Ганьковичи, Гапановичи, Гапоновичи, Гарбузы, Гарутишки, Гатовино, Гатовичи, Гатово, Гатовщина, Гать, Гаути, Гацук, Гацук д., Гвоздово, Гвозница, Гдень, Гезгалы, Гейбовичи, Геленово, Геранены, Геранёны, Герасимово, Гервяты, Германишки, Германовичи, Гибуличи, Гиженка, Гили, Гилики, Гимбуты, Гинели, Гиновичи, Гинцевичи, Гирдевка, Гиревичи, Гирейши, Гири, Гирики, Гиричи, Гирки, Гирмантовцы, Гирово, Гирск, Гирстуны, Глазовка, Глазомичи, Глебовичи, Гливин, Глиница, Глинище, Глинищи, Глинка, Глинки, Глинная, Глинь, Глинянки, Глиняны, Глубокое, Глубочица, Глуск, Глухи, Глуховка, Глухой Ток, Глухская Селиба, Глуша, Глуша п., Глушковичи, Глыбов, Глыбоцкое, Глыбочка, Глядовичи, Гневчицы, Гнезно, Говяды, Годылево, Гожа, Гоза, Голбея, Голдово, Голи, Голицы, Головачи, Головенчицы, Головинцы, Головичи, Головичполье, Головки, Головли, Головнинцы, Головничи, Головчин, Головчицы, Голосятино, Голоцк, Голочево, Голубица, Голубичи, Голубовка, Голубово, Голубы, Голынец, Голынец 1, Голынец 2, Голынка, Голынь, Голышки, Гольсберг, Гольцы, Гольчичи, Гольшаны, Гомель, Гомель  м-н Костюковка, Гомель  микр.Костюковка, Гомель  р.п.Костюковка, Гомель  р/п Костюковка, Гомель  р/п Косюковка, Гомель г, Гонолес, Гонча, Гончаровка, Гончарово 1, Гончары, Гоньки, Гора, Горавица, Горани, Горбатка, Горбаты, Горбаха, Горбацевичи, Горбачево, Горбовичи, Горбуновщина, Гордыново, Горевичи, Горелец, Горивода, Гориденяты, Горицы, Горка, Горки, Горки г, Горковская Слобода, Горная Рута, Горно, Горново, Горностаевичи, Горные Ходцы, Горовые, Город БЕЛООЗЕРСК, Город ВИТЕБСК, Город ЛИДА, Город МИНСК, Город СТОЛБЦЫ, Город ЩУЧИН, Городец, Городечно, Городея, Городея аг., Городилово, Городище, Городная, Городники, Городнянский Мох, Городняны, Городовка, Городок, Городчина, Городщина, Городьки, Гороховищи, Гороховка, Горочичи, Горошков, Гортоль, Горы, Горькаво, Горяны, Гославщина, Госсортучасток, Гостиловичи, Гостино, Гоцк, Гошево, Гощево, Грабов, Грабовка, Грабово, Грабовцы, Грабск, Гравжишки, Граденец, Градовщизна, Грамоще, Граничи, Грановка, Гребеневский, Гребени, Гребенка, Гребеновщина, Гребень, Гребёнка, Грейтево, Греск, Гречихи, Гречухи, Грибаны, Грива, Гривки, Гривковичи, Григоровичи, Грини, Гринки, Гринки 1, Гритуны, Гритуны д, Грицевичи, Грицкевичи, Грицки, Грицковичи, Грицковщина, Гричино, Гричиновичи, Гришаны, Гродзянка, Гроди, Гродно, Грозово, Громовичи, Гронов, Грудиновка, Грудиново, Грудок, Груздово, Груск, Грусково, Грушевка, Грушевник, Грушево, Гряда, Грязивец, Губанов, Губерня, Губинка, Губино, Губичи, Гудевичи, Гудинишки, Гудовичи, Гудогай, Гудогай ж/д ст., Гуды, Гузгаловка, Гулевичи, Гулевичский, Гулидово, Гуменики, Гурины, Гурновщина, Гурнофель, Гусак, Гусаки, Гусинцы, Гута, Гутница, Гущицы, Д БОЛЬШИЕ ЛЕПЕСЫ, Д ВЕРХИ, Д ВЕРХОЛЕСЬЕ, Д ВОЛЧИН, Д ЗНАМЕНКА, Д КОВЕРДЯКИ, Д КОПИЩЕ, Д КРИНИЦА, Д ЛЕГАТЫ, Д ЛЕПЛЕВКА, Д. БОРОВЛЯНЫ, Д. ДОРОПЕЕВИЧИ, Д. ЖИРМУНЫ, Д. ЗАЛИПЕНЬЕ, Д. Заболоть, Д. НОГОРЬЕ, Д. ПИГАНОВИЧИ, Д. ПОДЛАБЕНЬЕ, Д. СЕЛИЩЕ, Д. ЧЕРНАВЧИЦЫ, Д.заречье, ДАЙЛИДЫ, ДЕРЕВНЯ ЁТКИШКИ, ДЕРЕВНЯ АДЕЛИНО, ДЕРЕВНЯ АНДРЕЕВЩИНА, ДЕРЕВНЯ БЕЛЬЧИЦЫ, ДЕРЕВНЯ БОГДИ, ДЕРЕВНЯ БОЛЬШАЯ МЕДВЯДКА, ДЕРЕВНЯ БОЛЬШИЕ ЛЕПЕСЫ, ДЕРЕВНЯ БОЛЬШИЕ МОТЫКАЛЫ, ДЕРЕВНЯ БОЛЬШИЕ СТЕПАНИШКИ, ДЕРЕВНЯ БОЛЬШИЕ ЩИТНИКИ, ДЕРЕВНЯ БОЛЬШОЙ ТРОСТЕНЕЦ, ДЕРЕВНЯ БОРИСОВО, ДЕРЕВНЯ БОРИШИНО, ДЕРЕВНЯ БОРОВКА, ДЕРЕВНЯ БОРОВЛЯНЫ, ДЕРЕВНЯ БОРОК, ДЕРЕВНЯ БУДЧА, ДЕРЕВНЯ ВАРНОУГОЛ, ДЕРЕВНЯ ВЕЛЬЯМОВИЧИ, ДЕРЕВНЯ ВЕРЕСКОВО, ДЕРЕВНЯ ВЕРХОЛЕСЬЕ, ДЕРЕВНЯ ВИРКОВО, ДЕРЕВНЯ ВИШНЕВЕЦ, ДЕРЕВНЯ ВОРОТИЩИ, ДЕРЕВНЯ ВЯЗЬМА, ДЕРЕВНЯ ГАДИЛОВИЧИ, ДЕРЕВНЯ ГАДЫЛЕВО, ДЕРЕВНЯ ГАЛЕВО, ДЕРЕВНЯ ГАНЦЕВИЧИ, ДЕРЕВНЯ ГЛАЗОМИЧИ, ДЕРЕВНЯ ГЛИННАЯ, ДЕРЕВНЯ ГОЛОВАЧИ, ДЕРЕВНЯ ГОЛЬЧИЧИ, ДЕРЕВНЯ ГОРА, ДЕРЕВНЯ ГОРВАЛЬ, ДЕРЕВНЯ ГОРОДИЩЕ, ДЕРЕВНЯ ГОРОДНЯНЫ, ДЕРЕВНЯ ГРИЦКИ, ДЕРЕВНЯ ГУБЕРНЯ, ДЕРЕВНЯ ГУЩИЦЫ, ДЕРЕВНЯ ДЕГТЯРЫ, ДЕРЕВНЯ ДЕМЕНИЧИ, ДЕРЕВНЯ ДЕНИСКОВИЧИ, ДЕРЕВНЯ ДЕРЕВНАЯ, ДЕРЕВНЯ ДЕТКОВИЧИ, ДЕРЕВНЯ ДУБОВЦЫ, ДЕРЕВНЯ ДУНАЙ, ДЕРЕВНЯ ЕРЕМИЧИ, ДЕРЕВНЯ ЕФИМОВА, ДЕРЕВНЯ ЖУХОВЦЫ, ДЕРЕВНЯ ЗАБОЛОТЬЕ, ДЕРЕВНЯ ЗАВИТАЯ, ДЕРЕВНЯ ЗАДВОРЬЕ, ДЕРЕВНЯ ЗАДЕРТЬ, ДЕРЕВНЯ ЗАЛЕСЬЕ, ДЕРЕВНЯ ЗАОЗЕРЬЕ, ДЕРЕВНЯ ЗАПОЛЬЕ, ДЕРЕВНЯ ЗАПРУДЬЕ, ДЕРЕВНЯ ЗАСЕТЬЕ, ДЕРЕВНЯ ЗАЯМНОЕ, ДЕРЕВНЯ ИЗАБЕЛИН, ДЕРЕВНЯ КАЛИНИНО, ДЕРЕВНЯ КАМЕНО, ДЕРЕВНЯ КАРОЛИН, ДЕРЕВНЯ КАРПЕШИ, ДЕРЕВНЯ КАШЕНЦЫ, ДЕРЕВНЯ КЛЕПАЧИ, ДЕРЕВНЯ КЛЕПЧАНЫ, ДЕРЕВНЯ КОЛЯДИЧИ, ДЕРЕВНЯ КОМАРОВО, ДЕРЕВНЯ КОНЧИЦЫ, ДЕРЕВНЯ КОНЮХИ, ДЕРЕВНЯ КОПТЕВЩИНА, ДЕРЕВНЯ КРАСНАЯ БЕЛАРУСЬ, ДЕРЕВНЯ КРАСНАЯ ЗВЕЗДА, ДЕРЕВНЯ КРАСНИЦА-1, ДЕРЕВНЯ КУРГАНЫ, ДЕРЕВНЯ КУХТИЧИ, ДЕРЕВНЯ КУХЧИЦЫ, ДЕРЕВНЯ КУЧКУНЫ, ДЕРЕВНЯ ЛАНЬ, ДЕРЕВНЯ ЛЕПЛЕВКА, ДЕРЕВНЯ ЛЕСКОВКА, ДЕРЕВНЯ ЛЕСОК, ДЕРЕВНЯ ЛОГОЗА, ДЕРЕВНЯ ЛОКТЫШИ, ДЕРЕВНЯ ЛЮБАШЕВО, ДЕРЕВНЯ ЛЯДКИ, ДЕРЕВНЯ МАЛАЯ ПАДЕРЬ, ДЕРЕВНЯ МАЛЫЕ ЛЕТЦЫ, ДЕРЕВНЯ МАЛЫЕ РАДВАНИЧИ, ДЕРЕВНЯ МАНЬКОВЩИНА, ДЕРЕВНЯ МИЖЕРИЧИ, ДЕРЕВНЯ МИЛЬКОВЩИНА, ДЕРЕВНЯ МИХНОВИЧИ, ДЕРЕВНЯ МИЦКАНЦЫ, ДЕРЕВНЯ МОКРОЕ, ДЕРЕВНЯ МОРОЧЬ, ДЕРЕВНЯ МУРОВАНКА, ДЕРЕВНЯ НАЧЬ, ДЕРЕВНЯ НЕМЕРЖА, ДЕРЕВНЯ НЕПЛИ, ДЕРЕВНЯ НЕТЕЧЬ, ДЕРЕВНЯ НИКИТИНИЧИ, ДЕРЕВНЯ НОВИНКИ, ДЕРЕВНЯ НОВОДВОРКИ, ДЕРЕВНЯ НОВОСЁЛКИ, ДЕРЕВНЯ НОВОСЕЛКИ, ДЕРЕВНЯ НОВЫЕ ЗАСИМОВИЧИ, ДЕРЕВНЯ НОВЫЙ ДВОР, ДЕРЕВНЯ НОВЫЙ СВЕРЖЕНЬ, ДЕРЕВНЯ ОБЕРОВЩИНА, ДЕРЕВНЯ ОЗЕРО, ДЕРЕВНЯ ОЗЕРСКО, ДЕРЕВНЯ ОКТЯБРЬ, ДЕРЕВНЯ ОРАНЧИЦЫ, ДЕРЕВНЯ ОСТРОВ, ДЕРЕВНЯ ПАНКРАТОВИЧИ, ДЕРЕВНЯ ПАШКИ, ДЕРЕВНЯ ПЕРЕЕЗДНАЯ, ДЕРЕВНЯ ПЕСКИ, ДЕРЕВНЯ ПЕСОЧНОЕ, ДЕРЕВНЯ ПЛЯНТА, ДЕРЕВНЯ ПОДВЕЛИКОЕ, ДЕРЕВНЯ ПОРОСЛЯНЫ, ДЕРЕВНЯ ПОСАДЕЦ, ДЕРЕВНЯ ПРИЛЕПЦЫ, ДЕРЕВНЯ ПРИЛУКИ, ДЕРЕВНЯ ПРИСЫНОК, ДЕРЕВНЯ ПРОШИКА, ДЕРЕВНЯ РАЕВСКИЕ, ДЕРЕВНЯ РАУБИЧИ, ДЕРЕВНЯ РЫБНА, ДЕРЕВНЯ СЕЛИЩЕ, ДЕРЕВНЯ СИДОРОВКА, ДЕРЕВНЯ СКАРПОВЦЫ, ДЕРЕВНЯ СКОРЫ, ДЕРЕВНЯ СЛОБОДА, ДЕРЕВНЯ СМОЛЯНЫ, ДЕРЕВНЯ СТАЙКИ, ДЕРЕВНЯ СТАНЬКОВО, ДЕРЕВНЯ СТАРАЯ СЛОБОДА, ДЕРЕВНЯ СТАРИНА, ДЕРЕВНЯ СТРЕЛЬЦЫ-1, ДЕРЕВНЯ СТЫТЫЧЕВО, ДЕРЕВНЯ СУДИЛОВИЧИ, ДЕРЕВНЯ СЫЧИ, ДЕРЕВНЯ ТЕЛЬМЫ-1, ДЕРЕВНЯ ТЕЛЬМЫ-2, ДЕРЕВНЯ ТЕРЕБУТЫ, ДЕРЕВНЯ ТОМАШОВКА, ДЕРЕВНЯ ТУРНА БОЛЬШАЯ, ДЕРЕВНЯ УСОВО, ДЕРЕВНЯ УХВАЛА, ДЕРЕВНЯ ФАРИНОВО, ДЕРЕВНЯ ХАНЕВИЧИ, ДЕРЕВНЯ ЧЕРНИКОВЩИНА, ДЕРЕВНЯ ЧЕРНИЧНОЕ, ДЕРЕВНЯ ЧЕРСК, ДЕРЕВНЯ ШИКОТОВИЧИ, ДЕРЕВНЯ ЩЕРЧОВО, ДЕРЕВНЯ ЮНЬКИ, ДЕРЕВНЯ ЮРКОВЩИНА, ДЕРЕВНЯ ЯСЕНЬ, ДЕРЕВНЯ ЯСИНОВКА, ДРУЖНЫЙ, ДУБРОВНО, Давид-Городок, Давыдки, Давыдовка, Дайлидки, Дайлиды, Дайнова, Дайнова-1, Далекие, Далики, Дальние Бондари, Данейки, Даниловичи, Даниловка, Даньковичи, Дапаны, Дараганово, Дарани, Дарево-Чиж, Дары, Дачная, Дачное, Дашки, Дашковка, Дашковцы, Движки, Двор Бабча, Двор Суша, Двор-Плино, Дворец, Дворище, Дворное Село, Дворцы, Дворчаны, Девятки, Девятковцы, Дегтяное, Дегтяные, Дегтяревка, Дедино, Дедки, Дедково, Дедовка, Дейки, Декшняны, Демброво, Деменичи, Демехи, Демидов, Демидов д., Демидовичи, Демидовка, Демидовщина, Демьяновка, Демянчицы, Денисковичи, Денисово, Деновишки, Деньковцы, Деражня, Дербин, Дербичи, Деревная, Деревная д., Деревня, Деревня ОЗЕРЩИНА, Деревянчицы, Деречин, Деречино, Деречинцы, Деркачи, Дерковщина, Дерутская, Десятники, Детковичи, Дещенка, Дзержинск, Дзержинск д, Дивин, Дикушки, Димамерки, Динаровка, Дисна, Дитва, Дитрики, Дмитриевка, Дмитриевка -2, Дмитриевка 1, Дмитриевка-2, Дмитровичи, Дмитровщина, Добея, Добовичи, Добосна, Добрая, Добрая Воля, Добрейка, Добригоры, Добринево, Добрино, Добровичи, Добровляны, Доброволя, Доброгоща, Доброе, Добромысли, Добромысль, Добросневичи, Добруш, Добрынский, Добрынь, Добужа, Добучин, Довбени, Довбенки, Довгулевщина, Довгялы, Довнары, Довск, Довск аг., Дойничево, Доколь, Докудово, Докудово 1, Докудово 2, Докурнишки, Докшицы, Долбизно, Долбневичи, Долбнево, Долбцы, Долгиново, Долговичи, Долгое, Долголесье, Долгополье, Должа, Должаны, Долки, Долматовщина, Домановичи, Доманово, Домантовичи, Домачево, Домачевский поселковый Совет, Домашаны, Домашевичи, Домашево, Домаши, Домашицы, Домашки, Домашковичи, Домжерицы, Домовицк, Домоткановичи, Доргишки, Доржи, Доржни, Дормантово, Дорогляны, Дорожки, Доропеевичи, Доросино, Дорошевичи, Доры, Достижение, Дотишки, Дофаренция, Драбовщина, Дражно, Драпово, Драпово д., Драчева, Драчково, Дребск, Древеники, Дреколье, Дречаны, Дрибин, Дризгаловича, Дрила-1, Дрисвяты, Дричин, Дрогичин, Дроздино, Дроздово, Дрозды, Другая Слободка, Дружба, Дружиловичи, Дружная, Дружный, Дружный п., Друйка, Друйск, Друйск д., Друцковщизна, Друя, Дрюково, Дубеи, Дубенцы, Дубешня, Дубина Боярская, Дубина Юрздыцкая, Дубинка, Дубинки, Дубино, Дубины, Дубица, Дубицкая Слобода, Дубичи, Дубки, Дублин, Дубники, Дубницкое, Дубницы, Дубно, Дубовая, Дубовица, Дубовка, Дубовляны, Дубовое, Дубовцы, Дубовщина, Дубой, Дубок, Дубравино, Дуброва, Дубровица, Дубровка, Дубровляны, Дубровно, Дубровня, Дуброво, Дудари, Дудары, Дудинка, Дудичи, Дуды, Дужевка, Дукойни, Дукора, Дулебы, Дулевцы, Дуличи, Думановщина, Дунаек, Дунай, Дунайчицы, Дуниловичи, Дуравичи, Дусаевщина, Дутчино, Духовляны, Душево, Дуяновка, Дыманово, Дымовщина, Дындылишки, Дыя, Дягелец, Дягили, Дягильно, Дягли, Дяговичи, Дяжки, Дяковичи, Дяковцы, Дялино, Дятловичи, Дятлово, Дятловщина, Дёрновичи, ЕРЕМИНО, Евдокимовичи, Евличи, Евсимовичи, Единство, Едловичи, Езапов, Езерище, Езеры, Еланы, Елизово, Елизово п., Елизово рп, Елишево, Елка, Ельковщина, Ельковщина аг, Ельница, Ельно, Ельня, Ельск, Емельяновичи, Ендриховцы, Еремино, Еремичи, Ермаковка, Ермоловичи, Ерхи, Ерши, Ерёмино, Ерёмичи, Есипова Рудня, Есипово, Еськовичи, Еськовцы, Есьманы, Ефимово, Ецевичи, ЖАБИНКА, Жабин, Жабинка, Жабчицы, Жадейки, Жажелка, Жалы, Жанковичи, Жарковщина, Жарнели, Жары, Жатерево, Жгуно-Буда, Жгунь, Ждановичи, Жданы, Жевново, Железняки, Желигово, Желудок, Жемчужный, Жемыславль, Жердянский, Жеребковичи, Жерлаки, Жерносеки, Жерствянка, Жерствянники, Жертвянники, Жестиное, Жигули, Жидче, Жилин Брод, Жилинские, Жилихово, Жиличи, Жирмуны, Жировичи, Житин, Житковичи, Житновичи, Житовля, Житомля, Житьково, Жичин, Жлобин, Жмуровка, Жовнино, Жодино, Жодино г, Жодишки, Жолкино, Жорновка, Жоровка, Жукевичи, Жуки, Жукнево, Жуков Борок, Жуков Луг, Жуковичи, Жуковка, Жуково, Жуковщина, Жупраны, Журавинка, Журавичи, Журавковичи, Журавцы, Журевичи, Журихи, Жусины, Жуховцы, Жучки, ЗАЛУЗЬЕ, ЗАНКИ 1, ЗАСЛАВЛЬ, ЗУБРЕНЕВКА, Забабье, Забашевичи, Забелышин, Забелье, Заберезь, Забичаны, Забияка, Забоенье, Заболотники, Заболоть, Заболотье, Заборные Гумна, Заборовье, Заборье, Забрезье, Забродье, Завельцы, Завережье, Завершье, Заверье, Заветное, Завечелье, Завидичи, Завидное, Завидчицы, Завитая, Заводская Слобода, Завойть, Заволочицы, Завышье, Завязье, Загаличи, Загалье, Загоренка, Загорины, Загорное, Загородная, Загородье, Загорцы, Загорщина, Загорье, Заградье, Загритьково, Задворники, Задворье, Задворяне, Задерть, Задетуни, Задомля, Задорожье, Задоры, Задорье, Задровье, Задубровье, Задубье, Заелица, Заельник, Заельня, Зажевичи, Зазерица, Зазерка, Зазерье, Зазоны, Зайцева Слобода, Зайцево, Закаблуки, Закальное, Закалюжье, Закозель, Закросница, Закрошинский мох, Закружка, Залески, Залесовичи, Залесье, Залешаны, Залинейный, Залипенье, Залипье, Залохвенье, Залужье, Залузье, Залучино, Залье, Залютичи, Залядынье, Замки, Замлынье, Замосточье, Замостье, Замостяны, Замочек, Замошаны, Замошье, Замужанье, Замшаны, Замшено, Занарочь, Заневичи, Зани, Занивье, Занки 1, Занки 2, Заозерье, Заозёрный, Заорье, Заостровечье, Запасенье, Запесочье, Заполичи, Заполье, Запросье, Запруды, Запрудье, Запрудяны, Запружаны, Запурье, Зараковцы, Зарачье, Зарестье, Заречане, Заречанка, Заречка, Заречная, Заречная Слобода, Заречное, Заречье, Зарица, Заровцы, Зарой, Зароново, Зарослое, Зарубино, Зарубы, Зарудавье, Зарудичи, Зарытово, Засетье, Засинцы, Заситница, Засковичи, Заславль, Заслоновка, Заслоново, Заслучно, Засовье, Заспа, Заставье, Застаринье, Застенки, Застенок Брили, Застенок Устерхи, Застодолье, Застружье, Засулье, Затитова Слобода, Затишье, Затурья, Заутье, Зафильцы, Захаричи, Захаришки, Захарничи, Заходы, Зацень, Зачепичи, Зачеревье, Зачерня, Зачистье, Заширье, Защебье, Защита, Заямное, Заямное д., Заямочное, Заяченье, Збироги, Зборов, Збочно, Збунин, Збураж, Звезда, Звездная, Звенчатка, Звеняты, Звеняцкое, Звенячи, Звонец, Звонка, Згурск, Здитово, Здудичи, Зеленая, Зеленевичи, Зеленка, Зеленки, Зеленочи, Зеленый Бор, Зеленый Дуб, Зеленый Курган, Зеленый Остров, Зелово, Зельва, Зельвянка, Зелёная, Зелёнка, Зелёный Курган, Зембин, Зеньковичи, Зеньковцы, Зимница, Зиновичи, Змеевцы, Знаменка, Знаменская, Знамя, Золотва, Золотеево, Золотой Рог, Золотуха, Зори, Зоричи, Зорька, Зосимы, Зубелевичи, Зубки, Зубковичи, Зубово, Зубовщина, Зубревичи, Зубренёвка, Зуи, Зывышье, Зябки, Зябровка, ИВАЦЕВИЧИ, Иваки, Иваничи, Иванки, Иванковичи, Иванковщина, Иванова Слобода, Ивановка, Иваново, Ивановские Огородники, Ивановские огородники, Иванск, Ивань, Ивахновичи, Ивацевичи, Ивенец, Ивесь, Ивольск, Ивонцевичи, Ивье, Игнатово, Иговка, Игрушка, Идолта, Ижа, Изабелин, Изабелино, Избино, Избицкое, Избище, Избудище, Изобелин, Изобелино, Иказнь, Иканы, Илово, Ильинка, Ильич, Ильюшино, Илья, Ильяни, Именин, Индрубка, Индура, Интернациональный, Иодовцы, Иодчики, Иоды, Ипполитовка, Ипуть, Ирдица, Исаевичи, Исерно, Искань, Искра, Искры, Истобки, Ишколдь, КАЛИНКОВИЧИ, КАЛИНОВО, КАЛИНОВСКАЯ, КАРПОВКА, КАРЧЕВЩИНА, КЛИМОВКА, КОБРИН, КОЗЛОВСКАЯ, КОЛОДИЩИ, КОЛЯДИЧИ, КОПЫСЬ, КОРОЛЕВСТАН, КРЫЖОВКА, КУРОРТНЫЙ ПОСЕЛОК БОЛЬШАЯ-ЛЫСИЦА, Кабак, Кабаки, Кабановка, Кабище, Каваличи, Кадино, Кажушки, Казазаевка, Казаки, Казановка, Казацкие Болсуны, Казейки, Казеково, Казимировка, Казимирово, Кайково, Калатичи, Калачи, Каленики, Каленковичи, Калилы, Калинина, Калинино, Калининск, Калиничи, Калинковичи, Калиновая, Калиновка, Калиново, Калиновская, Калита, Каллауровичи, Кальчицы, Калюга, Калюжки, Камаи, Каменец, Каменица, Каменица-Жировецкая, Каменичи, Каменка, Каменная Горка, Каменная Русота, Каменные Лавы, Каменный Лог, Камено, Каменцы, Камень, Каменюки, Каминщина, Канава, Канютичи, Каплановцы, Капланцы, Капличи, Капустино, Каравайница, Караевичи, Каралино, Каралюнцы, Карасино, Карацк, Карашево, Карвели, Кармазы, Каролин, Каролина, Каролино, Карпеки, Карпеши, Карпиловка, Карповичи, Карповка, Карцевичи, Карчево, Касынь, Каськово, Каташи, Катеновичи, Катка, Катовичи, Качановичи, Качино, Качки, Каштановка, Квартяны, Квасевичи, Квасовка, Квасыничи, Кваторы, Квачи, Кейзики, Келейти, Кель, Кемейши, Кемелишки, Кемяны, Керняны, Кибы, Киевец, Кирилино, Кирковщина, Киров, Кирово, Кировск, Кировская, Кирши, Кисаревщина 1, Киселева Буда, Киселевцы, Кисели, Киселёвцы, Кистени, Китин, Кищина Слобода, Клайши, Клевцы, Клейники, Кленник, Клепачи, Клепчаны, Клесино, Клетная, Клетное, Клетыще, Клецк, Клешево, Клещино, Кливы, Клиденяты, Климовичи, Климовка, Климы, Клин, Клинок, Клинск, Кличев, Клишевичи, Клочки, Клюковка, Ключевой, Ключи, Клюшниково, Клясино, Клястицы, Кмитянка, Кнубово, Княгинин, Княжеборье, Княжица, Князево, Кобелка, Кобрин, Кобровцы, Кобыловка, Кобылока, Кобыльники, Ковалево, Ковалевщина, Ковали, Ковалики, Коваличи, Ковгары, Ковердяки, Ковзаны, Ковнятин, Коврин, Ковровое, Ковчицы-2, Ковшово, Кожан-Городок, Кожан-Городок д., Кожево, Кожуровщина, Козелужье, Козельщина, Козенки, Козики, Козище, Козлов Берег, Козловичи, Козловичи 2-е, Козловка, Козловщина, Козлы, Козлякевичи, Козыри, Козье, Козьянки, Козяны, Коковчино, Колбово, Колбча, Колдычево, Коледино, Коленкишки, Коленьки, Колки, Колодежи, Колодищанский, Колодищи, Колодищи п., Колодница, Колодно, Колодное, Колозубы, Колония Казимировка, Колос, Колосово, Колотовино, Колпаки, Колпень, Колубели, Колыбовка, Колышки, Кольно, Кольчуны, Колядичи, Колядичи д., Комарин, Комаровичи, Комаровка, Комарово, Комаровщина, Комары, Коминтерн, Комиссарово, Коммуна, Коммунар, Комоски, Комотово, Комсеничи, Комсомолец, Комсомольск, Комсомольская, Конашково, Конвелишки, Коневцы, Конковичи, Конколовичи, Конно, Коновалово, Кононовщина, Конотоп, Конотопы, Константиновка, Константиново, Константово, Кончаны, Кончицы, Коньки, Конюхи, Конюшевщина, Копань, Копаткевичи, Копацевичи, Копачевка, Копачи, Копачи д., Копиевичи, Копище, Коптевичи, Коптевка, Коптевщина, Коптели, Копти, Копцевичи, Копча, Копылы, Копыль, Копыльщина, Копысь, Корабли, Корвели, Корговды, Коргово, Кореличи, Кореневичи, Кореневка, Кореневщина, Корени, Корень, Кореняты, Коренёвка, Корзуны, Коркутяны, Корма, Корнадь, Коробки, Коробчино, Коробчицы, Коробы 2, Короватичи, Корово, Коровчино, Королев Стан, Королева Слобода-1, Королево, Королевщина, Королина, Королищевичи, Коротичи, Коротковичи, Коротьки, Корсаковичи, Корчевое, Корчицы, Коршунишки, Корытница, Корытное, Косаковка, Косари, Косеничи, Косино, Космовичи, Косовка, Косово, Коссово, Костевичи, Костеневичи, Костени, Костени д., Костеши, Кострица, Костровичи, Костюки, Костюковичи, Костюковка, Костюковка г. Гомеля, Костюшки, Костюшковичи, Косыничи, Котелево, Котели, Котелки, Котера, Котра, Коты, Котьки, Котяги, Коханишки, Кохановичи, Коханово, Кохановщина, Кочаны, Кочищи, Кошара, Кошевичи, Кошевники, Кошелево, Кошели, Кошилово, Кощицы, Кощичи, Кравцовка, Краглевичи, Краи, Краковка, Крапивница, Крапивно, Красиево, Красная, Красная</t>
-  </si>
-  <si>
-    <t>Агрогородок, Город, Городcкой поселок, Деревня, Курортный поселок, Поселок сельского типа, Рабочий поселок, Село, Сельский населенный пункт, Хутор</t>
-  </si>
-  <si>
-    <t>10_ПРОИЗВОДСТВО ПРОДУКТОВ ПИТАНИЯ, 11_ПРОИЗВОДСТВО НАПИТКОВ, 12_ПРОИЗВОДСТВО ТАБАЧНЫХ ИЗДЕЛИЙ, 13_ПРОИЗВОДСТВО ТЕКСТИЛЬНЫХ ИЗДЕЛИЙ, 14_ПРОИЗВОДСТВО ОДЕЖДЫ, 15_ДУБЛЕНИЕ  ВЫДЕЛКА КОЖИ  МЕХА ПРОИЗВОДСТВО ИЗДЕЛИЙ ИЗ КОЖИ  КРОМЕ ОДЕЖДЫ, 16_ПРОИЗВОДСТВО ДЕРЕВЯННЫХ И ПРОБКОВЫХ ИЗДЕЛИЙ  КРОМЕ МЕБЕЛИ ПРОИЗВОДСТВО ИЗДЕЛИЙ ИЗ СОЛОМКИ И МАТЕРИАЛОВ ДЛЯ ПЛЕТЕНИЯ, 17_ПРОИЗВОДСТВО ЦЕЛЛЮЛОЗЫ  БУМАГИ И ИЗДЕЛИЙ ИЗ БУМАГИ, 18_ПОЛИГРАФИЧЕСКАЯ ДЕЯТЕЛЬНОСТЬ И ТИРАЖИРОВАНИЕ ЗАПИСАННЫХ НОСИТЕЛЕЙ ИНФОРМАЦИИ, 19_ПРОИЗВОДСТВО КОКСА И ПРОДУКТОВ НЕФТЕПЕРЕРАБОТКИ, 20_ПРОИЗВОДСТВО ХИМИЧЕСКИХ ПРОДУКТОВ, 21_ПРОИЗВОДСТВО ОСНОВНЫХ ФАРМАЦЕВТИЧЕСКИХ ПРОДУКТОВ И ФАРМАЦЕВТИЧЕСКИХ ПРЕПАРАТОВ, 22_ПРОИЗВОДСТВО РЕЗИНОВЫХ И ПЛАСТМАССОВЫХ ИЗДЕЛИЙ, 23_ПРОИЗВОДСТВО ПРОЧИХ НЕМЕТАЛЛИЧЕСКИХ МИНЕРАЛЬНЫХ ПРОДУКТОВ, 24_МЕТАЛЛУРГИЧЕСКОЕ ПРОИЗВОДСТВО, 25_ПРОИЗВОДСТВО ГОТОВЫХ МЕТАЛЛИЧЕСКИХ ИЗДЕЛИЙ  КРОМЕ МАШИН И ОБОРУДОВАНИЯ, 26_ПРОИЗВОДСТВО ВЫЧИСЛИТЕЛЬНОЙ  ЭЛЕКТРОННОЙ И ОПТИЧЕСКОЙ АППАРАТУРЫ, 27_ПРОИЗВОДСТВО ЭЛЕКТРООБОРУДОВАНИЯ, 28_ПРОИЗВОДСТВО МАШИН И ОБОРУДОВАНИЯ  НЕ ВКЛЮЧЕННЫХ В ДРУГИЕ ГРУППИРОВКИ, 29_ПРОИЗВОДСТВО АВТОМОБИЛЕЙ  ПРИЦЕПОВ И ПОЛУПРИЦЕПОВ, 30_ПРОИЗВОДСТВО ПРОЧИХ ТРАНСПОРТНЫХ СРЕДСТВ И ОБОРУДОВАНИЯ, 31_ПРОИЗВОДСТВО МЕБЕЛИ, 32_ПРОИЗВОДСТВО ПРОЧИХ ГОТОВЫХ ИЗДЕЛИЙ, 33_РЕМОНТ  МОНТАЖ МАШИН И ОБОРУДОВАНИЯ, A_СЕЛЬСКОЕ  ЛЕСНОЕ И  РЫБНОЕ ХОЗЯЙСТВО, B_ГОРНОДОБЫВАЮЩАЯ ПРОМЫШЛЕННОСТЬ, D_СНАБЖЕНИЕ ЭЛЕКТРОЭНЕРГИЕЙ  ГАЗОМ  ПАРОМ  ГОРЯЧЕЙ ВОДОЙ И КОНДИЦИОНИРОВАННЫМ ВОЗДУХОМ, E_ВОДОСНАБЖЕНИЕ СБОР  ОБРАБОТКА И УДАЛЕНИЕ ОТХОДОВ  ДЕЯТЕЛЬНОСТЬ ПО ЛИКВИДАЦИИ ЗАГРЯЗНЕНИЙ, F_СТРОИТЕЛЬСТВО, G_ОПТОВАЯ И РОЗНИЧНАЯ ТОРГОВЛЯ РЕМОНТ АВТОМОБИЛЕЙ И МОТОЦИКЛОВ, H_ТРАНСПОРТНАЯ ДЕЯТЕЛЬНОСТЬ  СКЛАДИРОВАНИЕ  ПОЧТОВАЯ И КУРЬЕРСКАЯ ДЕЯТЕЛЬНОСТЬ, I_УСЛУГИ ПО ВРЕМЕННОМУ ПРОЖИВАНИЮ И ПИТАНИЮ, J_ИНФОРМАЦИЯ И СВЯЗЬ, K_ФИНАНСОВАЯ И СТРАХОВАЯ ДЕЯТЕЛЬНОСТЬ, L_ОПЕРАЦИИ С НЕДВИЖИМЫМ ИМУЩЕСТВОМ, M_ПРОФЕССИОНАЛЬНАЯ  НАУЧНАЯ И ТЕХНИЧЕСКАЯ ДЕЯТЕЛЬНОСТЬ, N_ДЕЯТЕЛЬНОСТЬ В СФЕРЕ АДМИНИСТРАТИВНЫХ И ВСПОМОГАТЕЛЬНЫХ УСЛУГ, O_ГОСУДАРСТВЕННОЕ УПРАВЛЕНИЕ, P_ОБРАЗОВАНИЕ, Q_ЗДРАВООХРАНЕНИЕ И СОЦИАЛЬНЫЕ УСЛУГИ, R_ТВОРЧЕСТВО  СПОРТ  РАЗВЛЕЧЕНИЯ И ОТДЫХ, S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ, T_ДЕЯТЕЛЬНОСТЬ ЧАСТНЫХ ДОМАШНИХ ХОЗЯЙСТВ  НАНИМАЮЩИХ ДОМАШНЮЮ ПРИСЛУГУ И ПРОИЗВОДЯЩИХ ТОВАРЫ И УСЛУГИ ДЛЯ СОБСТВЕННОГО ПОТРЕБЛЕНИЯ, U_ДЕЯТЕЛЬНОСТЬ ЭКСТЕРРИТОРИАЛЬНЫХ ОРГАНИЗАЦИЙ И ОРГАНОВ</t>
-  </si>
-  <si>
-    <t>Без гражданства, Другое, РБ</t>
+    <t>женат/замужем, холост/не замужем, разведен/разведена, вдовец/вдова, повторный брак, nan</t>
+  </si>
+  <si>
+    <t>нет, есть, nan</t>
+  </si>
+  <si>
+    <t>Витебск, минск, Жлобин, Брест, Новополоцк, Минск, Гомель, Молодечно, Слоним, Могилев, Гродно, Бобруйск, Ольгово, Шумилино, Новый Двор, Слуцк, Калинковичи, Селевцы, Восход, Пинск, Орша, Заславль, Свислочь, Лешня, Полоцк, Лида, Кобрин, Барановичи, Светлогорск, Барань, Пузырево, Хатежино, Жабинка, Тереховка, Богатырево, Копище, Тарасово, Сухополь, Борисов, Горки, Волковыск, Чернавчицы, Быстрица, Цыпки, Шищицы, Лужесно, Ерёмино, Новое Поле, Жерносеки, Костюковка, Столовичи, Мурава, Крупки, Смолевичи, Плебанцы, Ченки, Стрешин, Мозырь, Ставок, Подлесье, Берёза, Огородники, Пружаны, Бараново, Лесной, Арабники, Вяз, Новые Засимовичи, Евдокимовичи, Пасиничи, Новая Антоновка, Михейки, МОГИЛЕВ, Пекари, Скураты, Городок, Климовка, Лебедёвка, Гатово, Шумаки, Козловичи, ГОРОДЕЯ, Зазерка, Гожа, Хмельник, Руба, Носилово, Хрисо, Нивки, Дружный, Белоозерск, Буйничи, Подберезье, Белоозёрск, Углы, Петришки, Болбасово, Лунинец, Ваверка, Колозубы, Нехачево, Демидовщина, Василевичи, Бенякони, Суйково, Аннополь, Михановичи, Рожки 1, Новая Мильча, Улуковье, Ендриховцы, Ленинский, Трояновка, Колодищи, Обчак, Березовка, Оснежицы, Озеры, Ждановичи, Витьба, гомель, БРЕСТ, Городец, Коханово, Мухавец, Динаровка, Ковердяки, Запрудье, Таймоново, Лопатичи, Лисуны, Здитово, Копцевичи, Федьковичи, Зельва, Носовичи, Мачулищи, Раков, Ровбицк, Урицкое, Богатырская, Морможево, витебск, Бобровичи, Тереничи, слуцк, Калинино, Сырод, Тельмы-1, Самохваловичи, Мосты, Дещенка, Боровляны, Лошница, Перхурово, Заболотье, Кибы, Сеница, Ивацевичи, Передовой, Путники, Сокольники, Неманица, Махово, Тюрли, МОЗЫРЬ, Большие Сехновичи, Турково, Савищино, Котяги, Мичуринская, Ружаны, Страковичи, Студенец, Юровичи, Дубровня, Тарново, Несвиж, Селивоновка, Репля, Черни, ГОМЕЛЬ, Пекалин, Ганцевичи, Минойты, Мелешковичи, Батчи, Юндилы, Козьянки, Путришки, Белыничи, Дашковка, Беловежский, Большой Тростенец, Лиозно, Высокое, Рогачев, Красное, Озяты, Ореховск, Медков, Атолино, Молотковичи, Посеничи, Новка, Бабиничи, Большая Ухолода, Большие Мотыкалы, Подбела, Октябрьская, Жабчицы, Кировская, Лебедево, Чисть, Пинковичи, Вытроповщина, Дубровно, Цагельня, Вертелишки, Большие Летцы, Новоселье, кобрин, Козловка, Городчина, Старая Рудня, Тулово, Нивы, Озерецкая Слобода, Кличев, Фаниполь, МИНСК, Щомыслица, Зябровка, Солигорск, Чуриловичи, Степы, Лосичи, Большой Рожан, Цнянка, Оранчицы, Прокшино, Высочаны, Калиново, Софиевка, Березинское, Боровуха, Хомск, Вистычи, Смиловичи, Ковали, Добруш, Ельница, Дрибин, Суховчицы, Клейники, Мазолово, Козелужье, Иваново, Дягелец, Юбилейный, Страдубка, Старо-Борисов, Пески, Страдечь, Лабно-Огородники, Наровля, Омеленец, Андроновичи, Сенно, Щучин, Покры, Быхов, Хойники, Шебрин, Береза, Птичь, Красный Маяк, Гиревичи, Шевино, Липени, Скирмантово, Лес-Гай, Татарщина, Косаковка, Занки 1, Чепели, Городечно, Четверня, гродно, Бытча, Еремино, КАЛИНОВО, Озерцо, Бобовичи, Жемчужный, Федоры, Юшки, Осиповичи, Курково, Мормаль, Субочи, Белоусовщина, Большевик, Пацуи, Вейно, Беличи, Стеброво, ЖАБИНКА, жлобин, Прилучки, Райста, Папоротное, Працевичи, Привольный, Красносельский, Клепачи, Малые Мотыкалы, Деревянчицы, Полыковичи, Вишневка, Замошаны, Лукский, ОРЕХОВСК, Курпичи, Полецкишки, Малые Летцы, Старое Село, Грабовка, Новая Гожа, Присынок, Лесковка, Мышанка, Яцковичи, Большое Стиклево, Остромечево, Терешковичи, Логойск, Поколюбичи, Совлово, Фариново, Дитва, Дзержинск, Скрыдлево, Шайтерово, Головинцы, с/т "Южное-1", Романовичи, Подкраичи, Прудок, Ветка, Хорева, Городщина, брест, Канютичи, Верховье, Езерище, Кадино, Редьки, Ратомка, Зиновичи, Клинок, Паршино, Степанки, Залужье, Березки, Речица, Оберовщина, Зайцево, Соколово, Мижевичи, Малиновщина, Залесье, Прилесье, Искра, ЛЮБАВА, Богушевск, Поляна, БАРАНЬ, Масловичи, Липовцы, Зосимы, Судовица, Пудовня, Завидчицы, Лесины, Лесец, Жодино, Прихабы, Станьково, Новая Гута, Бусни, Коковчино, Могилёв, Борковичи, МОЛОДЕЧНО, Первомайский, Клюшниково, Глубокое, Россь, Липинки, Столин, Лучники, Подороск, Девятки, молодечно, Греск, Междулесье, Волма, Замосточье, Вилейка, Марьина Горка, Щерчово, Новое Хороброво, Ярцевичи, Кутневичи, Паричи, Негорелое, Городище, Копти, Старина, Боровая, Голынец, Галево, Бабичи, Ляховичи, Кричев, Макаренцы, Пионер, Ректа, Светиловичи, Шпитали, Медведка, Шклов, Лобановка, Житомля, Спорово, Гибуличи, Купятичи, Холопеничи, Овсянка, Раклевичи, Ворони, Островля, Крошин, Миоры, ФАНИПАЛЬ, Ленок, Киселевцы, Хвалево, Энергетиков, Радошковичи, Луговая Слобода, Волки, Изабелин, Гулевичи, Марково, Ямно, Тараново, Марьино, Наровчизна, ГРОДНО, ОРША, Рудня, Свищево, Свистелки, Крынки, Крыницы, Малые Радваничи, Прилуки, Брилево, Слобода, Комсомолец, Королев Стан, Вишенский, Старобин, Чаусы, Дрогичин, Заречанка, Гребёнка, Приозерная, Великий Лес, Крупский, Коптевка, Видомля, Антоновка, Синявка, Озерки, Присно 1, Рупейки, Лебедевка, Жировичи, Камень, Любово, Волковичи, Коммунар, Радуша, Ушковица, Задорожье, Бобовка, Белица, Салтановка, Уть, Берники, Ходосы, Малое Стахово, Студеники, Тишовка, Москаленята, Слобудка, Радково, Захаричи, Шерешево, Перетрутовский Воротын, Боровики, Скоки, Ленино, Грабск, Селищи, Старинцы, Лядно, Октябрь, Коссово, Шени, Лошаны, Большие Роги, Куплин, Южная, Бешенковичи, Тевли, Энергия, Ивье, Печищи, Козенки, Дуброва, Севостьяновичи, Устье, Кабановка, Ивановские Огородники, Шубники, ВИТЕБСК, Руденск, Вороны, Кореневка, Копыль, Залузье, Защебье, Удранка, Коробчицы, Каменец, Красное Знамя, Именин, Шепели, Добрейка, Победа, могилев, Чёрная Вирня, Вельямовичи, Криничный, Ячево, Мелькановичи, Макаричи, Узда, Никитиничи, Ивонцевичи, Буденного, Берестье, Семково, Лужок, Горбацевичи, Дубно, Зарубы, Верейки, Княжица, Олизаров Став, Заречье, Новополесский, Шатравино, Кировск, Селец, Городьки, Анусино, Шапечино, Хальч, Повитье, Глыбоцкое, Сидоровичи, Обухово, Большие Лепесы, Гора, Малые Автюки, Королево, Николаевка 3, Мотоль, Медно, Домашковичи, Дивин, Петралевичи II, Стайки, Пограничный, Гришаны, Боёвка, Засковичи, Понятичи, Полятичи, Рагозы, Лешница, Б ЛЕПЕСЫ, Бровки, Хабы, Заполье, Квасыничи, Вал, Великая Слива, Геранены, Солоники, Пчельник, Пиревичи, Новые Марковичи, Трилесино, Цегельня, Мошканы, Мстиславль, Дулевцы, Голынец 1, Прибор, Каваличи, Андреевщина, ПЕРВОМАЙСКИЙ, Глуша, Околица, Леплевка, Малейковщизна, Птицефабрика, Лопатино, Первомайская, Сосновка, Турок, Брильки, Молчадь, Красный Берег, Зароново, Александровка, Червень, Столбцы, Мясота, Кулики, Сущево, Кирши, Роличи, Пятевщина, Булавки, Криница, Бердовка, Прилукская Слобода, Березино, Михновичи, горки, КЛИМОВКА, Микашевичи, Радеж, Брагин, Кривоносовцы, Подлабенье, Воложин, Усяжа, Малорита, Старые Новоселки, Тюхиничи, Скарина, Кирово, Плещицы, Веснянка, Малеч, Дрозды, Крюковичи, Сечки, Адверники, Рассветная, Большая Курница, Новое Пашково, Дятлово, Карповка, Новые Лыщицы, Лука, Велятичи, Ракитница, Тельмы-2, Дудичи, Проскурни, Сосновый Бор, Зубки, Островляны, Логишин, Тивидовка, Лебежаны, Туголица, Щеглики, Глуховка, Орехово, Малое Бабино, Вязье, Луговая Вирня, Большое Стахово, Забашевичи, Варковичи, Гомель  р/п Костюковка, Брановичи, Оболь, Иговка, Малая Берестовица, Ореховский, Преньки, Старые Дятловичи, Батуринка, Хотимск, Головенчицы, Пугляи, Горы, Александрия, Раевские, Вишевичи, Тимковичи, Поречаны, Залинейный, Долгиново, Пиваши, Старая Белица, Рясно, ГОРКИ, Курганье, Мильковщина, Бобрик, Турец-Бояры, Черноградь, Гоцк, Скабин, Волосовичи, Приямино, ТЕРЕХОВКА, Коленьки, Воронцевичи, Славики, Ельск, д.Цнянка, СТАРОСЕЛЬЕ, Малые Бортники, Геранёны, Розановщина, Вирков, Каменица-Жировецкая, Сухорукие, Островец, Понизовье, Елизово, Новая Ятвезь, Рудавин, Прилепы, Волчин, Нехолсты, КОПЫСЬ, БЕРЕЗА, Василевщина, Оса, Сосновый, Поставы, Осовец, Матеевичи, Затурья, Хидры, Манчицы, Безверховичи, Осочники, Широкое, Подлужье, Тальковщина, Поморщина, Малые Якентаны, Дукора, Костюковичи, Новоельня, Осовцы, Новосады, Головнинцы, Каменка, Алекшицы, Староселье, Косово, Юхновка, Березовичи, КАЛИНКОВИЧИ, Загородная, Почапово, Дроздово, Борисы, Пшенаи, Особино, Драчково, Межево, Затишье, Косари, Головичи, Андроново, Забелье, Шеметовка, Радионовка, Ветрино, Луки, БОЛБАСОВО, Прокуды, Комаровка, Крупово, Корма, Полочаны, Шерстин, Яновичи, Речки, Гливин, Ворошилы, Пустошка, ПУДОВНЯ, Заслоновка, Гомель  м-н Костюковка, Радуга, Полонка, БЕРЁЗА, Старый Дворец, Петриков, Мир, Ятвезь, СУХОРУКИЕ, Весея, Дубина Боярская, Люденевичи, Гузгаловка, Дачная, Зубревичи, Костени, Веркуды, Ланковщина, Новоселки, Вересница, Турец, Лесники, Якимова Слобода, Плебановцы, Людвиново, Лучежевичи, Прибытки, Домашаны, Николаевка 2, Орловичи, Новосёлки, Индура, Копысь, Даниловичи, Давид-Городок, Коминтерн, Литвины, Васьковщина, Нелидовичи, Большие Шиловичи, Вежки, Сморгонь, Рахманьки, Валерьяново, Нарочь, Брашевичи, Путчино, Кольно, Дубовцы, Чачково, г.Гомель, С/Т ЖУРАВИНКА, Матвеевцы, Олехновичи, Бердичи, Расова, Чирковичи, Латыголичи, Телуша, МИТЬКОВЩИНА, Светлый, барань, Чериков, Кочаны, Богдановка, Ореховка, -1, Луцевичи, Песочня, Севруки, Хайсы, Болота, Рясна, Мелешки, Зубово, Бастуны, Чечерск, Шульцево, Яново, Октябрьский, Каменная Горка, Любань, Колбово, Малевичи, Шикотовичи, Солоное, Мядель, Семков Городок, Крупица, Домоткановичи, Уваровичи, Домачево, Краснобережская Слободка, Чуденичи, Пожежин, Берёзовка, Отор, Острошицкий Городок, Осница, Хоромск, Томашовка, Полыковичи 2, Головки, Тушково, Костровичи, Аксаковщина, Горяны, Королищевичи, Жгунь, Кривели, Радунь, Осинторф, Доросино, Голубичи, Телеши, Большое Можейково, Зацень, Фруктовый, Матюты, Жиличи, Нижняя Веравойша, Гезгалы, Мороськи, Стародворцы, Вядерево, Косеничи, жабинка, Старая Метча, Старые Терушки, Мазури, Голоцк, Янтарный, Буда-Кошелево, Потаповичи, Боровка, Добрая, Уза, ВЕЙНО, Большой Межник, Моисеево, Избино, Думановщина, Войтешин, Деревная, Нивищи, Слободщина, Бычиха, Шапуры, Новое Село, Бобровцы, АГ.МЕЖИСЕТКИ, Маслаки, Ратайчицы, Беневичи, Войтово, Б.ЗАПОТОЧИ, Мамаи, Городилово, Бороники, Павелково, Есипово, Рудня-Маримонова, Махновичи, Сонечный, Острошицы, Пантюхи, Дарево-Чиж, Сиреневка, Вороново, Большая Боровка, Опытный, Хойно, Митьковщина, Дитрики, Дегтяревка, Нача, Пеница, Белинок, Крылово, Великие Автюки, ПОЛЫКОВИЧИ 2, Руденец, Острино, Долголесье, Орлово, Межисетки, Вишнёвка, Вяжище, Суховичи, Холмы, Матусово, Домашицы, Жуковка, Урожайная, Казеково, Бездеж, Теребунь, Глуск, Залипье, Сороги, Братылово, Добрино, светлогорск, Княгинин, Поповичи, Яблоновка, Синитычи, Близница, Малая Падерь, Гуды, Малые Косичи, Аношки, Лесок, Гинели, Мерчицы, Берестеново, в/ч 97 Дачное, Квасовка, Скиток, Красное Село, Федьково, Лясковичи, Подольцы, Малые Роги, Татарка, Городняны, Солы, Шарибовка, бобруйск, Конюхи, Копаткевичи, Узнаж, Долгое, Большая Берестовица, Селитренка, Белыновичи, Некраши, Уша, Лучин, Ушачи, Саволевка, Новое Лядно, Шиловичи, Горбовичи, Загритьково, Магдалин, Знаменка, Збунин, Марьяливо, Добринево, Корени, Петровичи, Подгорье, Тихиничи, Лужки, Русино, Гончары, Остров, Кожан-Городок, Гальки, Ивенец, Тресковщина, Першая Слободка, Татарск, Поболово, Сеньково, Асаново, Пестуница, Новая, Голдово, Литва, Обуховичи, Домашевичи, Осиновка, Лещицы, Россоны, Мышковичи, Черноручье, Красное Березино, Железняки, Тудорово, Кустын, Замки, Должа, Новики, Браслав, Бабино-1, войнилово, Беляевка, Пралески, Великое Село, Морозово, Зачистье, Дыя, Сеньковщина, Новые Горяны, Новогрудок, КАРЧЕВЩИНА, Ларищево, Панышевщина, Старые Дороги, Шуневцы, Яечковичи, Бегомль, Новый, Загорщина, Лельчицы, Обруб-Березвечский, Коробы 2, Мишутки, Доржи, Муравщина, Басмановка, Сураж, Задомля, Стреличево, Шарковщина, Береговой, Цесино, Чернеевичи, Красновка, Сегеневщина, Новые Луки, Колдычево, Емельяновичи, Торгошицы, Борисово, Новоколосово, Чкалово, Туров, Юзуфово, Рогинь, Островщина, Вязовец, Олекшицы, Бронная Гора, Поречье, СВЕТЛОГОРСК, Бацевичи, Любоничи, Освея, Нахов, Ходаково, Крапивно, Трокеники-1, Толочин, Линово, Карцевичи, Коротковичи, Осташковичи, Стригинь, Междуречье, Пышки, Верхнедвинск, Миколка, Арабовщина, Луково, Михеевка, Чики, Красная Слобода, ВЕТКА, Яловка, Патрики, Панкратовка, Балаши, Германовичи, ПОЛЫКОВИЧИ, Экимань-2, Дуброво, Озеро, Добромысль, Маковье, Даниловка, Роги, Шелково, Ордать, Наумовичи, Гусак, Теплень, Скориничи, Чашники, Хомичи, Мостище, Подречье, Старый Лепель, Ревятичи, Тимоново, Черный Бор, Песчанка, Полесье, Пелеса, Яцково-Замостные, В/Г №1 ДОМАНОВО, Азделино, Укропово, Антополь, Первомайск, Скидель, Великий Боков, Бытень, Великий Мох, Шкордь, Пенчин, Бельчица, Малое Ситно, Милевичи, Новодворцы, Максимовка, Краснодворцы, Закаблуки, Минковичи, Васильки, Липовая Колода, Козловичи 2-е, Великая Гать, БЕЛАЯ, ОСИНОВКА, Житьково, Дубок, Волька, Рыбное, Ляховщина, Бульково, Жердянский, Пристороны, Дубенцы, Малево, Грабовцы, Поповцы, Сухари, Кищина Слобода, Лепель, Любишино, Кулешово, Парафьяново, Комаровичи, Кобыловка, Новый Свержень, Ипуть, Савченки, Дорошевичи, Ясковичи, Сава, Тычины, Гороховка, Калюга, Кошевичи, Блювиничи, Выня, Дубеи, Бервищи, ЧЕРСК, Грудиновка, Мыслевичи, Чижевичи, Добрынь, Липки, Губичи, Павлово, Зелёный Курган, Кулешовка, Приднепровский, Першаи, Шиповичи, Новицковичи, Журавковичи, Огородчики, Лосево, Замостье, Прудище, Ивахновичи, Межа, Литвиновичи, Новый Остров, Боровцы, Блонь, Большие Радваничи, Стецки, Будилово, Лариновка, Брюхово, Плесовичская Слободка, Марковщина, Кваторы, Качино, Василишки, Олтуш, Казаки, болбасово, Рудка, Довск, Хутор, Бруски, Светоч, Михальки, Серафимово, Малый Двор, Волколата, Брусы, Журавичи, Барсуки, Деречино, Гацук, Белое Болото, Поляи, Зелёнка, Граничи, Заветное, Селище, Шершни, Красная Буда, Хвойники, Рудня Антоновская, Грановка, Житковичи, Еремичи, Телеханы, Поляны, Кривск, Славгород, Пустынки, Антонишки, Ильич, Кудричи, Краснополье, Козловщина, Светлосельский, Старая Рудица, Торкачи, Плиса, БЕРЕЗКИ, Непли, Глазовка, Свираны, Ошмяны, Белое Озеро, Островно, Плессы, Леньки, Смольгово, Драпово, Гаврильчицы, Цна, Плесы, Заболоть, Войнилово, Заостровечье, Заслоново, Новоселы, Семукачи, Заямочное, Топилишки, Сковородки, ЕРЕМИНО, Журавинка, Новая Бухоловка, Моторовщина, Кореличи, ОКТЯБРЬСКИЙ, Данейки, Химы, Ровковичи, Шарипы Большие, Станковцы, Малая Своротва, Малая Лапеница, Дубовляны, ЛАНЬКОВО, Омговичи, Шалыпы, Гомель  микр.Костюковка, Клецк, Нагорные, Черняны, Михалево, Векшицы, Мирный, Ходилони, Большие Косичи, Стытычево, Подлазники, СЛУЦК, Севрюки, Черкассы, Слободка, аг.ЛУЧНИКИ, Бродница, Старые Фаличи, Чернишки, Свирь, Трабы, Беляны, Никитиха, Богушово, ОСИНТОРФ, Хатутичи, Замужанье, Дерутская, Новая Гусевица, Гольшаны, Старый Остров, Застенки, Барбаров, Позняки, Малая Боровка, Сумароково, Кучарино, Повяжи, калинковичи, Добромысли, Ратичи, Мочулино, Черниковщина, Миколаевичи, Борки, Чижовка, Новолукомль, Шишево, Артюхи, Дягильно, Ореховская, Плиссы, Сорочино, Вежны, Бобренята, Рачки, Лоев, Большая Колпеница, Выгоничи, Выверы, Большая Угринь, Желудок, Редигерово, Демидовка, Каролин, Моргилёв, Щитомиричи, Большие Бортники, Повишни, Малые Степанишки, Чурки, Жуков Луг, Хожово, Субботы, Городная, ДРУЖНЫЙ, Смольяны, Лемешевичи, Илья, Стан, Сосновая, Сопоцкин, Ульяновка, Ровины, Брыли, Лавриновичи, Усяж, Костюшки, Присно, Никодимово, Садовый, Кошевники, Лесница, Пальминка, Гнезно, Метявичи, Зеленочи, РУЖАНЫ, Натальевск, Кричев-2, Шершуны, Гудовичи, Кривляны, Озерный, Говяды, Романы, Симоновичи, Каменюки, Бобовики, Чирвоная Горка, Запрудяны, Станиславово, Докудово, Боричевичи, Галимцы, Солтаново, Залье, Лущики, Яршевичи, Браково, Буды, Яковлевичи, Лекерта, Изабелино, Домановичи, Холхлово, Заельник, Большие Яковчицы, Бородичи, Мокрое, Валище, Лавстыки, Крулевщина, Половинный Лог, Милейково, САНАТОРИЙ БУГ, Дворцы, Горелец, Светлый Бор, Исерно, Любуж, Хмелево, Войская, Вязынка, Соломоречье, Танежицы, Перковичи, Судники, Соловьи, Мишутино, Котелево, Косыничи, Яченка, Липовка, Язвино, Новохросты, Погораны, Узнацк, Прудовка, Ског, Теолин, Клинск, Ведрич, Большое Малешево, Дудинка, Житин, Дыманово, Кайково, Сковорощина, Старая Шараевщина, СУХОВИЦЫ, Кошелево, Шарпиловка, Ляды, Новая Буда, Бродок, Снов, Струнье, Дайнова, Пламя, Салейки, Ольшанка, Дисна, Осиповщина, Городнянский Мох, Мелихово, Котера, Гурины, Головчин, Комиссарово, Забабье, Застодолье, Вычулки, Грушево, Стриганец, Орепичи, Ржавка, Корсаковичи, Гимбуты, Новый Городок, Лынтупы, Малые Словени, Климовичи, Хмелевка, Круговец-Калинино, Калиновая, Мосток, Пугачи, Жерлаки, Ганковичи, Дмитриевка, Красновцы, Мурована, Раховичи, Великие Гаяны, Ольшево, Островы, Гощево, Ясный Лес, Корабли, Погост-2, Б.ЯКОВЧИЦЫ, Раевка, Вишенька, Опечки, Тесновая 1, Ореховно, Великое Лядо, Зеленая, Рожанка, Звонец, Горочичи, Новинка, Черетянка, Каравайница, Ломаши, Ракузовка, Довнары, Дубницы, Пищалово, Малиновка, Колки, Задровье, Лесище, Кузьминичи, Губерня, Чижевщина, Турцевичи, Звездная, Захарничи, Знамя, Малые Зводы, Клюковка, Вензовец, Якимовичи, Кострица, Копиевичи, Порослово, Ст. Пески, Большая Обрина, Экимань-1, Чернещино, Прибудок, БЕШЕНКОВИЧИ, Летковщина, Рогозно, Пелище, Санюки, Писаревщина, Чёнки, Кулаки, Черск, Луцк-Козловский, Лунно, Озаричи, Заспа, Дворец, Буденовка, ЗАСЛАВЛЬ, Лыщицы, Глинище, Великие Кошевники, Седча, Ковчицы-2, Парохонск, Князево, Залески, Лабенщина, Торчилово, Шуневичи, Вольно, Долбизно, Борщовка, Курганы, Скворцы, Ольховцы, Головичполье, Селявичи, Берёзки, Плесовичи, Малая Слива, Островские, Белевичи, Свирки, Межица, костюковка, Воробьевичи, Полетники, Иванковщина, Липнишки, Ковалики, Кощичи, Левки, Липов, Дубица, Медухово, Богди, Цель, Сухвальня, Дорожки, Язно, Щедрин, Затитова Слобода, Микелевщина, Жажелка, Чучаны, Кривичи, Мельники, Полыковичские Хутора, Клетное, Филипповичи, Обчин, Лапичи, Плещеницы, Майск, Раубичи, Г СОЛИГОРСК, Верховичи, Городея, Вежи, Чурилово, Воля, Буховичи, Терюха, Нарутовичи, Гирово, Закозель, Нетечь, Неверовичи, Доманово, Сутин, Домаши, Зазерье, Хомутины, Драбовщина, Андрейки, Круглое, ДЕРЕВНЯ МАЛЫЕ ЛЕТЦЫ, Рудск, Кончаны, Комары, Теребени, Вендорож, Корнадь, Дутчино, Петралевичи 2, Шейбаки, Мерешино, Зорька, Липники, Овсемирово, Белево, Николаевка, Равнополье, Пироги, Дегтяное, Колышки, Новополье, Гарутишки, Приборье, Орлево, Колония Казимировка, ГОРОД ВИТЕБСК, Костеши, Вороновичи, Валевачи, Корово, Ирдица, Рыча Государственная, Новая Мышь, Гортоль, Гричино, Малые Яковичи, Дмитриевка 1, Жабин, Тенюковщина, Колос, Морги, Пушкари, Бояры, Цыборы, Шарупы, Дмитриевка-2, Евсимовичи, Дворище, Шемберово, Стотсберг, Докшицы, Косино, Город ВИТЕБСК, Герасимово, Бокшицы, Осово, Сидельники, Черёмушки, Вехотница, Озерница, Зарица, Чернозёмовка, Шикили, Черемушки, Юрьево, Шапурово, Дяжки, Малый Быков, Василинки, Томковичи, Кубличи, Чеховщина, Смиловичи гп, Могилев г, Мозырь г, Вендорож аг, Витебск г, Михеевка аг, Волковыск г, Ельковщина аг, Горки г, Миловиды, Прудяны, Браги, Пешки, Воевода, г.БОБРУЙСК, Семигостичи, Ставы, Хозянинки, Вердомичи, Чемеры, Дубровка, ВОЛОВИЧЕВЦЫ, Каменная Русота, Худовцы, Суринка, Прокоповка, Жмуровка, Липец, Ленино аг, Новополоцк г, Ремель, МАЧУЛИЩИ, Новобеличи, Вишнево, Мосты Левые, Гончаровка, Белое, Грибаны, Гомель г, Масалыки, Вильча, Советский, Правдинский, Ломачино, Дейки, Юзефово, Буяны, Деменичи, Шарейки, Богуши, Зеленка, Криницы, ГОРОД МИНСК, Коренёвка, Подлесная, Чепелево, Тишовка д, Белоуша, Кемейши, Селиба, Клешево, Селяхи, Марковичи, Дербин, Васильевка, Тябы, Щатково, Кухчицы, Синкевичи, Борщёвка, Скабы, Гольцы, Санаторий Буг, Гатовичи, Озерцы, Другая Слободка, Леонтьевичи, Езеры, Чаусы г, Кабаки, Гать, Будники, Верболоты, Ковалево, Хоромицкие, Озерщина, Красный Бережок, Бобрики, Медвежий Лог, Новашино, Ёдки, Брест г, Жодино г, УСТЬЕ, г БРЕСТ, Волпа, Мстиж, Немейши, Лычковцы, Хабовичи, Дреколье, Пуховичи, Бродовка, Бобр, Крупенино, мозырь, Голубица, Ляхчицы, Красулино, Малая Курница, Коледино, Коновалово, Лопушно, Азино, Красный Дар, Свиравщина, Свенск, Дребск, Подыгрушье, Пролетарий, Тумин, Бирча, Пневичи, Комсомольск, Погорелое, Ганчицы, Тыльковка, Соболяны, Староград, Одельск, БОБРОВИЧИ, Жгуно-Буда, Пережир, НОВКА, Глинянки, Острово, Каташи, Замошье, Зеньковичи, Бармуты, Дойничево, Машелево, Погодица, Пашкишки, Пересады, Магеровка, Пиамонт, Закальное, Рудавка, Полота, Заградье, Рудня Маримонова, Александрово, Фальки, Теглевичи, Остромичи, Мошевое, Большая Лысица, Шведы, Восток, Плотница, Большое Городно, Гомель  р.п.Костюковка, Ремейкишки, Холодники, Моствилишки, Добросневичи, Серяги, Любушаны, Ужинец, Корчицы, Хотюхово, Вить, Клесино, Турин, Бородулино, Погост-1, ОБУХОВО, Р-1  17 КМ ШОССЕ МИНСК-ДЗЕРЖИНСК, Иваничи, Каменные Лавы, Любиж, Большие Карныши, Ботвиновка, Головачи, Леликово, Люта, Мойсичи, Шупейки, Доброволя, Нисимковичи, Полонск, ДУБРОВНО, Хомяково, Гроди, Еськовцы, Краковка, Луковец, Смоловка, ТЕПЛЕНЬ, Коробчино, Паперня, ТЮРЛИ, Воротищи, Массоляны, Дусаевщина, Новинки, Малые Зимовищи, Зарестье, Борисовка, Техтин, Великорита, Владимировка, Веремеевка, Усохи, Павловцы, Мочаны, Ленина, Синегово, Заозерье, Шавнево, Ануфрово, Лапоровичи, Шундры, Голицы, Сколдичи, Баличи, Клястицы, Пархимовцы, Хотляны, слободка, Обруб, Румино, Груздово, Видевщина, Любатовщина, Застружье, Борздовка, Романовка, Загорье, Медведов, Избицкое, Печковка, Улазовичи, Дворчаны, Погоща, Гринки, Старые Юрковичи, Ботвиново, Кемелишки, Жарковщина, Щибрин, Подлипки, Резы, Лахи, Лань, Речень, Гута, Леваши, Огаревичи, Новозахарполье, Вознесенский, Любашево, Самаровичи, Белицк, Русаки, Незбодичи, Мурованая Ошмянка, Пацыничи, Красница, Ананино, Муравилье, НОВОСЕЛКИ, Самуэлево, Холстово, Можейки, Сухиничи, Солнечный, Тажиловичи, Пограничная, Куково, Радуга п, Хвоево, Зарудичи, Озеравцы, Турино д., Яглевичи, Козлы, Иванова Слобода, Малый Кудин, Мацевичи, Интернациональный, Тышковичи, Новая Метча, Ольхово, Малые Шумилишки, Шпаковщина, Дукойни, Партизановка, Положевичи, Грицкевичи, Новый Гутков, новые Засимовичи, Большие Озерки, Липень, Индрубка, Большие Степанишки, Мировщина, Пастовичи, Хартица, Перерост, Ударный, Ялуцевичи, Любяча, Мостиловичи, Малиновая, Хвастовичи, Кочищи, Пригородная, Мижеричи, Воропаево, Драчева, Колядичи, Логовище, Подитва, Выжловичи, Заболотники, Грамоще, Миничи, Черневичи, Кравцовка, Холмеч, Жилин Брод, Невда, Уречье, Шапчицы, Новые Терушки, Солон, Дричин, Петьки, Опса, Островок, Евличи, Рубеж, Бондари, Гориденяты, Валевка, Чеботовичи, Комарин, Ракевичи, Лукашино, Малые Яковчицы, Луцковляны, Витунь, Босяч, Зимница, Лыщики, Кузьмичи, Рябиновка, Парковая, Сутки, Старая Гута, Большая Лотва, Масевичи, Рыбна, Новоспасск, аг., Нарцизово, Глушковичи, Геленово, Ельня, Озераны, Рябцево, Зажевичи, Ясень, Млынок, Останковичи, Семенча, Старые дороги, Видзы-Ловчинские, Тростино, Сорочи, Радковщина, Кривоносы, Гринки 1, Дотишки, Малые Немки, Зеленки, Литовщина, Малашковичи, Семенки, Тиховоля, Матьковцы, Милошевичи д., Солтанишки, Камено, Паличин, Мироненки, Старое Высокое, Гусаки, Бриксичи, Порозово, Большой Полсвиж, Щорсы, Ситники, Ястребель, Гольчичи, Демидов, Лозки, Придворье, Маревиль, Великая Слобода, Осиновщизна, Тонеж, Жуковщина, Зеленый Бор, Засетье, Карашево, Сивица, Новые Докторовичи, Копань, Большие Эйсмонты, Гервяты, Талька, Ванелевичи, Ганьковичи, Великий Бор, Кургания, Мазолово д., Соколовка, Кошели, Дречаны, Ляховцы, Литвяны, Куковячино, Боровка 2-я, Мосты Правые, Мухлядишки, лельчицы, Тешелово, Рязанцы, Обидовичи, Неряж, Замостяны, Потаповка, Партизанский, Саска Липка, Осмоловичи, Домжерицы, Будча, Друйск д., Ивановка, Ширки, Хотыничи, Макарово, Повстынь, Теклинов, Роготно, Домашки, Дзержинск д, Карвели, Забрезье, Лозы, Крутиловичи, Лойки, Потейки, КРЫЖОВКА, Большое Городище, \\Новые Рачковичи, Пекличи, Вишневец, Занки 2, Любищицы, Вселюб, Ходосы д., Следюки, Старая Водва, Забоенье, Большие Амхиничи, Альбрехтово, Ольховка, Осошники, Кушляны, Жукевичи, Пасека, Вязькутин-1, БОБРУЙСК, Подсвилье, Ольшаны, Тереховичи, Бостынь, Долговичи, Симоничи, Гацук д., Ханчицы, Грицевичи, Копачи д., Озерница д., Демброво, Воронино, Корытное, Шудовцы, Далики, Слонево, Жорновка, Лежневичи, Строкты, Юратишки, Грицки, Озеречье, Старица, Маньковичи, Макаровка, Брилев, Радеево, Дорогляны, Мельново, Артуки, Припечино, Митьковичи, Гостиловичи, Сукачи, Тычинки, Свиридовичи, Благовичи, Новогородейский, Оношки, Хоневичи, Бобра, Верх-Лида, Мисевичи, Скородное, Неговка, Лумна, Шевели, Рыжанки, Кобыльники, Суша, Струпень, Зембин, Могилицы, Большие Бобровники, Искань, Голосятино, хальч, Гритуны д, Славково, Камаи, Ермоловичи, Синицы, Елишево, Гривковичи, Вулька-Телеханская, Юрковичи, Зывышье, Конно, Турищево, КОРОЛЕВСТАН, Жупраны, Гирмантовцы, Столбун, Сахаровка, Нагораны, Кабак, Бакуны, Еланы, Новая Попина, Чернявка, Вишов, Саки, Братняя Гора, Малыши, Хотомель, Мишни д., Новый Вендорож, Быстромовцы, Велюнь, Качановичи, Старое Лядно, Квачи, Зори, Стаи, Савгути, Киселева Буда, Золотой Рог, Маклаки, Лудчицы, Гвозница, Слонимцы, Новодевятковичи, Леоновичи, Габриелевка, Верейцы, Заелица, Новый Кудин, Юбилейная, Верхолесье, Языль, Крутой Берег, Ахремовцы, Смоличи, Голынь, Тетерки, Микуличи, Снежково, Короватичи, лоев, Сидировичи, Нагорное, Бирюзово, Пыхань, Яловица, Ластовки, Павловичи, Горново, Шилино, Муражи, Стальбовщина, Храпково, Едловичи, Щитковичи, Купчели, Щепичи, Ипполитовка, Сеньковщина д., Гославщина, Новый Быхов, Вороничи, Отминово, Прощицы, Гудогай, Мадора, Найда, Блевчицы, Маяк, Заельня, Боброво, Литовск, Приозерский, Накрышки, Высокая Липа, Годылево, Давыдовка, Валавск, Веть, Рутка 1, глубокое, Мазурщина, Тюкантовичи, Чичиновщина, Хомички, Туча, Кутняны, Лютня, Каленики, Воротынь, Каплановцы, Рудевичи, Курпеши, Елизово п., Рассвет, Жеребковичи, Елка, \\Буйничи, Красная Беларусь, Больтишки, Черевки, Клетыще, Тумашевцы, Пруды, ЗАЛУЗЬЕ, Ветеревичи, Подоресье, Хотень, Тихны, Каролина, Прусы, Гребени, Черейщина, Андраны, Селец д., Ерши, Курманово, Репенщина, Верхи, Феликсово, Мушино, Майский, Ругаец, Станция Ошмяны, Задворье, Березина, Зарачье, Партизанская, Новые Максимовичи, Мальковичи, Лысково, Малые Лезневичи, Дунай, Стригово, Лукомер, Малейки, Доры, Грабов, Клепчаны, Малюшичи, Величковичи, Сошно, Тесово, Смолица, Любча, Полонечка, Ударное, Боровое, Ромельки, Веремейки, Солтановщина, Павлюшки, Великие Немки, Бельск, Родня, Межаны, Мачулищи пгт, Сейловичи, Молодово, Кнубово, Хотислав, Хвиневичи, Вощиничи, Бельчицы, Шашки д., Секеричи, Мишни, Глуша п., Великая Липа, Большая Мысса, Слобода-Кучинка, Великая Уса, Дунаек, Друйск, Гайнинец, Тальминовичи, Дёрновичи, Виков, Беница, Турск, Дялино, Зоричи, Петковичи, Адамовичи, Сунаи, Сосны, Рогачи, Бор, Моисеевка, Колодищи п., Сапрыновичи, Мазолово аг., Черленка, Турсковый, Дмитровичи, камоски, Денисово, Константово, Юрковщина, Дружный п., Грини, Довгялы, Ерхи, Веска, Осов, Довбени, Велута, Дуниловичи, Костюки, Будевцы, Бакуны д, Михалишки, Мажа, Хоросица, казинщина, Деревная д., Капустино, Тишковка, Головли, Метличино, Ольшаники 2, Нелепово, Костени д., Охоново, Муляровка, Лиски, Вязынь, Новые Дороги, Валавск д., Бакшты, Тарусичи, Чухово, Легаты, Гурновщина, Новоселки-2, дривяты, Залучино, ШкОзеро, Калинина, Колядичи д., Зарытово, Воробьи, Небытов, Старый Довск, Ковшово, Ворняны, Заямное д., Субботники, Норцевичи, Комсеничи, Карацк, Бринев, Войневичи, Доброгоща, Улла, Кореневичи, Пригожее, Лишки, Подозерье п., шепелево, Слобода Богушовка, Бигосово, Солоная, Глухи, Старо-Борисов д., Большая Людвиновка, Повиланцы, Ильюшино, Клишевичи, Красовщина, Кольчуны, Горани, Кривая Береза, Тушевая, Глядовичи, Осово д, селище, Майское, Госсортучасток, Денисковичи, Ваверка д., Стреньки, Краи, Великие Крагли, Вязычин, Листвин, новосёлки, Заберезь, Лоев пгт, Большое Барово, Оброво, Скрибовцы, Полужье, Оздятичи, Кухты, Жусины, Зборов, Гили, Лесань, Гронов, Лесное, Велетин, Здудичи, Гвоздово, Староволя, Велин, Большие Завшицы, Шестиснопы, Лукомль, Макаши, Бабыничи, Ченчицы, Раневичи, Зачепичи, Словатичи, Завидичи, Заямное, Добрынский, Мали, Грушевник, Радостово, Радомля, Пересвятое, Шиловичи(спиртзавод), Скипоровичи, Беларучи, Могильно, Петуховщина, Снигяны, Алексеевичи, Лелюки, узда, Михневичи, Наваселле, рогачев, Сорочье, Борколабово, Сверплевичи, Голынка, Александровичи, Климы, Стражевичи, Ячное, Марьянполье, воложин, Подлужье д., Мыслово, Аславеняты, Лунин, Минти, Ольманы, Ручей, Сластены, Привольный п., Галынка, Михедовичи, Фаворы, Задворники, Каленковичи, Бродец, Подроссь, Загорины, ВЕЛУТА, Заборье, Сёмоновщина, Дягли, Каштановка, Калиновка, Лесково, Радутичи, Буда-Лельчицкая, Константиновка, Кумпяны, Чудин, Глинь, Озеречье п., Довск аг., Толкачёвщина, Несята, Червоное, Судково, Сакуны, Войтковичи, Грушевка, Гошево, Узнога, Большая Комаровка, Голубы, Карпеши, Дубницкое, Загалье, Морозовичи, Канава, Иказнь, Смоляница, Большие Лесковичи, Бронное, Люсино, Городея аг., Милошевичи, Большая Рогозница, Лучай, Ивольск, Халаимовщина, Янковичи, Буйки, Морочь, Шашки, Коммуна, Зеленый Дуб, Видейки, Краснолуки, Титковщина, Черея, Пролетарская Коммуна, Толкочевичи 1, Начь, Гудогай ж/д ст., Бадёрый, Половковичи, Заширье, Зарубино, Грива, Малый Жабин, Шаловичи, Рязанцы д., Миратичи, Струки, Судиловичи, Луговая, Бурки, Дерковщина, Лылойти, Мушичи, Сергеевичи, Радевичи, Хвоенск, Велавск, Ричёв, Дворное Село, Подъельцы д., Лавришево, Гневчицы, Юшевичи, Венски, Новый Барсук, Малый Полсвиж, Лоша, Коньки, Лобановка д., вТимоново, Боровые, Малый Старый Шклов, Замшено, Бобовня, Переволока, Новодворки, Красная Дуброва, Холопья, Поселичи, Весея д., Гадиловичи, Деньковцы, Биордо, Налибоки, Зубелевичи, Б ЛОТВА, Альба, Потока, Вейшичи, Сигневичи, Семежево, Скриплица, Ханевичи, Подстаринь, Передрейка, Кривое Село, Риминка, Новиянка, Новая Веска, Вербки, Цветино, квасыничи, Грусково, Завережье, Крегли, Завойть, Грицковичи, Нестеровщина, Лаздуны, Гадилуны, Керняны, Ковнятин, Хотилы, Маложин, Бабга, Старая Буда, Кмитянка, Турки, Видзы, Победное, Покрашево, Палуши, Коневцы, Поляниновичи, Жирмуны, Кухтичи, Дуравичи, Грозово, Бабаевичи, 10-й Блок-Пост, Курчевцы, Белоусовщина д., Хорева д., Дындылишки, Медюки, Тешевле, Лобжа, Халопеничи, Алексейки, Верхнее, Шамовщина, Вязьма, Переганцы, Скоморошки, Копылы, Глиница, Можеевка снп, Прилуки д., Рембоковщина, Неман, Пески - 2, Кунцевщина, Свитичи, Паниквы, Смоляны, Маньковщина, Цепра, Сокольничи, Елизово рп, Деречин, Доропеевичи, ЯКОВИЧИ, Шкава, Красная Звезда, Милоград, Мотыли, Крупейки, Солнечный п., Коротичи, ДЕРЕВНЯ БОРОВЛЯНЫ, Долки, Моисеевщина, Маркуны, Раевщина, Бушмичи, Мадейки, Привольная, Любковщина, Сычики, Пласкиня, Свилы, Жилихово, Малые Круговичи, Магеры, Волосово, Лихосельцы, Тупичаны, Трабы д., Старый Свержень, Михалин, Млехово, Глинка, Тросно, Дрила-1, Клайши, Валавская Рудня, Охово, Боханы, Передельск, Яковичи, Калилы, Казейки, Далекие, Погородно, Движки, Великая Крушиновка, Долматовщина, Лаша, Новый Болецк, Байбы, Песочное, Липляны, Ямное, Матырино, Верхняя Тощица, Репище, Пацева Слобода, Фащевка, Заяченье, Добрая Воля, Михеевичи, Петревичи, Подрукша д, Саковичи, Стодоличи, Орешники, Рожки 2, Русаковичи, Полянка, Головчицы, Старые Храковичи, Стараволя, Войнилы, Друя, Глухская Селиба, Великий Двор, Новые-Шарабаи, Слабодка, Лотвичи, Глиняны, Глинная, Тобулки, Комаровщина, Турна Большая, Бородичи д., Горная Рута, Редковичи, ФОЛЬВАРКИ, Загородье, Кротов, Своятичи, Синичино, Теклевка, Муляры, Липовец, Копачи, Каролино, Кожан-Городок д., Идолта, Заполичи, Святица, Тристивка, Поддубье, Малая Ухолода, Мыслобож, Рудавец, Лельчицы., Переслега, Усушек, Садовая, Клочки, Бараны, Семировичи, Бардилы, Ужанка, Рулевщина, Гирейши, Плитница, Дражно, Лыцевичи, Немержа, Кричин, Залютичи, Бубны, Погост, Островки, Кульшичи, Буда-Софиевка, Прогресс, Лобча, Шкураты, Мерзляково, Бабуничи, Боярская, Гостино, Избудище, Ольгердово, Слабода, Руда Яворская, Хорошки, Большая Зимница, Цюприки, Горбачево, Иоды, Вардомичи, Ошмянцы, Омелинно, Великое Журово, Кончицы, Дайлидки, Ходевичи, Тушевичи, Погорелка, Шилин, Васильковка, Болотчицы, Степужичи, Шелухи, ГОРОД МОЛОДЕЧНО, Иваки, Лядец, Подомхи, Великие Новики, Космовичи, Колубели, Полсвиж, Неглюбка, Листопадовичи, Ижа, Кузевичи, Птицкие, Чаша, Мостовляны, Добучин, Трестивец, Козики, Застенок Брили, Розета, Велевщина, Пруд, Райцы, Жатерево, Засулье, Лесная, Комсомольская, Секеричи д., Борок, Полошково, Новое пашково, Барташи, Запруды, Запурье, Семенча-2, Гавриловцы, Кунторовка, Колбча, Сосновый Бор п., Храповищено, Новые Огаревичи, Калининск, Коленкишки, Ананчицы, Гродзянка, Ребуса, Круки, Порплище, Чернова, Юголин, ПЛЯНТА, Верх-Крупово, Малая Тростяница, Святая Воля, Лыково, ГОРОД ГОРКИ, Берестовица, Мыщицы, Касынь, Соничи, Збураж, Ивановские огородники, Яныши, Рудавицы, Гривки, Филипковичи, Слабожанка, Приборово, Раздяловичи, Забелышин, Буйновичи, Терасполье, Куровое, Единство, Богино, Свердлово, Преснаки, Краснобережье, Долбнево, Вынищи, Ветче, Мазичи, Семеновичи, Езапов, Бискупцы, Щежерь 1, Доргишки, Старокрасное, Малая Лотва, Лотевка, Ковзаны, Рымовичи, Славинск, Моторово, Нурово, Завышье, Любовичи, Буда Головчицкая, Мачужичи, Липово, Раковичи, Румок, Рымуни, ГОРОД МАРЬИНА ГОРКА, Харлаповичи, Гутница, Богданово,</t>
+  </si>
+  <si>
+    <t>Город, Деревня, Городcкой поселок, Агрогородок, Рабочий поселок, Поселок сельского типа, Сельский населенный пункт, nan, Курортный поселок, Село, Хутор</t>
+  </si>
+  <si>
+    <t>nan, S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ, F_СТРОИТЕЛЬСТВО, Q_ЗДРАВООХРАНЕНИЕ И СОЦИАЛЬНЫЕ УСЛУГИ, P_ОБРАЗОВАНИЕ, M_ПРОФЕССИОНАЛЬНАЯ  НАУЧНАЯ И ТЕХНИЧЕСКАЯ ДЕЯТЕЛЬНОСТЬ, K_ФИНАНСОВАЯ И СТРАХОВАЯ ДЕЯТЕЛЬНОСТЬ, A_СЕЛЬСКОЕ  ЛЕСНОЕ И  РЫБНОЕ ХОЗЯЙСТВО, N_ДЕЯТЕЛЬНОСТЬ В СФЕРЕ АДМИНИСТРАТИВНЫХ И ВСПОМОГАТЕЛЬНЫХ УСЛУГ, I_УСЛУГИ ПО ВРЕМЕННОМУ ПРОЖИВАНИЮ И ПИТАНИЮ, O_ГОСУДАРСТВЕННОЕ УПРАВЛЕНИЕ, H_ТРАНСПОРТНАЯ ДЕЯТЕЛЬНОСТЬ  СКЛАДИРОВАНИЕ  ПОЧТОВАЯ И КУРЬЕРСКАЯ ДЕЯТЕЛЬНОСТЬ, G_ОПТОВАЯ И РОЗНИЧНАЯ ТОРГОВЛЯ РЕМОНТ АВТОМОБИЛЕЙ И МОТОЦИКЛОВ, D_СНАБЖЕНИЕ ЭЛЕКТРОЭНЕРГИЕЙ  ГАЗОМ  ПАРОМ  ГОРЯЧЕЙ ВОДОЙ И КОНДИЦИОНИРОВАННЫМ ВОЗДУХОМ, U_ДЕЯТЕЛЬНОСТЬ ЭКСТЕРРИТОРИАЛЬНЫХ ОРГАНИЗАЦИЙ И ОРГАНОВ, J_ИНФОРМАЦИЯ И СВЯЗЬ, E_ВОДОСНАБЖЕНИЕ СБОР  ОБРАБОТКА И УДАЛЕНИЕ ОТХОДОВ  ДЕЯТЕЛЬНОСТЬ ПО ЛИКВИДАЦИИ ЗАГРЯЗНЕНИЙ, R_ТВОРЧЕСТВО  СПОРТ  РАЗВЛЕЧЕНИЯ И ОТДЫХ, B_ГОРНОДОБЫВАЮЩАЯ ПРОМЫШЛЕННОСТЬ, L_ОПЕРАЦИИ С НЕДВИЖИМЫМ ИМУЩЕСТВОМ, 30_ПРОИЗВОДСТВО ПРОЧИХ ТРАНСПОРТНЫХ СРЕДСТВ И ОБОРУДОВАНИЯ, T_ДЕЯТЕЛЬНОСТЬ ЧАСТНЫХ ДОМАШНИХ ХОЗЯЙСТВ  НАНИМАЮЩИХ ДОМАШНЮЮ ПРИСЛУГУ И ПРОИЗВОДЯЩИХ ТОВАРЫ И УСЛУГИ ДЛЯ СОБСТВЕННОГО ПОТРЕБЛЕНИЯ, 23_ПРОИЗВОДСТВО ПРОЧИХ НЕМЕТАЛЛИЧЕСКИХ МИНЕРАЛЬНЫХ ПРОДУКТОВ, 25_ПРОИЗВОДСТВО ГОТОВЫХ МЕТАЛЛИЧЕСКИХ ИЗДЕЛИЙ  КРОМЕ МАШИН И ОБОРУДОВАНИЯ, 16_ПРОИЗВОДСТВО ДЕРЕВЯННЫХ И ПРОБКОВЫХ ИЗДЕЛИЙ  КРОМЕ МЕБЕЛИ ПРОИЗВОДСТВО ИЗДЕЛИЙ ИЗ СОЛОМКИ И МАТЕРИАЛОВ ДЛЯ ПЛЕТЕНИЯ, 31_ПРОИЗВОДСТВО МЕБЕЛИ, 10_ПРОИЗВОДСТВО ПРОДУКТОВ ПИТАНИЯ, 21_ПРОИЗВОДСТВО ОСНОВНЫХ ФАРМАЦЕВТИЧЕСКИХ ПРОДУКТОВ И ФАРМАЦЕВТИЧЕСКИХ ПРЕПАРАТОВ, 18_ПОЛИГРАФИЧЕСКАЯ ДЕЯТЕЛЬНОСТЬ И ТИРАЖИРОВАНИЕ ЗАПИСАННЫХ НОСИТЕЛЕЙ ИНФОРМАЦИИ, 28_ПРОИЗВОДСТВО МАШИН И ОБОРУДОВАНИЯ  НЕ ВКЛЮЧЕННЫХ В ДРУГИЕ ГРУППИРОВКИ, 32_ПРОИЗВОДСТВО ПРОЧИХ ГОТОВЫХ ИЗДЕЛИЙ, 14_ПРОИЗВОДСТВО ОДЕЖДЫ, 20_ПРОИЗВОДСТВО ХИМИЧЕСКИХ ПРОДУКТОВ, 26_ПРОИЗВОДСТВО ВЫЧИСЛИТЕЛЬНОЙ  ЭЛЕКТРОННОЙ И ОПТИЧЕСКОЙ АППАРАТУРЫ, 13_ПРОИЗВОДСТВО ТЕКСТИЛЬНЫХ ИЗДЕЛИЙ, 27_ПРОИЗВОДСТВО ЭЛЕКТРООБОРУДОВАНИЯ, 22_ПРОИЗВОДСТВО РЕЗИНОВЫХ И ПЛАСТМАССОВЫХ ИЗДЕЛИЙ, 11_ПРОИЗВОДСТВО НАПИТКОВ, 17_ПРОИЗВОДСТВО ЦЕЛЛЮЛОЗЫ  БУМАГИ И ИЗДЕЛИЙ ИЗ БУМАГИ, 15_ДУБЛЕНИЕ  ВЫДЕЛКА КОЖИ  МЕХА ПРОИЗВОДСТВО ИЗДЕЛИЙ ИЗ КОЖИ  КРОМЕ ОДЕЖДЫ, 24_МЕТАЛЛУРГИЧЕСКОЕ ПРОИЗВОДСТВО, 33_РЕМОНТ  МОНТАЖ МАШИН И ОБОРУДОВАНИЯ, 19_ПРОИЗВОДСТВО КОКСА И ПРОДУКТОВ НЕФТЕПЕРЕРАБОТКИ, 29_ПРОИЗВОДСТВО АВТОМОБИЛЕЙ  ПРИЦЕПОВ И ПОЛУПРИЦЕПОВ, 12_ПРОИЗВОДСТВО ТАБАЧНЫХ ИЗДЕЛИЙ</t>
+  </si>
+  <si>
+    <t>РБ, Другое, Без гражданства, nan</t>
   </si>
   <si>
     <t>[04.01.2016;21.12.2020]</t>
@@ -229,6 +232,9 @@
     <t>[03.01.1878;30.09.2002]</t>
   </si>
   <si>
+    <t>nan, есть, нет</t>
+  </si>
+  <si>
     <t>[0.0;44.0]</t>
   </si>
   <si>
@@ -253,7 +259,7 @@
     <t>[0.0;10000.0]</t>
   </si>
   <si>
-    <t>Прекращение договора исполнением, Прекращение договора по иным основаниям  предусмотренным законодательством Республики Беларусь, Прекращение договора по решению суда, Прощение долга</t>
+    <t>nan, Прекращение договора исполнением, Прекращение договора по иным основаниям  предусмотренным законодательством Республики Беларусь, Прощение долга, Прекращение договора по решению суда</t>
   </si>
   <si>
     <t>[0.0;678562.6]</t>
@@ -265,28 +271,31 @@
     <t>[15.01.2016;08.07.2021]</t>
   </si>
   <si>
-    <t>[2101016 BYN] Экспресс-кредит (наличными) (срок - 1 год), [2101017 BYN] Экспресс-кредит (ККМВ) (срок - 1 год), [2101018 BYN] На оплату обучения (дневной  вечерней и заочной формы) в высших и средних специальных учебных заведениях Республики Беларусь, [2101020 BYN] Кредит Всегда под рукой, [2101021 BYN] На потребительские нужды (в оплату за товары (работы  услуги) отечественного производства), [2101079 BYN] На приобретение нового автомобиля, [2101080 BYN] На приобретение автомобиля  бывшего в эксплуатации, [2101081 BYN] Кредиты работникам ГВТУП Белспецвнештехника на потребительские нужды, [2101083 BYR] На рефинансирование кредитов ОАО Хоум Кредит Банк (безналичным перечислением), [2101084 BYR] На рефинансирование кредитов ОАО Хоум Кредит Банк (ККМВ), [2101085 BYN] Кредит Прокачай свой кредит, [2101086 BYN] Кредит Прокачай свой кредит на недвижимость, [2101087 BYN] Кредит Офицерский, [2101102 BYN] Краткосрочный овердрафт (90 дней) с грейс-периодом 20 дней, [2101103 BYN] Долгосрочный овердрафт (Пенсионная карта), [2101104 BYN] Долгосрочный овердрафт INFINITE, [2101202 BYN] Экспресс-кредит (на приобретение продукции у  ООО Уют) (срок 10 месяцев) (ЦБУ № 408 г.Кобрин), [2101209 BYN] Экспресс-кредит (на приобретение продукции ЧТУП Технопрофиль) (ЦБУ № 201 г.Гродно), [2101213 BYN] Экспресс-кредит (на приобретение путевок у ООО КУСТОВ-инвест) (срок - 4 месяца) (Дирекция по Гомельской области), [2101214 BYN] Экспресс-кредит (на приобретение путевок у ООО КУСТОВ-инвест) (срок - 6 месяцев) (Дирекция по Гомельской области), [2101216 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Технопрофиль) (срок - 6 месяцев) (ЦБУ №201 г.Гродно), [2101224 BYN] Экспресс-кредит (на приобретение продукции у ООО Мираж-М)(срок 12 месяцев)(ЦБУ №305 г.Жлобин), [2101245 BYN] Экспресс-кредит (на приобретение продукции у ООО Мираж-М)(срок 18 месяцев)(ЦБУ №305 г.Жлобин), [2101266 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 12 месяцев)(ЦБУ №304 г.Светлогорск), [2101267 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 15 месяцев)(ЦБУ №304 г.Светлогорск), [2101268 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 18 месяцев)(ЦБУ №304 г.Светлогорск), [2101269 BYN] Экспресс-кредит на приобретение продукции у ИП Павленко Людмилы Сергеевны (срок 3-6 месяцев) (Дирекция по Гомельской области), [2101270 BYN] Экспресс-кредит на приобретение продукции у ИП Павленко Людмилы Сергеевны (срок - 12 месяцев) (Дирекция по Гомельской области), [2101295 BYN] Экспресс-кредит (на оказание туристических услуг ЧТУП Бамбус Травэл) (срок - 4 месяца) (Дирекция по Брестской области), [2101296 BYN] Экспресс-кредит (на оказание туристических услуг ЧТУП Бамбус Травэл (срок - 6 месяцев) (Дирекция по Брестской области), [2101354 BYN] Экспресс-кредит (на приобретение товаров у ИП Михед Д.В.)(срок 4 месяца)(Дирекция по Гомельской области), [2101359 BYN] Экспресс-кредит (на приобретение товаров у ИП Заленский)(срок 10 месяцев)(ЦБУ №307 г.Калинковичи), [2101360 BYN] Экспресс-кредит (на приобретение товаров у ИП Заленский)(срок 6 месяцев)(ЦБУ №307 г.Калинковичи), [2101361 BYN] Экспресс-кредит (на приобретение товаров у ОАО Гомельский областной техноторговый центр Гарант)(срок 6 месяцев)(Дирекция по Гомельской области), [2101370 BYN] Экспресс-кредит (на оказание услуг ИП Дулебенец А.В.)(срок 6 месяцев)(ЦБУ №906 г.Заславль), [2101373 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 4 месяца)(Дирекция по Гомельской области) , [2101383 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 6 месяцев)(Дирекция по Гомельской области) , [2101384 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 10 месяцев)(Дирекция по Гомельской области) , [2101388 BYN] Экспресс-кредит (на приобретение товаров у  ООО ТрансТоргБизнес) (срок 6 месяцев) (Дирекция по Гомельской области), [2101392 BYN] Экспресс-кредит (на приобретение продукции у ООО Мираж-М)(срок 3-6 месяцев)(ЦБУ №305 г.Жлобин), [2101396 BYN] Экспресс-кредит (на приобретение товаров у СООО МТС)(срок - 18 месяцев), [2101397 BYN] Экспресс-кредит (на приобретение товаров у СООО МТС)(срок - 24 месяца), [2101399 BYN] Экспресс-кредит (на приобретение товаров у ИП Дробышев С.Л.)(срок 4 месяца)(Дирекция по Могилевской области), [2101414 BYN] Экспресс-кредит (на приобретение товаров у ИП Трахимчик И.А.)(срок 12 месяцев)(ЦБУ №521 г.Минск), [2101415 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 4 месяца)(ЦБУ №521 г.Минск), [2101416 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 6 месяцев)(ЦБУ №521 г.Минск), [2101417 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 10 месяцев)(ЦБУ №521 г.Минск), [2101418 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 12 месяцев)(ЦБУ №521 г.Минск), [2101425 BYN] Экспресс-кредит (на приобретение услуг ЧМУП Стомарус)(срок 6 месяцев)(ЦБУ №304 г.Светлогорск), [2101426 BYN] Экспресс-кредит (на приобретение услуг ЧМУП Стомарус)(срок 12 месяцев)(ЦБУ №304 г.Светлогорск), [2101427 BYN] Экспресс-кредит (на приобретение продукции у ООО Петровайлен)(срок 6 месяцев)(ЦБУ №406 г.Пинск), [2101428 BYN] Экспресс-кредит (на приобретение продукции у ООО Модерн)(срок 10 месяцев)(Дирекция по Гродненской области), [2101429 BYN] Экспресс-кредит (на оказание туристических услуг ООО Капитан Тур)(срок 6 месяцев)(Гоперу), [2101435 BYN] Экспресс-кредит (на приобретение продукции у ООО ЕвроМонтажПроект)(срок 12 месяцев)(Гоперу), [2101438 BYN] Экспресс-кредит (на приобретение продукции у ИП Вишнякова Т.В.)(срок 6 месяцев)(Дирекция по Могилевской области), [2101440 BYN] Экспресс-кредит (на приобретение продукции у ИП Вишнякова Т.В.)(срок 10 месяцев)(Дирекция по Могилевской области), [2101452 BYN] Экспресс-кредит (на оказание туристических услуг  ИП Коровкин Д.О.)(срок 4 месяца)(Дирекция по Гомельской области), [2101453 BYN] Экспресс-кредит (на оказание туристических услуг  ИП Коровкин Д.О.)(срок 6 месяцев)(Дирекция по Гомельской области), [2101455 BYN] Экспресс-кредит (на приобретение продукции у ЧПУП Завод профилированных изделий)(срок 6 месяцев)(Дирекция по Гомельской области), [2101458 BYN] Экспресс-кредит (на приобретение товаров у ИП Лакишик Е.В.)(срок - 10 месяцев)(ЦБУ № 406 г. Пинск), [2101460 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок - 12 месяцев)(ЦБУ № 203 г.Волковыск), [2101461 BYN] Экспресс-кредит (на приобретение услуг у ООО СлавКуст)(срок 4 месяца)(Дирекция по Гомельской области), [2101462 BYN] Экспресс-кредит (на приобретение услуг у ООО СлавКуст)(срок 6 месяцев)(Дирекция по Гомельской области) , [2101463 BYN] Экспресс-кредит (на приобретение услуг у OOO СлавКуст(срок 12 месяцев) (Дирекция по Гомельской области), [2101474 BYN] Экспресс-кредит (на приобретение продукции у ЧПCУП АконитПлюс)(срок 8 месяцев)(ЦБУ №408 г.Кобрин), [2101482 BYN] Экспресс-кредит (на приобретение услуг у ООО Виттехавто) (срок 6 месяцев) (Дирекция по Витебской области), [2101483 BYN] Экспресс-кредит (на приобретение услуг у ООО Виттехавто) (срок 12 месяцев) (Дирекция по Витебской области), [2101484 BYN] Экспресс-кредит (на оказание туристических услуг  ИП Павленко А.П.)(срок 6 месяцев)(Дирекция по Гомельской области), [2101490 BYN] Экспресс-кредит (на приобретение продукции у  ООО Уют) (срок 3-6 месяцев) (ЦБУ № 408 г.Кобрин), [2101492 BYN] Экспресс-кредит (на приобретение продукции у  ООО Уют) (срок 8 месяцев) (ЦБУ № 408 г.Кобрин), [2101501 BYN] Личный выбор (наличными), [2101502 BYN] Личный выбор (безналичным перечислением), [2101503 BYN] Личный выбор (БПК), [2101504 BYN] На потребительские нужды Удобный, [2101601 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 12 месяцев)(Дирекция по Гомельской области), [2101604 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 6 месяцев) (ЦБУ №307 г.Калинковичи), [2101605 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (ЦБУ №307 г.Калинковичи), [2101606 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ №307 г.Калинковичи), [2101607 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 6 месяцев) (ЦА), [2101608 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 10 месяцев) (ЦА), [2101609 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 12 месяцев) (ЦА), [2101611 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 15 месяцев) (ЦА), [2101612 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 20 месяцев) (ЦА), [2101614 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 25 месяцев) (ЦА), [2101618 BYN] Экспресс-кредит (на приобретение продукции у ИП Хомякова Т.В. (срок 12 месяцев) (ЦБУ №307 г.Калинковичи), [2101620 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 8 месяцев)(ЦБУ №304 г.Светлогорск), [2101622 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 10 месяцев)(ЦБУ №304 г.Светлогорск), [2101625 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 18 месяцев) (ЦА), [2101626 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 24 месяца) (ЦА), [2101627 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 30 месяцев) (ЦА), [2101633 BYN] Экспресс-кредит (на приобретение товаров у ЧП ВиалгоТрейд) (срок - 6 месяцев  0.1%)(ЦБУ №203 г.Волковыск), [2101640 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Орион Голд) (срок 3-6 месяцев) (ЦБУ № 408 г.Кобрин), [2101641 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Орион Голд) (срок 7 месяцев) (ЦБУ № 408 г.Кобрин), [2101642 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Орион Голд) (срок 8 месяцев) (ЦБУ № 408 г.Кобрин), [2101646 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 3-6 месяцев) (Дирекция по Гродненской области), [2101647 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 7 месяцев) (Дирекция по Гродненской области), [2101648 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 8 месяцев) (Дирекция по Гродненской области), [2101649 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 9 месяцев) (Дирекция по Гродненской области), [2101650 BYN] Экспресс-кредит (на приобретение товаров) у ИП Баленков К.А. (срок 6 месяцев) (Дирекция по Гомельской области), [2101652 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (Дирекция по Гомельской области), [2101653 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок 3-6 месяцев)(ЦБУ № 203 г.Волковыск), [2101654 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (Дирекция по Гомельской области), [2101655 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 6 месяцев) (Дирекция по Гомельской области), [2101657 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 305 г. Жлобин), [2101658 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (ЦБУ № 305 г. Жлобин), [2101660 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 4 месяца) (ЦБУ № 305 г. Жлобин), [2101661 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 4 месяца) (ЦБУ № 304 г. Светлогорск), [2101664 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 304 г. Светлогорск), [2101665 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 4 месяца) (ЦБУ № 306 г. Мозырь), [2101666 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 6 месяцев) (ЦБУ № 306 г. Мозырь), [2101667 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (ЦБУ № 306 г. Мозырь), [2101668 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 306 г. Мозырь), [2101670 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Медоева О.Л.) (срок 6 месяцев) (Дирекция по Витебской области), [2101673 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 7 месяцев) (ЦА), [2101674 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 11 месяцев) (ЦА), [2101675 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 13 месяцев) (ЦА), [2101676 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 16 месяцев) (ЦА), [2101677 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 19 месяцев) (ЦА), [2101678 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21 месяц) (ЦА), [2101679 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 26 месяцев) (ЦА), [2101680 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 31 месяц) (ЦА), [2101690 BYN] Экспресс-кредит (на приобретение услуг у ИП Журков В.Ю.) (срок 6 месяцев 0 1%) (Дирекция по Могилевской области), [2101697 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 536 г. Минск), [2101703 BYN] Экспресс-кредит (на приобретение товаров ООО Фараней) (12 месяцев) (Дирекция по Брестской области), [2101715 BYN] Экспресс-кредит (на приобретение продукции у ИП Литвинова Ж.В.)(срок 12 месяцев)(ЦБУ №932 г.Молодечно), [2101719 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (Дирекция по Брестской области), [2101724 BYN] Экспресс-кредит (на приобретение продукции у ООО ТоргМебель)(срок 12 месяцев)(Дирекция по Гомельской области), [2101746 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Кулицкая О.В.) (срок 6 месяцев) (Дирекция по Гомельской области), [2101748 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Кулицкая О.В.) (срок 12 месяцев) (Дирекция по Гомельской области), [2101773 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Чуракаев С.А. (срок 12 месяцев) (ЦБУ №307 г.Калинковичи), [2101777 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Борисевич Ю.В. (срок 12 месяцев) (ЦБУ №932 г.Молодечно), [2101785 BYN] Экспресс-кредит на приобретение продукции Калинковичский мебельный комбинат (12 мес.) , [2101788 BYN] Экспресс-кредит (на приобретение услуг у ГУО ВУКК)(10 мес.)(Дирекция по Витебской области области), [2101789 BYN] Экспресс-кредит (на приобретение услуг у ГУО ВУКК)(12 мес.)(Дирекция по Витебской области области), [2101790 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 4 месяца) (Дирекция по Гомельской области), [2101791 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 6 месяцев) (Дирекция по Гомельской области), [2101792 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 10 месяцев) (Дирекция по Гомельской области), [2101793 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 12 месяцев) (Дирекция по Гомельской области), [2101797 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Салевитстрой) (срок 4 месяца) (ЦБУ №406 г.Пинск), [2101798 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Салевитстрой) (срок 6 месяцев) (ЦБУ №406 г.Пинск), [2101799 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Салевитстрой) (срок 10 месяцев) (ЦБУ №406 г.Пинск), [2101819 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 3-6 месяцев) (ЦБУ №408 г.Кобрин), [2101820 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 7 месяцев) (ЦБУ №408 г.Кобрин), [2101821 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 8 месяцев) (ЦБУ №408 г.Кобрин), [2101822 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 9 месяцев) (ЦБУ №408 г.Кобрин), [2101823 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Тальковская О.А. (срок 4 месяца) (ЦБУ №228 г.Лида), [2101824 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Тальковская О.А. (срок 6 месяцев) (ЦБУ №228 г.Лида), [2101832 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП СтройТОЧКА)(срок 4-6 месяцев)(ЦБУ №202 г.Слоним), [2101847 BYN] Экспресс-кредит (на приобретение товаров у ООО Альянс энергия)(срок 3-24 месяца)(ЦБУ №538 г.Минск), [2101850 BYN] Экспресс-кредит (на приобретение услуг у ООО ТаитиТур)(срок 3-6 месяцев)(ЦБУ №305 г.Жлобин), [2101854 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Студия мебели Дом5) (срок 3-6 месяцев) (ЦБУ №305 г.Жлобин), [2101855 BYN] Экспресс-кредит (на приобретение товаров у ТУП Торговый дом Витязь)(срок 3-12 месяцев)(Дирекция по Витебской области), [2101880 BYN] Экспресс-кредит (на приобретение продукции у ООО Победит Профи) (срок 3-6 месяцев) (Дирекция по Гродненской области), [2101881 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Борисевич Ю.В. (срок 3-6 месяцев) (ЦБУ №932 г.Молодечно), [2101882 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Некрасов О.В. (срок 4-6 месяцев) (ЦБУ №228 г.Лида), [2101883 BYN] Экспресс-кредит (на приобретение продукции у ЧТПУП Золотая река) (срок 4 месяца) (Дирекция по Гомельской области), [2101885 BYN] Экспресс-кредит (на приобретение товаров  у ООО Коваленко и парнеры (срок 6-24 месяца) (дирекция по Могилевской области), [2101886 BYN] Экспресс-кредит на приобретение продукции Калинковичский мебельный комбинат (3-6 месяцев) , [2101887 BYN] Экспресс-кредит (на приобретение продукции у ООО ЕЛКО)(срок 6-24 месяца)(дирекция по Могилевской области), [2101889 BYN] Экспресс-кредит (на приобретение товаров у ЧПУП ВиВаМебель)(срок 3-24 месяца)(ЦБУ №228 г.Лид), [2101892 BYN] Экспресс-кредит (на приобретение услуг у ООО ПутевочкаЛюкс) (срок 3-6 месяца) (Дирекция по Гродненской области), [2101894 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 9мес/отсрочка - 3мес) (ЦА), [2101895 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 15мес/отсрочка - 3мес) (ЦА), [2101896 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 18мес/отсрочка - 3мес) (ЦА), [2101897 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21мес/отсрочка - 3мес) (ЦА), [2101898 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 27мес/отсрочка - 3мес) (ЦА), [2101899 BYN] Экспресс-кредит Быстрые деньги (ООО ПАЛОМА СЕРВИС), [2101900 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 3-6 месяцев)(ЦБУ №304 г.Светлогорск), [2101939 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок 12 месяцев)(ЦБУ № 203 г.Волковыск), [2101941 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок 18 месяцев)(ЦБУ № 203 г.Волковыск), [2101949 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Студия мебели Дом5) (срок 12 месяцев) (ЦБУ №305 г.Жлобин), [2101951 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Студия мебели Дом5) (срок 18 месяцев) (ЦБУ №305 г.Жлобин), [2101967 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Некрасов О.В. (срок 12 месяцев) (ЦБУ №228 г.Лида), [2101985 BYN] Экспресс-кредит (на приобретение продукции у ЧПCУП АконитПлюс)(срок 15 месяцев)(ЦБУ №408 г.Кобрин), [2101986 BYN] Экспресс-кредит (на приобретение продукции у ЧПCУП АконитПлюс)(срок 18 месяцев)(ЦБУ №408 г.Кобрин), [2101990 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 25 месяцев) с 01.02.2020 (ЦА), [2101992 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 7 месяцев) с 01.02.2020 (ЦА), [2101993 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 11 месяцев) с 01.02.2020 (ЦА), [2101994 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 13 месяцев) с 01.02.2020 (ЦА), [2101995 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 16 месяцев) с 01.02.2020 (ЦА), [2101996 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 19 месяцев) с 01.02.2020 (ЦА), [2101997 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21 месяц) с 01.02.2020 (ЦА), [2101999 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 31 месяц) с 01.02.2020 (ЦА), [2102101 BYN] На строительство жилой недвижимости, [2102102 BYN] На строительство иной недвижимости, [2102103 BYN] Кредит на строительство квартир в рамках Указа № 240 от 04.07.2017, [2102104 BYN] Кредиты работникам ГВТУП Белспецвнештехника на строительство квартир, [2102105 BYN] Кредит на строительство (реконструкцию) одноквартирных жилых домов в рамках Указа № 240 от 04.07.2017, [2102107 BYN] Кредит на строительство квартир Квартира как подарок, [2102108 BYN] На строительство квартир в рамках сотрудничества с ООО КварталМЗС-Строй, [2102201 BYN] На приобретение жилой недвижимости, [2102202 BYN] На приобретение иной недвижимости, [2102203 BYN] На приобретение машино-мест у ООО БЕЛИНВЕСТ-инжиниринг, [2102205 BYN] Кредит на приобретение квартир Квартира как подарок, [2102206 BYN] На приобретение жилой недвижимости (для работников СООО Гейм Стрим), [2102304 BYN] Строительство квартир ОАО Жилстрой (Дирекция по Витебской области), [2102306 BYN] Строительство квартир у ООО ТЕНКинвест (срок 20 лет) (Гоперу), [2102308 BYN] Строительство квартир ООО БелКитСтрой и Ко (ЦБУ №831 г.Бобруйск), [2102309 BYN] Приобретение квартир ООО БелКитСтрой и Ко (ЦБУ №831 г.Бобруйск), [2102310 BYN] Приобретение квартир СП Строминвест ООО (льготный период 12 месяцев)(ЦБУ №527 г.Минск), [2102311 BYN] Приобретение квартир СП Строминвест ООО (льготный период 24 месяца)(ЦБУ №527 г.Минск), [2102318 BYN] Строительство квартир ООО Альбивита (ЦА), [2102320 BYN] Строительство квартир ООО СтройИнфоКонсалт (ЦА), [2102322 BYN] Приобретение квартир ЧТУП БрестТекс (Дирекция по Бресткой области), [2102323 BYN] Строительство квартир ООО ТРАЙПЛ (ЦА), [2102324 BYN] Приобретение квартир ООО ТРАЙПЛ (ЦА), [2102325 BYN] Строительство квартир ООО МайКлассКом (ЦА), [2102326 BYN] Приобретение квартир ООО МайКлассКом (ЦА), [2102327 BYN] Строительство квартир ООО ТАПАС (ЦА), [2102328 BYN] Приобретение квартир ООО ТАПАС (ЦА), [2102329 BYN] Строительство квартир ООО Стройформула (льготный период 12 месяцев)(ЦА), [2102331 BYN] Строительство квартир ООО Стройформула (льготный период 24 месяца)(ЦА), [2102333 BYN] Строительство квартир ООО СтройИнфоКонсалт (льготный период 12 месяцев)(ЦА), [2102340 BYN] Приобретение квартир ООО Тетра-Стиль (льготный период 12 месяцев) (ЦБУ №306 г.Мозырь), [2102345 BYN] Строительство квартир ООО АйронИнвестПроект (льготный период 24 месяца)(ЦА), [2102347 BYN] Строительство жилой недвижимости ООО Флайбирд (льготный период 24 месяца)(ЦА), [2102353 BYN] Строительство квартир СООО ИНФОРЕАЛТ (льготный период 12 месяцев)(ЦА), [2102357 BYN] Приобретение квартир ОАО Гомельский ДСК (льготный период 12 месяцев 10.99)(Дирекция по Гомельской области), [2102359 BYN] Приобретение квартир ООО ГИКУКХ Стройинжиниринг Групп (льготный период 12 месяцев 11.99)(Дирекция по Гомельской области), [2102402 BYN] Перевод долга по кредитам ОАО Оршанский комбинат строительных материалов (для многодетных семей), [2104059 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Дехтеревич Е.И. (срок 3-6 месяцев) (ЦБУ №228 г.Лида), [2104061 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Дехтеревич Е.И. (срок 8 месяцев) (ЦБУ №228 г.Лида), [2104094 BYN] Экспресс-кредит (на приобретение товаров у ООО Торговая система) (срок 3-6 месяцев) (ЦБУ № 405 г.Барановичи), [2104100 BYN] Экспресс-кредит (на приобретение товаров у ООО Торговая система) (срок 12 месяцев) (ЦБУ № 405 г.Барановичи), [2104124 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 3 месяца)(Дирекция по Гродненской области), [2104125 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 4 месяца)(Дирекция по Гродненской области), [2104127 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 6 месяцев)(Дирекция по Гродненской области), [2104130 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 9 месяцев)(Дирекция по Гродненской области), [2104133 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 12 месяцев)(Дирекция по Гродненской области), [2104180 BYN] Экспресс-кредит (на приобретение услуг ИП Бердник А.В.)(срок 12 месяцев)(Гоперу), [2104186 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алюр Групп)(6 месяцев)(ЦБУ №831 г.Бобруйск), [2104192 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алюр Групп)(12 месяцев)(ЦБУ №831 г.Бобруйск), [2104207 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО РАДМЕБЕЛЬ)(18 месяцев)(ЦБУ №537 г.Минск), [2104223 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(6 месяцев)(ЦБУ №203 г.Волковыск), [2104224 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(7 месяцев)(ЦБУ №203 г.Волковыск), [2104227 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(10 месяцев)(ЦБУ №203 г.Волковыск), [2104229 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(12 месяцев)(ЦБУ №203 г.Волковыск), [2104232 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алювест-М)(6 месяцев)(Дирекция по Витебской обл.), [2104233 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алювест-М)(9 месяцев)(Дирекция по Витебской обл.), [2104234 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алювест-М)(12 месяцев)(Дирекция по Витебской обл.), [2104235 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(6 месяцев)(ЦБУ №203 г.Волковыск), [2104236 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(8 месяцев)(ЦБУ №203 г.Волковыск), [2104237 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(10 месяцев)(ЦБУ №203 г.Волковыск), [2104238 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(12 месяцев)(ЦБУ №203 г.Волковыск), [2104239 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(18 месяцев)(ЦБУ №203 г.Волковыск), [2104242 BYN] Экспресс-кредит (на приобретение товаров/услуг СООО Центр семейного здоровья Бина)(18 месяцев)(Дирекция по Витебской обл.), [2104295 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧУПОУ Пинсантех)(12 месяцев)(ЦБУ №406 г.Пинск), [2104391 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Завод Пенопласта)(12 месяцев)(ЦБУ №932 г.Молодечно), [2104393 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Завод Пенопласта)(18 месяцев)(ЦБУ №932 г.Молодечно), [2104397 BYN] Экспресс-кредит (на приобретение товаров/услуг ИП Иваровская М.А.)(6 месяцев)(Дирекция по Гомельской обл.), [2104403 BYN] Экспресс-кредит (на приобретение товаров/услуг ИП Иваровская М.А.)(12 месяцев)(Дирекция по Гомельской обл.), [2104417 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП РИВАН)(6 месяцев)(Дирекция по Гродненской обл.), [2105001 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 25 месяцев) с 02.03.2020 (ЦА), [2105003 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 31 месяц) с 02.03.2020 (ЦА), [2105004 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 11 месяцев) с 02.03.2020 (ЦА), [2105005 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 13 месяцев) с 02.03.2020 (ЦА), [2105006 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 16 месяцев) с 02.03.2020 (ЦА), [2105007 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 19 месяцев) с 02.03.2020 (ЦА), [2105008 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21 месяц) с 02.03.2020 (ЦА), [2109 BYN] Долгосрочный овердрафт (БПК), [2115 BYN] Краткосрочный овердрафт, [2117 BYN] Долгосрочный овердрафт (Visa Platinum)</t>
+    <t>[2101016 BYN] Экспресс-кредит (наличными) (срок - 1 год), [2101020 BYN] Кредит Всегда под рукой, [2101021 BYN] На потребительские нужды (в оплату за товары (работы  услуги) отечественного производства), [2101501 BYN] Личный выбор (наличными), [2101503 BYN] Личный выбор (БПК), [2102101 BYN] На строительство жилой недвижимости, [2101296 BYN] Экспресс-кредит (на оказание туристических услуг ЧТУП Бамбус Травэл (срок - 6 месяцев) (Дирекция по Брестской области), [2101502 BYN] Личный выбор (безналичным перечислением), [2102201 BYN] На приобретение жилой недвижимости, [2101017 BYN] Экспресс-кредит (ККМВ) (срок - 1 год), [2102203 BYN] На приобретение машино-мест у ООО БЕЛИНВЕСТ-инжиниринг, [2101216 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Технопрофиль) (срок - 6 месяцев) (ЦБУ №201 г.Гродно), [2102108 BYN] На строительство квартир в рамках сотрудничества с ООО КварталМЗС-Строй, [2101213 BYN] Экспресс-кредит (на приобретение путевок у ООО КУСТОВ-инвест) (срок - 4 месяца) (Дирекция по Гомельской области), [2102202 BYN] На приобретение иной недвижимости, [2101079 BYN] На приобретение нового автомобиля, [2101209 BYN] Экспресс-кредит (на приобретение продукции ЧТУП Технопрофиль) (ЦБУ № 201 г.Гродно), [2101018 BYN] На оплату обучения (дневной  вечерней и заочной формы) в высших и средних специальных учебных заведениях Республики Беларусь, [2101295 BYN] Экспресс-кредит (на оказание туристических услуг ЧТУП Бамбус Травэл) (срок - 4 месяца) (Дирекция по Брестской области), [2101083 BYR] На рефинансирование кредитов ОАО Хоум Кредит Банк (безналичным перечислением), [2101084 BYR] На рефинансирование кредитов ОАО Хоум Кредит Банк (ККМВ), [2101085 BYN] Кредит Прокачай свой кредит, [2101080 BYN] На приобретение автомобиля  бывшего в эксплуатации, [2101081 BYN] Кредиты работникам ГВТУП Белспецвнештехника на потребительские нужды, nan, [2101102 BYN] Краткосрочный овердрафт (90 дней) с грейс-периодом 20 дней, [2101103 BYN] Долгосрочный овердрафт (Пенсионная карта), [2109 BYN] Долгосрочный овердрафт (БПК), [2115 BYN] Краткосрочный овердрафт, [2101214 BYN] Экспресс-кредит (на приобретение путевок у ООО КУСТОВ-инвест) (срок - 6 месяцев) (Дирекция по Гомельской области), [2117 BYN] Долгосрочный овердрафт (Visa Platinum), [2101104 BYN] Долгосрочный овердрафт INFINITE, [2101086 BYN] Кредит Прокачай свой кредит на недвижимость, [2101361 BYN] Экспресс-кредит (на приобретение товаров у ОАО Гомельский областной техноторговый центр Гарант)(срок 6 месяцев)(Дирекция по Гомельской области), [2102104 BYN] Кредиты работникам ГВТУП Белспецвнештехника на строительство квартир, [2102107 BYN] Кредит на строительство квартир Квартира как подарок, [2102205 BYN] Кредит на приобретение квартир Квартира как подарок, [2101269 BYN] Экспресс-кредит на приобретение продукции у ИП Павленко Людмилы Сергеевны (срок 3-6 месяцев) (Дирекция по Гомельской области), [2101354 BYN] Экспресс-кредит (на приобретение товаров у ИП Михед Д.В.)(срок 4 месяца)(Дирекция по Гомельской области), [2102102 BYN] На строительство иной недвижимости, [2101087 BYN] Кредит Офицерский, [2101270 BYN] Экспресс-кредит на приобретение продукции у ИП Павленко Людмилы Сергеевны (срок - 12 месяцев) (Дирекция по Гомельской области), [2101370 BYN] Экспресс-кредит (на оказание услуг ИП Дулебенец А.В.)(срок 6 месяцев)(ЦБУ №906 г.Заславль), [2101388 BYN] Экспресс-кредит (на приобретение товаров у  ООО ТрансТоргБизнес) (срок 6 месяцев) (Дирекция по Гомельской области), [2101384 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 10 месяцев)(Дирекция по Гомельской области) , [2101373 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 4 месяца)(Дирекция по Гомельской области) , [2101383 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 6 месяцев)(Дирекция по Гомельской области) , [2101359 BYN] Экспресс-кредит (на приобретение товаров у ИП Заленский)(срок 10 месяцев)(ЦБУ №307 г.Калинковичи), [2101360 BYN] Экспресс-кредит (на приобретение товаров у ИП Заленский)(срок 6 месяцев)(ЦБУ №307 г.Калинковичи), [2101418 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 12 месяцев)(ЦБУ №521 г.Минск), [2102304 BYN] Строительство квартир ОАО Жилстрой (Дирекция по Витебской области), [2102402 BYN] Перевод долга по кредитам ОАО Оршанский комбинат строительных материалов (для многодетных семей), [2101399 BYN] Экспресс-кредит (на приобретение товаров у ИП Дробышев С.Л.)(срок 4 месяца)(Дирекция по Могилевской области), [2101428 BYN] Экспресс-кредит (на приобретение продукции у ООО Модерн)(срок 10 месяцев)(Дирекция по Гродненской области), [2101429 BYN] Экспресс-кредит (на оказание туристических услуг ООО Капитан Тур)(срок 6 месяцев)(Гоперу), [2101416 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 6 месяцев)(ЦБУ №521 г.Минск), [2101426 BYN] Экспресс-кредит (на приобретение услуг ЧМУП Стомарус)(срок 12 месяцев)(ЦБУ №304 г.Светлогорск), [2101417 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 10 месяцев)(ЦБУ №521 г.Минск), [2101435 BYN] Экспресс-кредит (на приобретение продукции у ООО ЕвроМонтажПроект)(срок 12 месяцев)(Гоперу), [2101438 BYN] Экспресс-кредит (на приобретение продукции у ИП Вишнякова Т.В.)(срок 6 месяцев)(Дирекция по Могилевской области), [2102103 BYN] Кредит на строительство квартир в рамках Указа № 240 от 04.07.2017, [2101425 BYN] Экспресс-кредит (на приобретение услуг ЧМУП Стомарус)(срок 6 месяцев)(ЦБУ №304 г.Светлогорск), [2101427 BYN] Экспресс-кредит (на приобретение продукции у ООО Петровайлен)(срок 6 месяцев)(ЦБУ №406 г.Пинск), [2102306 BYN] Строительство квартир у ООО ТЕНКинвест (срок 20 лет) (Гоперу), [2102311 BYN] Приобретение квартир СП Строминвест ООО (льготный период 24 месяца)(ЦБУ №527 г.Минск), [2102310 BYN] Приобретение квартир СП Строминвест ООО (льготный период 12 месяцев)(ЦБУ №527 г.Минск), [2101455 BYN] Экспресс-кредит (на приобретение продукции у ЧПУП Завод профилированных изделий)(срок 6 месяцев)(Дирекция по Гомельской области), [2101458 BYN] Экспресс-кредит (на приобретение товаров у ИП Лакишик Е.В.)(срок - 10 месяцев)(ЦБУ № 406 г. Пинск), [2102105 BYN] Кредит на строительство (реконструкцию) одноквартирных жилых домов в рамках Указа № 240 от 04.07.2017, [2101414 BYN] Экспресс-кредит (на приобретение товаров у ИП Трахимчик И.А.)(срок 12 месяцев)(ЦБУ №521 г.Минск), [2101415 BYN] Экспресс-кредит (на приобретение товаров у ИП Высочин В.В.)(срок 4 месяца)(ЦБУ №521 г.Минск), [2101453 BYN] Экспресс-кредит (на оказание туристических услуг  ИП Коровкин Д.О.)(срок 6 месяцев)(Дирекция по Гомельской области), [2102320 BYN] Строительство квартир ООО СтройИнфоКонсалт (ЦА), [2101474 BYN] Экспресс-кредит (на приобретение продукции у ЧПCУП АконитПлюс)(срок 8 месяцев)(ЦБУ №408 г.Кобрин), [2101483 BYN] Экспресс-кредит (на приобретение услуг у ООО Виттехавто) (срок 12 месяцев) (Дирекция по Витебской области), [2101460 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок - 12 месяцев)(ЦБУ № 203 г.Волковыск), [2102318 BYN] Строительство квартир ООО Альбивита (ЦА), [2101462 BYN] Экспресс-кредит (на приобретение услуг у ООО СлавКуст)(срок 6 месяцев)(Дирекция по Гомельской области) , [2101396 BYN] Экспресс-кредит (на приобретение товаров у СООО МТС)(срок - 18 месяцев), [2101397 BYN] Экспресс-кредит (на приобретение товаров у СООО МТС)(срок - 24 месяца), [2101452 BYN] Экспресс-кредит (на оказание туристических услуг  ИП Коровкин Д.О.)(срок 4 месяца)(Дирекция по Гомельской области), [2101492 BYN] Экспресс-кредит (на приобретение продукции у  ООО Уют) (срок 8 месяцев) (ЦБУ № 408 г.Кобрин), [2101463 BYN] Экспресс-кредит (на приобретение услуг у OOO СлавКуст(срок 12 месяцев) (Дирекция по Гомельской области), [2102325 BYN] Строительство квартир ООО МайКлассКом (ЦА), [2101484 BYN] Экспресс-кредит (на оказание туристических услуг  ИП Павленко А.П.)(срок 6 месяцев)(Дирекция по Гомельской области), [2101606 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ №307 г.Калинковичи), [2102322 BYN] Приобретение квартир ЧТУП БрестТекс (Дирекция по Бресткой области), [2102323 BYN] Строительство квартир ООО ТРАЙПЛ (ЦА), [2101601 BYN] Экспресс-кредит (на приобретение товаров у ООО Лекс Торг) (срок - 12 месяцев)(Дирекция по Гомельской области), [2101490 BYN] Экспресс-кредит (на приобретение продукции у  ООО Уют) (срок 3-6 месяцев) (ЦБУ № 408 г.Кобрин), [2102327 BYN] Строительство квартир ООО ТАПАС (ЦА), [2102324 BYN] Приобретение квартир ООО ТРАЙПЛ (ЦА), [2102326 BYN] Приобретение квартир ООО МайКлассКом (ЦА), [2101618 BYN] Экспресс-кредит (на приобретение продукции у ИП Хомякова Т.В. (срок 12 месяцев) (ЦБУ №307 г.Калинковичи), [2101607 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 6 месяцев) (ЦА), [2101608 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 10 месяцев) (ЦА), [2101609 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 12 месяцев) (ЦА), [2101611 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 15 месяцев) (ЦА), [2101614 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 25 месяцев) (ЦА), [2101620 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 8 месяцев)(ЦБУ №304 г.Светлогорск), [2101626 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 24 месяца) (ЦА), [2101482 BYN] Экспресс-кредит (на приобретение услуг у ООО Виттехавто) (срок 6 месяцев) (Дирекция по Витебской области), [2101612 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 20 месяцев) (ЦА), [2101625 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 18 месяцев) (ЦА), [2101627 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 30 месяцев) (ЦА), [2101646 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 3-6 месяцев) (Дирекция по Гродненской области), [2101653 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок 3-6 месяцев)(ЦБУ № 203 г.Волковыск), [2101654 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (Дирекция по Гомельской области), [2102329 BYN] Строительство квартир ООО Стройформула (льготный период 12 месяцев)(ЦА), [2101604 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 6 месяцев) (ЦБУ №307 г.Калинковичи), [2101605 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (ЦБУ №307 г.Калинковичи), [2101622 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 10 месяцев)(ЦБУ №304 г.Светлогорск), [2101652 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (Дирекция по Гомельской области), [2101655 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 6 месяцев) (Дирекция по Гомельской области), [2101664 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 304 г. Светлогорск), [2101667 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (ЦБУ № 306 г. Мозырь), [2101668 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 306 г. Мозырь), [2101670 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Медоева О.Л.) (срок 6 месяцев) (Дирекция по Витебской области), [2101697 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 536 г. Минск), [2101650 BYN] Экспресс-кредит (на приобретение товаров) у ИП Баленков К.А. (срок 6 месяцев) (Дирекция по Гомельской области), [2101673 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 7 месяцев) (ЦА), [2101674 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 11 месяцев) (ЦА), [2101675 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 13 месяцев) (ЦА), [2101676 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 16 месяцев) (ЦА), [2101677 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 19 месяцев) (ЦА), [2101678 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21 месяц) (ЦА), [2101680 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 31 месяц) (ЦА), [2101666 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 6 месяцев) (ЦБУ № 306 г. Мозырь), [2101679 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 26 месяцев) (ЦА), [2102206 BYN] На приобретение жилой недвижимости (для работников СООО Гейм Стрим), [2101690 BYN] Экспресс-кредит (на приобретение услуг у ИП Журков В.Ю.) (срок 6 месяцев 0 1%) (Дирекция по Могилевской области), [2101657 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (ЦБУ № 305 г. Жлобин), [2101703 BYN] Экспресс-кредит (на приобретение товаров ООО Фараней) (12 месяцев) (Дирекция по Брестской области), [2101715 BYN] Экспресс-кредит (на приобретение продукции у ИП Литвинова Ж.В.)(срок 12 месяцев)(ЦБУ №932 г.Молодечно), [2101719 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 12 месяцев) (Дирекция по Брестской области), [2102309 BYN] Приобретение квартир ООО БелКитСтрой и Ко (ЦБУ №831 г.Бобруйск), [2101642 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Орион Голд) (срок 8 месяцев) (ЦБУ № 408 г.Кобрин), [2101665 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 4 месяца) (ЦБУ № 306 г. Мозырь), [2101640 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Орион Голд) (срок 3-6 месяцев) (ЦБУ № 408 г.Кобрин), [2101661 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 4 месяца) (ЦБУ № 304 г. Светлогорск), [2101724 BYN] Экспресс-кредит (на приобретение продукции у ООО ТоргМебель)(срок 12 месяцев)(Дирекция по Гомельской области), [2101748 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Кулицкая О.В.) (срок 12 месяцев) (Дирекция по Гомельской области), [2101633 BYN] Экспресс-кредит (на приобретение товаров у ЧП ВиалгоТрейд) (срок - 6 месяцев  0.1%)(ЦБУ №203 г.Волковыск), [2101641 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Орион Голд) (срок 7 месяцев) (ЦБУ № 408 г.Кобрин), [2101658 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 10 месяцев) (ЦБУ № 305 г. Жлобин), [2101660 BYN] Экспресс-кредит (на приобретение продукции у КПУП Калинковичский мебельный комбинат) (срок 4 месяца) (ЦБУ № 305 г. Жлобин), [2101773 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Чуракаев С.А. (срок 12 месяцев) (ЦБУ №307 г.Калинковичи), [2102331 BYN] Строительство квартир ООО Стройформула (льготный период 24 месяца)(ЦА), [2101746 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Кулицкая О.В.) (срок 6 месяцев) (Дирекция по Гомельской области), [2101777 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Борисевич Ю.В. (срок 12 месяцев) (ЦБУ №932 г.Молодечно), [2101789 BYN] Экспресс-кредит (на приобретение услуг у ГУО ВУКК)(12 мес.)(Дирекция по Витебской области области), [2101504 BYN] На потребительские нужды Удобный, [2101785 BYN] Экспресс-кредит на приобретение продукции Калинковичский мебельный комбинат (12 мес.) , [2101791 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 6 месяцев) (Дирекция по Гомельской области), [2101799 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Салевитстрой) (срок 10 месяцев) (ЦБУ №406 г.Пинск), [2101822 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 9 месяцев) (ЦБУ №408 г.Кобрин), [2101461 BYN] Экспресс-кредит (на приобретение услуг у ООО СлавКуст)(срок 4 месяца)(Дирекция по Гомельской области), [2101648 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 8 месяцев) (Дирекция по Гродненской области), [2101797 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Салевитстрой) (срок 4 месяца) (ЦБУ №406 г.Пинск), [2101798 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП Салевитстрой) (срок 6 месяцев) (ЦБУ №406 г.Пинск), [2101821 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 8 месяцев) (ЦБУ №408 г.Кобрин), [2101880 BYN] Экспресс-кредит (на приобретение продукции у ООО Победит Профи) (срок 3-6 месяцев) (Дирекция по Гродненской области), [2101882 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Некрасов О.В. (срок 4-6 месяцев) (ЦБУ №228 г.Лида), [2101883 BYN] Экспресс-кредит (на приобретение продукции у ЧТПУП Золотая река) (срок 4 месяца) (Дирекция по Гомельской области), [2101885 BYN] Экспресс-кредит (на приобретение товаров  у ООО Коваленко и парнеры (срок 6-24 месяца) (дирекция по Могилевской области), [2101886 BYN] Экспресс-кредит на приобретение продукции Калинковичский мебельный комбинат (3-6 месяцев) , [2101819 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 3-6 месяцев) (ЦБУ №408 г.Кобрин), [2101647 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 7 месяцев) (Дирекция по Гродненской области), [2101889 BYN] Экспресс-кредит (на приобретение товаров у ЧПУП ВиВаМебель)(срок 3-24 месяца)(ЦБУ №228 г.Лид), [2102328 BYN] Приобретение квартир ООО ТАПАС (ЦА), [2101790 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 4 месяца) (Дирекция по Гомельской области), [2101792 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 10 месяцев) (Дирекция по Гомельской области), [2101824 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Тальковская О.А. (срок 6 месяцев) (ЦБУ №228 г.Лида), [2101820 BYN] Экспресс-кредит (на приобретение товаров) у ИП Мацуй В.Н. (срок 7 месяцев) (ЦБУ №408 г.Кобрин), [2101649 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ООО Группа компаний Фрионофф) (срок 9 месяцев) (Дирекция по Гродненской области), [2101847 BYN] Экспресс-кредит (на приобретение товаров у ООО Альянс энергия)(срок 3-24 месяца)(ЦБУ №538 г.Минск), [2101881 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Борисевич Ю.В. (срок 3-6 месяцев) (ЦБУ №932 г.Молодечно), [2101892 BYN] Экспресс-кредит (на приобретение услуг у ООО ПутевочкаЛюкс) (срок 3-6 месяца) (Дирекция по Гродненской области), [2101894 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 9мес/отсрочка - 3мес) (ЦА), [2101895 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 15мес/отсрочка - 3мес) (ЦА), [2101896 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 18мес/отсрочка - 3мес) (ЦА), [2101897 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21мес/отсрочка - 3мес) (ЦА), [2101898 BYN] Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 27мес/отсрочка - 3мес) (ЦА), [2101850 BYN] Экспресс-кредит (на приобретение услуг у ООО ТаитиТур)(срок 3-6 месяцев)(ЦБУ №305 г.Жлобин), [2102333 BYN] Строительство квартир ООО СтройИнфоКонсалт (льготный период 12 месяцев)(ЦА), [2101793 BYN] Экспресс-кредит (на приобретение товаров у ИП Мартыненко Ю.М.) (срок 12 месяцев) (Дирекция по Гомельской области), [2101832 BYN] Экспресс-кредит (на приобретение товаров у ЧТУП СтройТОЧКА)(срок 4-6 месяцев)(ЦБУ №202 г.Слоним), [2101855 BYN] Экспресс-кредит (на приобретение товаров у ТУП Торговый дом Витязь)(срок 3-12 месяцев)(Дирекция по Витебской области), [2101887 BYN] Экспресс-кредит (на приобретение продукции у ООО ЕЛКО)(срок 6-24 месяца)(дирекция по Могилевской области), [2102347 BYN] Строительство жилой недвижимости ООО Флайбирд (льготный период 24 месяца)(ЦА), [2101900 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 3-6 месяцев)(ЦБУ №304 г.Светлогорск), [2102308 BYN] Строительство квартир ООО БелКитСтрой и Ко (ЦБУ №831 г.Бобруйск), [2102340 BYN] Приобретение квартир ООО Тетра-Стиль (льготный период 12 месяцев) (ЦБУ №306 г.Мозырь), [2102359 BYN] Приобретение квартир ООО ГИКУКХ Стройинжиниринг Групп (льготный период 12 месяцев 11.99)(Дирекция по Гомельской области), [2101788 BYN] Экспресс-кредит (на приобретение услуг у ГУО ВУКК)(10 мес.)(Дирекция по Витебской области области), [2102345 BYN] Строительство квартир ООО АйронИнвестПроект (льготный период 24 месяца)(ЦА), [2102353 BYN] Строительство квартир СООО ИНФОРЕАЛТ (льготный период 12 месяцев)(ЦА), [2102357 BYN] Приобретение квартир ОАО Гомельский ДСК (льготный период 12 месяцев 10.99)(Дирекция по Гомельской области), [2101994 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 13 месяцев) с 01.02.2020 (ЦА), [2101854 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Студия мебели Дом5) (срок 3-6 месяцев) (ЦБУ №305 г.Жлобин), [2101949 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Студия мебели Дом5) (срок 12 месяцев) (ЦБУ №305 г.Жлобин), [2101990 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 25 месяцев) с 01.02.2020 (ЦА), [2101992 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 7 месяцев) с 01.02.2020 (ЦА), [2101993 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 11 месяцев) с 01.02.2020 (ЦА), [2101995 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 16 месяцев) с 01.02.2020 (ЦА), [2101996 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 19 месяцев) с 01.02.2020 (ЦА), [2101997 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21 месяц) с 01.02.2020 (ЦА), [2101999 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 31 месяц) с 01.02.2020 (ЦА), [2101245 BYN] Экспресс-кредит (на приобретение продукции у ООО Мираж-М)(срок 18 месяцев)(ЦБУ №305 г.Жлобин), [2101899 BYN] Экспресс-кредит Быстрые деньги (ООО ПАЛОМА СЕРВИС), [2104059 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Дехтеревич Е.И. (срок 3-6 месяцев) (ЦБУ №228 г.Лида), [2104061 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Дехтеревич Е.И. (срок 8 месяцев) (ЦБУ №228 г.Лида), [2101941 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок 18 месяцев)(ЦБУ № 203 г.Волковыск), [2105001 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 25 месяцев) с 02.03.2020 (ЦА), [2105003 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 31 месяц) с 02.03.2020 (ЦА), [2105004 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 11 месяцев) с 02.03.2020 (ЦА), [2105005 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 13 месяцев) с 02.03.2020 (ЦА), [2105006 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 16 месяцев) с 02.03.2020 (ЦА), [2105007 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 19 месяцев) с 02.03.2020 (ЦА), [2105008 BYN] NEW Экспресс-кредит (на приобретение товаров у ООО ПАЛОМА СЕРВИС)(срок - 21 месяц) с 02.03.2020 (ЦА), [2101267 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 15 месяцев)(ЦБУ №304 г.Светлогорск), [2101392 BYN] Экспресс-кредит (на приобретение продукции у ООО Мираж-М)(срок 3-6 месяцев)(ЦБУ №305 г.Жлобин), [2101202 BYN] Экспресс-кредит (на приобретение продукции у  ООО Уют) (срок 10 месяцев) (ЦБУ № 408 г.Кобрин), [2101224 BYN] Экспресс-кредит (на приобретение продукции у ООО Мираж-М)(срок 12 месяцев)(ЦБУ №305 г.Жлобин), [2101939 BYN] Экспресс-кредит (на приобретение продукции у ООО Окна ГКМ Групп)(срок 12 месяцев)(ЦБУ № 203 г.Волковыск), [2101967 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Некрасов О.В. (срок 12 месяцев) (ЦБУ №228 г.Лида), [2104124 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 3 месяца)(Дирекция по Гродненской области), [2104125 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 4 месяца)(Дирекция по Гродненской области), [2104186 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алюр Групп)(6 месяцев)(ЦБУ №831 г.Бобруйск), [2101266 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 12 месяцев)(ЦБУ №304 г.Светлогорск), [2104192 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алюр Групп)(12 месяцев)(ЦБУ №831 г.Бобруйск), [2104235 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(6 месяцев)(ЦБУ №203 г.Волковыск), [2104238 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(12 месяцев)(ЦБУ №203 г.Волковыск), [2101268 BYN] Экспресс-кредит (на приобретение услуг ООО СмайлСветДент)(срок 18 месяцев)(ЦБУ №304 г.Светлогорск), [2104242 BYN] Экспресс-кредит (на приобретение товаров/услуг СООО Центр семейного здоровья Бина)(18 месяцев)(Дирекция по Витебской обл.), [2104295 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧУПОУ Пинсантех)(12 месяцев)(ЦБУ №406 г.Пинск), [2104403 BYN] Экспресс-кредит (на приобретение товаров/услуг ИП Иваровская М.А.)(12 месяцев)(Дирекция по Гомельской обл.), [2104236 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(8 месяцев)(ЦБУ №203 г.Волковыск), [2104391 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Завод Пенопласта)(12 месяцев)(ЦБУ №932 г.Молодечно), [2104393 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Завод Пенопласта)(18 месяцев)(ЦБУ №932 г.Молодечно), [2101440 BYN] Экспресс-кредит (на приобретение продукции у ИП Вишнякова Т.В.)(срок 10 месяцев)(Дирекция по Могилевской области), [2101985 BYN] Экспресс-кредит (на приобретение продукции у ЧПCУП АконитПлюс)(срок 15 месяцев)(ЦБУ №408 г.Кобрин), [2104239 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(18 месяцев)(ЦБУ №203 г.Волковыск), [2104094 BYN] Экспресс-кредит (на приобретение товаров у ООО Торговая система) (срок 3-6 месяцев) (ЦБУ № 405 г.Барановичи), [2104237 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП СтройТрейдЦентр)(10 месяцев)(ЦБУ №203 г.Волковыск), [2104397 BYN] Экспресс-кредит (на приобретение товаров/услуг ИП Иваровская М.А.)(6 месяцев)(Дирекция по Гомельской обл.), [2104232 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алювест-М)(6 месяцев)(Дирекция по Витебской обл.), [2104207 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО РАДМЕБЕЛЬ)(18 месяцев)(ЦБУ №537 г.Минск), [2104233 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алювест-М)(9 месяцев)(Дирекция по Витебской обл.), [2104127 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 6 месяцев)(Дирекция по Гродненской области), [2104417 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП РИВАН)(6 месяцев)(Дирекция по Гродненской обл.), [2104133 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 12 месяцев)(Дирекция по Гродненской области), [2104234 BYN] Экспресс-кредит (на приобретение товаров/услуг ООО Алювест-М)(12 месяцев)(Дирекция по Витебской обл.), [2104224 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(7 месяцев)(ЦБУ №203 г.Волковыск), [2104223 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(6 месяцев)(ЦБУ №203 г.Волковыск), [2101986 BYN] Экспресс-кредит (на приобретение продукции у ЧПCУП АконитПлюс)(срок 18 месяцев)(ЦБУ №408 г.Кобрин), [2101823 BYN] Экспресс-кредит (на приобретение товаров (услуг) у ИП Тальковская О.А. (срок 4 месяца) (ЦБУ №228 г.Лида), [2101951 BYN] Экспресс-кредит (на приобретение продукции у ЧТУП Студия мебели Дом5) (срок 18 месяцев) (ЦБУ №305 г.Жлобин), [2104227 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(10 месяцев)(ЦБУ №203 г.Волковыск), [2104229 BYN] Экспресс-кредит (на приобретение товаров/услуг ЧТУП ВиалгоТрейд)(12 месяцев)(ЦБУ №203 г.Волковыск), [2104180 BYN] Экспресс-кредит (на приобретение услуг ИП Бердник А.В.)(срок 12 месяцев)(Гоперу), [2104130 BYN] Экспресс-кредит (на приобретение услуг ИП Сыч А.А.)(срок 9 месяцев)(Дирекция по Гродненской области), [2104100 BYN] Экспресс-кредит (на приобретение товаров у ООО Торговая система) (срок 12 месяцев) (ЦБУ № 405 г.Барановичи)</t>
+  </si>
+  <si>
+    <t>нет, есть</t>
   </si>
   <si>
     <t>[-549.81;600000.0]</t>
   </si>
   <si>
-    <t>1, 2, более 2-х</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Витебскоблводоканал",  БГУ,  БЕЛОРУС ФЕД ЛЕГК АТЛЕТ ,  БЕЛОРУСНЕФТЬ-МИНСКАВТОЗАПРАВКА;Ж;нет информации;0;739-900-538;ГОЛОБУРДО СВЕТЛАНА СВЕТОСЛАВОВНА;\n-;-;-;невоеннообязанный;-;-;есть;высшее;работник;специалист;25;1078,82;женат/замужем;есть;нет;нет;Минск;Город;K_ФИНАНСОВАЯ И СТРАХОВАЯ ДЕЯТЕЛЬНОСТЬ;РБ;05/04/2017;22/03/1967;есть;-;3;3;0;-;6,38;есть;10;100,39;Прекращение договора исполнением;15890,00;20/03/2022;-;[2101085 BYN] Кредит Прокачай свой кредит;нет;7000,00;более 2-х;ЦБУ № 537 ОАО Белинвестбанк",  БРЕСТСКИЕ ЭЛЕКТРИЧЕСКИЕ СЕТИ;Ж;работающий по найму;0;739-400;КОЗЛОВСКАЯ ВАЛЕНТИНА ЯКОВЛЕВНА;\n-;-;-;уволен в запас;1;-;есть;среднее специальное;не имеет отношения;индивидуальный предприниматель;3;22800,73;женат/замужем;есть;нет;нет;Витебск;Город;S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ;РБ;25/02/2020;16/12/1982;нет;0;2;4;4;7;19,00;есть;15;100,11;Прекращение договора исполнением;46800,00;20/01/2025;-;[2101503 BYN] Личный выбор (БПК);нет;15000,00;более 2-х;Индивидуальный предприниматель;М;индивидуальный предприниматель;16;739-600;КОНОНОВ АЛЕКСАНДР ТИМОФЕЕВИЧ;\n-;-;-;невоеннообязанный;1;-;нет;высшее;не имеет отношения;специалист;1;1435,99;женат/замужем;нет;нет;нет;Кобрин;Город;S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ;РБ;24/02/2020;20/06/1990;есть;0;2;0;0;0;5,00;есть;8;19,01;Прекращение договора исполнением;984,00;20/01/2025;-;[2101503 BYN] Личный выбор (БПК);нет;10000,00;нет информации;ОВД Кобринского РИК;Ж;работающий по найму;0;739-400;КОПТЯЕВА ОЛЬГА АНАТОЛЬЕВНА;\n29/02/2004;-;-;уволен в запас;1;-;нет;высшее;не имеет отношения;специалист;1;786,76;женат/замужем;нет;нет;нет;Минск;Город;S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ;РБ;25/02/2020;15/05/1980;есть;1;0;1;3;3;4,00;есть;5;98,89;Прекращение договора исполнением;0,00;20/01/2025;-;[2101503 BYN] Личный выбор (БПК);нет;3500,00;нет информации;ИНТЕР-ФРЕЙТ;М;работающий по найму;8;739-900;КОРЕНИК ВИТАЛИЙ ЛЕОНИДОВИЧ;\n06/03/1997;-;-;не отслужил;-;-;есть;среднее специальное;не имеет отношения;рабочий;1;1280,00;женат/замужем;есть;нет;нет;Кобрин;Город;F_СТРОИТЕЛЬСТВО;РБ;29/02/2020;15/12/1988;нет информации;-;-;-;-;-;-;нет информации;-;-;нет информации;-;20/01/2025;-;[2101503 BYN] Личный выбор (БПК);нет;16000,00;нет информации;ООО ПРОДОМ;М;работающий по найму;0;739-400;КОРЗЮК ВИТАЛИЙ ИГОРЕВИЧ;\n01/03/1997;-;-;невоеннообязанный;2;-;нет;среднее;не имеет отношения;рабочий;10;961,33;женат/замужем;нет;нет;есть;Минск;Город;F_СТРОИТЕЛЬСТВО;РБ;24/02/2020;09/02/1982;есть;1;2;1;4;2;3,00;есть;14;109,17;Прекращение договора исполнением;5800,00;20/01/2025;-;[2101503 BYN] Личный выбор (БПК);нет;6800,00;более 2-х;УМСР № 154 ОАО МАПИД",  БРЕСТСКИЕ ЭЛЕКТРИЧЕСКИЕ СЕТИ;М;работающий по найму;0;739-400;ЛУКЬЯНЮК ВИКТОР ИВАНОВИЧ;\n16/07/2006;-;-;невоеннообязанный;2;-;есть;высшее;не имеет отношения;специалист;6;716,93;женат/замужем;нет;нет;нет;Гродно;Город;Q_ЗДРАВООХРАНЕНИЕ И СОЦИАЛЬНЫЕ УСЛУГИ;РБ;13/07/2018;07/12/1977;нет информации;-;-;-;-;-;-;нет информации;-;-;нет информации;-;20/06/2023;-;[2101503 BYN] Личный выбор (БПК);нет;2500,00;более 2-х;Ч П ЗУБНОЙ ЛЕКАРЬ",  Бобруйский родильный дом,  Борисовхлебпром,  ВОЕНСЕРВИСГ.МОЛОДЕЧНО,  ГП Минсктранс,  ЗАО ВИТЕБСКАГРОПРОДУКТ",  КОНТЕ СПАООО,  МЯСОКОМБИНАТ СЛАВЯНСКИЙ,  ОАО ВИТЕБСКОБЛАВТОТРАНС",  ООО НОВЫЕ ТЕХН И ПРОДУКТЫ",  РГОО БООР",  РЕМАВ-Р ФРУ-ГО РАЙОНА Г.МИНСКА ,  РУП БРТПЦ",  РУЭСП ДНЕПРОБУГВОДПУТЬ",  Твое белье,  УП БЕЛМЕДТЕХНИКА",  магазин евроопт, "000Спецмостстрой", \2-Я ЦЕНТРАЛЬНАЯ РАЙОННАЯ ПОЛИКЛИНИКА ФРУН-ГО Р-НА Г. МИНСКА ", "25-Я ЦЕНТРАЛЬНАЯ РАЙОННАЯ ПОЛИКЛИНИКА МОСКОВСКОГО РАЙОНА Г.МИНСКА", "БЕЛТЭН ЗАО", "ГранвияСтрой", "РЕДАКЦИЯ ГАЗЕТЫ НАСТАУНИЦКАЯ ГАЗЕТА", "РУНАК УП", "ТЕХИНТЕРТОРГ 55 ООО", (Г. ВИТЕБСКА)ДЕПАРТАМЕНТ ОХРАНЫ, (ИП Самец М. М.)  УНП 191750040, (ФИЛИАЛ №1 ИП "МЮНИКС" ООО), ) КСУП "Самотевичи агро, ) ОАО "Наднёман", ) ООО ?Тут бай медиа?, ) Учреждение образования "Белорусский государственный медицинский колледж, ) ЧТУП Гриффиндор, )Борисовский опытный лесхоз, )Верхнедвинское райпо, )ГУ "РНПЦ психического здоровья", )ГУО Селецкий УПК ДС-СШ Мстиславского Района, )ГУПП Берёзовского ЖКХ, )Дрибинский райисполком., )Иностранное унитарное предприятие "БелВиллесден", )К У П Копыльскае  ЖКХ, )КСПУП Политотделец агро, )ОАО "Гроднопромстрой", )ОАО Белшина., )ОАО"Велес-Мит" , )ОАО"УКХ"Белкоммунмаш", )ООО ?Форс Бэт, )ООО Евроторг, )ООО" Милайнтранс", )ООО?Строймонтажэнергосети?, )Отдел идеологической работы  культуры и по делам молодёжи Борисовского районного исполнительного комитета, )РУП "Белгеодезия", )РУП "Белмедпрепараты", )Сервисное дочернее унитарное предприятие"Гостиничный комплекс "Турист"", )УВД Гомельского исполнительного комитета, )УВД Гродненского облисполкома, )Учреждение здравоохранения "Оршанская стоматологическая поликлиника", )ЧТУП ИОНТАН, )оао Щучинский завод автопровод, )филиал "Бумажная фабрика" Красная звезда"ОАО" Светлогорский ЦКК, *ИНДИВИДУАЛЬНЫЙ ПРЕДПРИНИМАТЕЛЬ*, *ФИЛИАЛ ЗАО "ЮНИФУД"*, - ОАО "КРИСТАЛЛ-ХОЛДИНГ", ---, -192150351, -192448941, -200438984, -290274146, -290735433, -290930950, -291260848, -291382482, -390081144, -390192865, -390360592, -391191307, -391271656, -391399975, -391687709, -391691531, -391807192, -400111875, -490105851, -490389227, -490883188, -490889821, -491098925, -491232955, -491301548, -491358500, -491366367, -590188359, -590869441, -590876416, -590912867, -591240499, -591500602, -591506256, -690387640, -690490707, -691308226, -691567183, -691867718, -790088647, -790705881, -790723867, -790837604, -790869906, -790883585, -790970510, -РУП Брестский ЛВЗ "БЕЛАЛКО", -СООО"ЦСП БЗС, -ФИЛИАЛ  МОЗЫРСКИЙ ХЛЕБОЗАВОД;Ж;работающий по найму;0;739-300;ЕМЕЛЬЯНОВА ТАТЬЯНА АЛЕКСАНДРОВНА;\n04/09/1998;-;-;невоеннообязанный;1;-;есть;высшее;не имеет отношения;руководитель;10;1428,43;разведен/разведена;есть;нет;нет;Светлогорск;Город;G_ОПТОВАЯ И РОЗНИ, -ФИЛИАЛ ВОЕНСЕРВИС", ., . Копыльский опытный лесхоз, . МЧС РБ, . Минский Завод Безалкогольных Напитков, . ОАО "Витебскмясомолпром" (900 р.)   ИП Горенков Павел Игоревич (3600 р.), . ОАО"Элема, . ООО "Ойкодомос", . ООО Арсобетон, . Ооо "Райзинг", . УО "Минский государственный ПТК полиграфии, . Школа 194, ."ОАО"МТЗ, .АСТНОЙ ЦОР ПО ВОДНЫМ ВИДАМ СПОРТА, .Аппарат Совета Министров Республики Беларусь, .БелКредо, .Белорусский государственный ветеринарный центр, .Быховский РОО, .ГПЛ 9, .ГУ "Логойская КСДЮШОР"-, .ГУЗ "Городская поликлиника 5 г. Гродно", .ИООО Вюрт Бел, .КСУП"АГРО-ХОДОРОВЦЫ", .Мозырский райжилкомхоз., .ОАО "Беларуськалий", .ОАО "Звонка" агр.Карацк, .ОАО Заславльстройиндустрия, .ОАО МАЗ, .ОАО Стройтрест номер 1 су-4, .ООО "ПрофВитЮр", .ООО БелВиллесден, .ООО Стар Нью Фуд, .ООО Тигер, .ООО дп логистикс, .ООО" Остин Бел", .ООО"КАМДЭН", .Оптово-логистический центр С-Видео, .РУП "Белоруснефть-Минскавтозаправка", .РУП Завод газетной бумаги, .РУП"ГОМЕЛЬСКОЕ ОТДЕЛЕНИЕ БЕЛОРУССКОЙ ЖЕЛЕЗНОЙ ДОРОГИ" ГОМЕЛЬСКАЯ ДИСТАНЦИЯ ПУТИ, .Торговый дом "Лагуна", .УЗ "Житковичская ЦРБ"-Туровская ГБ, .ЭРЦОПКС иК (республикий центр олемпискай подготовки конного спорта и коневодства), .в/ч04147, /ООО Ремавтоснап, 000 "АРТЛЕКС", 000 "Автолайтэкспресс", 000 "ГЭС", 000 "ЕВРОВЕНТФИЛЬТР", 000 "ЛАИЛИК", 000 "Машиностроительное предприятие " КОМПО" ", 000 "РАБОТЭКС", 000 "СТИМ", 000 "Санта Ритейл", 000 "ТАБАК-ИНВЕСТ", 000 Акавамарин-фитнес, 0А0 ТБЗ "Усяж", 1 АВТОБУСНЫЙ ПАРК, 1 АЯ МИНСКАЯ ПТИЦЕФАБРИКА, 1 ВГО Погранслужбы РБ, 1 Военный гопиталь пограничной службы города Поставы, 1 Военный госпиталь, 1 Военный госпиталь ОПС РБ, 1 РТЦ ВЧ 25 887, 1 гкб, 1 городская клиническая больница, 1 й ВОЕННЫЙ ГОСПИТАЛЬ г. ПОСТАВЫ, 1 торговая ЛОГИСТИЧЕСКАЯ КОм-я, 1) ООО "Металлстройпрофиль, 1) ООО"Валиос"  2) ООО СУ №1 Белбуд, 1- ая Минская птицефабрика, 1-АЯ ГДП, 1-АЯ МИНСКАЯ ПТИЦЕФАБРИКА, 1-Е ГОМ  ЦОВД Г.ГОМЕЛЯ, 1-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 1-Я КЛИНИЧЕСКАЯ БОЛЬНИЦА, 1-Я МИНСКАЯ ПТИЦЕФАБРИКА, 1-Я ЦЕНТРАЛЬНАЯ РАЙОННАЯ КЛИНИЧЕСКАЯ ПОЛИКЛИНИКА ЦЕНТРАЛЬНОГО РАЙОНА Г.МИНСКА, 1-ая Минская птицефабрика, 1-ая Центральная полликлинника, 1-е ГКБ г. Минск отделение анстезиологии, 1-я Клиническая больница, 1-я Поликлиника г.Новополоцка, 1-я гор.детск.п-ка, 1-я подстанция УЗ "ГССМП", 1. РУП "Белэнергострой" филиал "Управление строительством "Белорусской АЭС", 1.минский моторный завод, 10 ГКБ, 10 ГКБ г Минска, 10 ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 10 Городская клиническая больница, 10 ДС ООСиТ, 10 УНР, 10 Управление начальника работ, 10 больница, 10 городская клиническая больница, 10 клиническая больница, 10-Я  ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА Г.МИНСКА, 10-Я ГОРОДСКАЯ ПОЛИКЛИНИКА, 10-я  Городская Клиническая Больница г. Минска, 10-я ГКБ, 10-я больница, 10-я поликлиника, 1000 МЕЛОЧЕЙ, 103 ОВДБР, 103 бригада, 1068 ПРОДОВОЛЬСТВЕННАЯ БАЗА, 1068 Продовольственная база, 1068 продовольственная база, 10я городская клиническая больница, 10я городская клиническая больница г.Минск, 11 ГП, 11 Десткая Поликлиника, 11 УЧТП АГЕНСТВО АНВ, 11-Я ГОР КЛИН БОЛЬНИЦА, 11-Я ГОРОДСКАЯ БОЛЬНИЦА, 11-я городская поликлиника, 114 ШКОЛА ПО ПОДГОТОВКЕ ПРАПОРЩИКОВ, 114 ШПП Г. БОРИСОВ, 114 ШПП Г. БОРИСОВ. В/часть №20193, 114 гв школа по подгот прапорщиков, 114 гв. ШПП и СПС, 114 гв. школа прапорщиков, 114 гвардейская школа, 115 КОНТАКТ ЦЕНТР ЖКХ, 115 военное представительство МО, 119 СТРОЙТРЕС №1, 12 ПОГЗ котельня Боярская, 12 городская поликлиника, 120 ОМБР, 120 воинская часть, 120 омбр, 120-я ОМБР, 120-я отдельная механизированная бригада, 122, 122 УРМН, 13 городская детская поликлиника, 13-Я ГОР СТОМАТ ПОЛИКЛИНИКА, 13-Я ГОР СТОМАТОЛ-КАЯ ПОЛ-КА, 13-Я ДЕТСКАЯ ПОЛ-КА, 13-ая город.стоматологическая п-ка, 13-я городская детская поликлиник, 139 ЦЕНТР МЕТРОЛОГИЧ.ОБЕСПЕЧ-Я, 139 ЦМО, 139 цкентр метролог  обеспечения, 139 цмо, 14 ТРЕСТ СТУ 47, 14 ТРЕСТ СУ 165, 14-Я П-КА ПАРТИЗАНСКОГО Р-НА, 14-ая ЦРП, 14-й трест 165 управление г.Гомель, 140 ремонтный завод, 140-вой ремонтный завод  Борисов, 140-й Ремонтный завод, 15 ГОРОДСКАЯ ПОЛИКЛ-КА, 15 ГОРОДСКАЯ ПОЛИКЛИННИКА, 15 СТРЕСТ СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ 173, 15 городская детская поликлиника, 15 городская детская поликлиника г. Минска, 15 детская гор поликлиника, 15 поликлиника, 15-Я ДЕТСКАЯ П-КА, 16 ПОЛИКЛИНИКА, 16-Я ГДП, 16-Я ГОРОДСКАЯ ДЕТСКАЯ ПОЛИКЛИНИКА, 16-я детская поликлинника, 17 ГКП г. Минск, 17 ПОЛИКЛИННИКА, 17 городская детская клиническая поликлиника, 17- Й ТРЕСТ, 1700, 18 МУЗЫКАЛЬНАЯ ШКОЛА, 18 городская роликлиника, 19 ГОРОДСКАЯ ПЛИКЛИНИКА, 1ГКБ, 1гкб  кардиохирург, 1й военный госпиталь, 1я городская клиническая больница, 2  ЦРП, 2 -я городская больница + пенсионер, 2 Городская детская клиническая больница, 2 Клиническая больница, 2 РУ, 2 ЦЕНТР РАЙ ПОЛ ФРУНЗ Р-НА, 2 ЦРП, 2 ЦРП фрунзенского р-на, 2 городская детская клиническая больница, 2 городская клиническая больница, 2 городская клиническая больница г. Минска, 2 я городская клиническая больница, 2-Й ГОР. ПРОТИВОТУБ. ДИСПАНСЕР, 2-ОЙ ТРОЛЛЕЙБУСНЫЙ ПАРК, 2-Ой тралейбусный парк, 2-РУТТ Белоруснефть, 2-Я  ДЕТСКАЯ БОЛЬНИЦА, 2-Я БОЛЬНИЦА, 2-Я ГОР. ДЕТСКАЯ КЛИН. Б-ЦА, 2-Я ГОР. ДЕТСКАЯ КЛИН. БОЛЬНИЦА, 2-Я ГОРОДСКАЯ БОЛЬНИЦА, 2-Я ГОРОДСКАЯ ДЕТСКАЯ КБ, 2-Я ГОРОДСКАЯ ДЕТСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 2-Я КЛИНИЧЕСКАЯ БОЛЬНИЦА, 2-Я ЦРП, 2-Я ЦРП , 2-ая Городская поликлиника  филиал №2, 2-ая городская клиническая больница, 2-я "ЦРП", 2-я ГДКБ, 2-я город. дет клиническая б-ца, 2-я городская детская клин, 2-я городская клиническая больница, 2-я дет больница, 2-я поликлиника, 20  ЛПУ Г.Минска, 20-Я ГОРОДСКАЯ ПОЛИКЛИНИКА, 201 отделение ГФ по Гродненской обл. ОАО "Белинвестбанк", 21 ПОЛИКЛИНИКА Г МИНСКА, 21 СЪЕЗД КПСС КСУП, 21 ЦРП, 21 ЦРП Г МИНСКА, 21 век ООО"Трио Вист", 21 црп, 21-Я  ПОЛ-КА ЗАВОДСКОГО РАЙОНА, 21-Я ЦЕНТР. Р-Я  ПОЛ-КА, 21-Я ЦЕНТР.ПОЛ.ЗАВ.Р-НА  Г. МИНСКА, 21-Я ЦЕНТРАЛЬНАЯ РАЙОННАЯ  ПОЛ, 21-Я ЦРП ЗАВ. РАЙОНА  Г. МИНСКА, 21-ая поликлиника, 21-ая поликлинника, 21-я поликлиника Заводского района, 2101676BYN-388214одского района г.Минска, 22 ДЕТСКАЯ ПОЛ-КА, 22 взрослая поликлиника, 22 городская Поликлиника г. Минск, 22 городская детская поликлиника, 220 КУХНЯ-САДЫ Д/С №511, 23 ГОР. ДЕТСКАЯ ПОЛ-КА, 23 городская поликлиника, 23 средняя школа, 23-Я ГП, 23-я детская поликлинника, 230 ОБЩЕВОЙСКОВОЙ ПОЛИГОН, 230 общевосковый полегоен, 230-й общевойсковой полегон, 2333 База хранения вещ. имущ., 2336 БАЗА ХРАНЕНИЯ ВЕЩ. ИМУЩЕСТВА, 2336 БВХИ, 2336 БХВИ, 2336 База хранения вещ имущ, 25 АРСЕНАЛ ВЧ-25819, 25 ПОЛИКЛИННИКА, 25 городская детская поликлиника г.Миска, 25-Z ГДП, 25-Я ЦДР ПОЛИКЛИНИКА;Ж;работающий по найму;0;739-900;МИНОВИЧ ОЛЬГА ВЛАДИМИРОВНА;\n-;-;-;уволен в запас;-;-;есть;среднее;не имеет отношения;рабочий;9;633,45;разведен/разведена;есть;нет;нет;Волковыск;Город;F_СТРОИТЕЛЬСТВО;РБ;17/01/2019;23/02/1963;нет;0;1;0;0;0;4,00;есть;2;0,00;;2000,00;20/12/2023;-;[2101503 BYN] Личный выбор (БПК);нет;2000,00;нет информации;ВОЛКОВЫССКОЕ ОАО СМТ №32", 25-Я ЦРП МОСК Р-НА Г.МИНСКА;Ж;работающий по найму;0;739-900-538;ЛОМАКО МАРИЯ ФАРИДОВНА;\n02/08/1998;-;-;невоеннообязанный;1;-;есть;высшее;не имеет отношения;руководитель;1;624,42;женат/замужем;есть;нет;нет;Мозырь;Город;S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ;РБ;28/07/2017;17/01/1979;есть;1;-;0;-;-;2,94;есть;8;72,98;Прекращение договора исполнением;-;20/06/2021;-;[2101501 BYN] Личный выбор (наличными);нет;8600,00;1;ИП;Ж;индивидуальный предприниматель;0;739-300;ЛУКОМСКАЯ ВЕРОНИКА ВЛАДИМИРОВНА;\n-;-;-;невоеннообязанный;-;-;есть;среднее;не имеет отношения;рабочий;1;311,44;женат/замужем;нет;есть;нет;Старое Село;Деревня;Q_ЗДРАВООХРАНЕНИЕ И СОЦИАЛЬНЫЕ УСЛУГИ;РБ;22/07/2017;10/03/1963;есть;-;1;0;-;-;3,01;есть;4;24,11;Прекращение договора исполнением;110,00;20/06/2021;-;[2101501 BYN] Личный выбор (наличными);нет;1500,00;более 2-х;УПСАНАТОРИЙ "ЛЁТЦЫ", 25-Я ЦРП МОСК Р-НА Г.МИНСКА;Ж;работающий по найму;0;739-900;ЛОМАКО МАРИЯ ФАРИДОВНА;\n-;-;-;невоеннообязанный;1;-;есть;среднее специальное;не имеет отношения;рабочий;25;484,06;женат/замужем;есть;нет;нет;Бобруйск;Город;14_ПРОИЗВОДСТВО ОДЕЖДЫ;РБ;17/06/2019;07/02/1975;есть;0;3;0;5;4;19,00;есть;18;54,46;Прекращение договора исполнением;6398,70;20/01/2030;-;[2101020 BYN] Кредит Всегда под рукой;нет;1300,00;более 2-х;ОАО Славянка;Ж;работающий по найму;3;739-800-831;МАЗУРЕНКО АННА ВЯЧЕСЛАВОВНА;\n-;-;-;уволен в запас;2;-;есть;высшее;не имеет отношения;специалист;4;320,28;женат/замужем;нет;нет;нет;Могилев;Город;S_ПРЕДОСТАВЛЕНИЕ ПРОЧИХ ВИДОВ УСЛУГ;РБ;17/06/2019;17/05/1982;есть;0;0;1;0;0;2,00;есть;3;94,79;Прекращение договора исполнением;0,00;20/04/2042;-;[2101020 BYN] Кредит Всегда под рукой;нет;4200,00;1;ЧТУП КЭМИОН;М;работающий по найму;0;739-800;МАЛАХОВ ДЕНИС НИКОЛАЕВИЧ;\n-;-;-;невоеннообязанный;1;-;есть;высшее;не имеет отношения;специалист;5;897,44;разведен/разведена;есть;нет;нет;Барановичи;Город;P_ОБРАЗОВАНИЕ;РБ;19/06/2019;25/09/1981;есть;0;3;3;3;1;19,00;есть;11;35,26;Прекращение договора исполнением;16239,30;20/08/2036;-;[2101020 BYN] Кредит Всегда под рукой;нет;8690,00;1;ОТДЕЛ ОБР-Я БАР. РАЙИСПОЛКОМА;Ж;работающий по найму;0;739-400;МАЛАШ ЛЮДМИЛА МИХАЙЛОВНА;\n-;-;-;уволен в запас;1;-;есть;среднее специальное;не имеет отношения;специалист;8;1067,91;женат/замужем;есть;нет;нет;Витебск;Город;Q_ЗДРАВООХРАНЕНИЕ И СОЦИАЛЬНЫЕ УСЛУГИ;РБ;18/06/2019;15/09/1985;нет информации;-;-;-;-;-;-;нет информации;-;-;нет информации;-;20/08/2040;-;[2101020 BYN] Кредит Всегда под рукой;нет;7000,00;более 2-х;ОНКОДИСПАНСЕР;Ж;работающий по найму;0;739-600;МАЛИНИНА АНАСТАСИЯ ВАСИЛЬЕВНА;\n-;-;-;военнослужащий;1;-;есть;высшее;не имеет отношения;государственный служащий;2;1828,24;женат/замужем;есть;нет;нет;Гродно;Город;O_ГОСУДАРСТВЕННОЕ УПРАВЛЕНИЕ;РБ;17/06/2019;12/06/1982;есть;1;3;2;12;6;19,00;есть;8;57,64;Прекращение договора исполнением;14965,60;20/05/2042;-;[2101020 BYN] Кредит Всегда под рукой;нет;2000,00;нет информации;УВД ГРОДНЕНСКОГО ОБЛИСПОЛКОМА;М;служащий;0;739-200;МАРТИНОВИЧ ПАВЕЛ МИХАЙЛОВИЧ;\n-;-;-;невоеннообязанный;1;-;нет;среднее специальное;не имеет отношения;государственный служащий;1;550,00;женат/замужем;нет;нет;нет;Гродно;Город;G_ОПТОВАЯ И РОЗНИЧНАЯ ТОРГОВЛЯ РЕМОНТ АВТОМОБИЛЕЙ И МОТОЦИКЛОВ;РБ;17/06/2019;11/09/1975;есть;0;2;2;3;0;11,00;есть;11;58,16;Прекращение договора исполнением;10222,84;20/08/2030;22/04/2020;[2101020 BYN] Кредит Всегда под рукой;нет;1800,00;1;ООО Евроторг", 25-ый детский сад, 25-я ком. кит. кор.по ж/д стр-ву, 25-я п-ка, 25-я центральная районная поликлиника Московского района г. Минска, 2566 ЗРРВ, 26 поликлинника, 26-Я ГОРОДСКАЯ ПОЛИКЛИНИКА, 26-Я ПОЛИКЛИНИА, 2631АБРВИБ, 28-я городская поликлиника, 29 пол-ка, 2Ветковская РОС РГООБООР", 3 ГОР. КЛИНИЧЕСКАЯ Б-ЦА, 3 ГТБ, 3 Городская Клиническая Больница, 3 УСБ В/Ч 7404, 3 гор.клиническая Больница, 3 детская клиническая больница, 3-Й ТРОЛЛ.ПАРК, 3-Я ДЕТСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 3-ая ГКБ им. Клумова, 3-ая городская детская больница, 3-я ГКБ, 3-я Гордская клиническая больница, 3-я Городская Клиническая больница имени Е. В. Клумова, 3-я Детская клиническая городская поликлиника, 3-я ЦРКП, 3-я городская детская клиническая больница, 3-я городская детская клиническая поликлиника, 3-я городская клиническая больница им. Е.В. Клумова, 3-я детская больница, 3-я детская поликлиника, 30 отдельная железнодорожная бригада, 30-Я ГКП, 31-Я ГОРОДСКАЯ ПОЛИКЛИНИКА, 32 Городская клиническая поликлиника, 33 ГОРОДСКАЯ СТУДЕНЧЕСКАЯ ПОЛИКЛИНИКА, 33-городская поликлиника г. Минска, 33-я Городская студенческая пол-а, 34 ЦРКП, 34 центральная районная клиническая поликлиника, 35 ТРЕСТ 199 управление, 35 ТРЕСТ 201 упр, 35 Я ГКБ, 35 трест 199 управление, 3540 ПРОДОВОЛЬСТВЕННАЯ БАЗА ПАВЛИНОВО, 36 детский сад, 361БАЗА ОХРАННЫ ОБСЛУЖИВАНИЯ, 38 ПОЛИКЛИННИКА, 38 гор.поликлин ООО ТрансЭнергаОйл, 38 городская поликлиника, 38-я ГВ ОДШБр В\\Ч92616 г.Бреста, 3АО СИВЕЛЬГА, 3Й АВТОКОМБИНАТ, 3МИФИНШСТРОЙ, 3Я ЦЕНТР. РАЙ.КЛИН.ПОЛИКЛИННИКА, 3ао АСБ Агро Тетерино, 4 БОЛЬНИЦА ИМ.Н.Е.САВЧЕНКО, 4 ГДКБ, 4 ГКБ, 4 ГКБ  9 ГКБ, 4 ГКБ ИМ.Н.Е.САВЧЕНКО, 4 ГСКП, 4 КГБ, 4 ая городская клиничесукая больница, 4 больница, 4 городская детская клиническая поликлиника, 4 городская детская поликлинника, 4 городская клин. больница, 4 городская клиническая больница, 4 детская больница, 4 детская поликлиника, 4 клиническая больница, 4 отделение РУПС Белпочта, 4-ГКБ имени А.Савченко, 4-Я Б-ЦА, 4-Я БОЛЬНИЦА, 4-Я ГК БОЛЬНИЦА ИМ.Н.Е.САВЧЕНКО, 4-Я ГКБ ИМ.Н.Е.САВЧЕНКО, 4-Я ГКБОЛЬНИЦА ИМ.Н.Е.САВЧЕНКО, 4-Я ГОР  ДЕТ КЛИН ПОЛИКЛИНИКА, 4-Я ГОР ДЕТ КЛ ПОЛИКЛИНИКА, 4-Я ГОР ДЕТ КЛИН ПОЛИКЛИНИКА, 4-Я ГОР КЛИН БОЛЬН ИМ.Н.Е.САВЧЕНКО, 4-Я ГОР КЛИН БОЛЬНИЦА, 4-Я ГОР. ДЕТ. ПОЛИК-КА, 4-Я ГОР. КБ ИМ.Н.Е.САВЧЕНКО, 4-Я ГОР. КЛИНИЧЕСКАЯ БОЛЬНИЦА, 4-Я ГОРОДСКАЯ ДЕТСКАЯ КЛИНИЧЕСКАЯ ПОЛИКЛИНИКА, 4-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛ, 4-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 4-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА ИМ.Н.Е.САВЧЕНКО, 4-ая ГДКП, 4-ая ДЕТСКАЯ  БОЛЬНИЦА, 4-ая больница, 4-я ГКБ, 4-я ГКБ ИМ.САВЧЕНКО, 4-я ГКБ им. Савченко, 4-я Город. клин. больница, 4-я Городская Клиническая Больница, 4-я б-ца, 4-я больница, 4-я гкб, 4-я город.детск.полик-ка, 4-я городская клиническая больница им. Н.Е. Савченко, 40047, 40я клиническая городская поликлиника, 41 отделение связи, 432 ГВК МЦ, 432 ГВКМЦ, 432 ГВКМЦ МО РБ, 432 Главный Военный Клинический Медицинский центр, 432 Главный военный клинический медицинский центр, 432 военный госпиталь, 432 гвамц, 432 гвкмц, 432- Главный военный клинический медицинский центр вооруженных сил республики Беларусь, 5 ГДКБ, 5 ГДП, 5 ГКБ, 5 ГКБ Г МИНСК, 5 ГКБ г Минска, 5 ГКБ г.Минска, 5 Городская клиничиская больница г.Минска, 5 КЛИНИЧЕСКАЯ БОЛЬНИЦА, 5 ЧСК ПЕРВОМАЙСКОГО Р Н, 5 Элемент, 5 автобусный парк, 5 гкп г.Минска, 5 гор клини больница г. Минска, 5 городская клиническая больница, 5 городская клиническая больница г. Минска, 5 элемент, 5 элемент "Зао патио", 5-Я ГК ПОЛИКЛИНИКА, 5-Я ГКБ, 5-Я ГКБ Г.МИНСКА, 5-Я ГКП, 5-Я ГОР КЛИН БОЛЬНИЦА, 5-Я ГОР КЛИН ПОЛИКЛИНИКА, 5-Я ГОР. КЛИНИЧЕСКАЯ БОЛЬНИЦА, 5-Я ГОР. КЛИНИЧЕСКАЯ ПОЛИКЛИНИКА, 5-Я ГОР.КЛИНИЧЕСКАЯ БОЛЬНИЦА, 5-Я ГОРОД.КЛИН.БОЛЬНИЦА, 5-Я ГОРОДСКАЯ  ПОЛИКЛИНИКА, 5-Я ГОРОДСКАЯ БОЛЬНИЦА, 5-Я ГОРОДСКАЯ ДЕТСКАЯ ПОЛИКЛИНИКА, 5-Я ГОРОДСКАЯ КЛИН ПОЛ-КА, 5-Я ГОРОДСКАЯ КЛИНИЧ БОЛЬНИЦА, 5-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ, 5-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 5-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ ПОЛИКЛИНИКА, 5-Я ГорКлинБольница г.Минска, 5-ая ГКБ, 5-ая ГКБ Г.МИНСКА, 5-ая ГКП, 5-ая больница, 5-ая городская стоматологическая поликлиника, 5-я ГКБ, 5-я ГКБ г.Минска, 5-я Гор. клинич. больница г.Минска, 5-я Городская Клиническая больница, 5-я гк больница г.Минска, 5-я гкб г.Минска, 5-я гор. клинич. б-ца г.Минска, 5-я гор. клинич. больница г.Минска, 5-я гор. клиническая больница, 5-я гор.клинич. больница г.Минска, 5-я гор.клинич.больница г.Минска, 5-я городская  клин. больница, 5-я городская клинич. больница, 5-я городская клиническая больница, 5-я городская клиническая больница г. Минска, 5-я городская поликлиника", 5-я клиническая больница, 5-я отдельная бригада специального назначения, 50-я Смешанная Авиационная база, 558 АВИАЦ. РЕМОНТНЫЙ ЗАВОД, 558 АРЗ, 57 школа г.Гомеля, 591284489, 5ГКБ, 5гкб, 6 ГКБ, 6 ГКБ Клиническая больница, 6 ГОР.КЛИНИЧЕСКАЯ БОЛЬНИЦА, 6 Городская клиническая больница, 6 автобусный парк, 6 городская больница, 6 городская клиническая больница, 6 городская клиническая больница г. Минска, 6 поликлиника г.Минска, 6-ОЕ (по Брест.обл) УПРАВЛ.ГУБОПиК, 6-Я ГКБ, 6-Я ПОЛИКЛИНИКА Г.МИНСКА, 6-Я ЦЕНТР РАЙОННАЯ ПОЛ-КА, 6-Я ЦЕНТР.РАЙОН.ПОЛИКЛИНИКА, 6-ая ГКБ, 6-ая ГКП, 6-городская поликлиника, 6-ое упр.(по Бр. обл.)ГУБОПиК, 6-управ ГУБОПиК МВД РБ, 6-я ГКБ, 6-я ЦРКП, 6-я ЦРКП Ленинского района, 62 дет сад, 62-ой центральный узел связи министерство обороны, 6ая ГКБ, 6ая городская клиническая  больница, 7  ГОР СТОМ БОЛЬНИЦА, 7 ТРЕСТ СУ-711, 7 городская поликлиника, 7 стом поликлиника, 7-Е УПР.ВИТ.ОБЛ. ГУБОПиК МВД РБ, 7-Я ГОР СТОМАТОЛОГИЧ. ПОЛ-КА, 7-Я ГОР-Я СТОМ-АЯ ПОЛ-КА, 7-Я ГОРОДСКАЯ СП, 7-Я ГОРОДСКАЯ СТОМАТО, 7-Я ГСП, 7-е Упр. (по Вит обл.) ГУБОБ и К, 72-й объединённый учебный центр войсковая чсть 43-64, 77 ШКОЛА, 7гдп, 8 ГОР.ПОЛИКЛИНИКА, 8 МАРТА, 8 МАРТА", 8 ПОЛИКЛИНИКА, 8 УПРАВЛЕНИЕ ГУБОПиК МВД РБ, 8 УПРАВЛЕНИЕ МВД РБ, 8 УПРАВЛЕНИЯ ДО, 8 городская поликлиника, 8 марта, 8 отделение МВД, 8-Я ГДП СТОМАТОЛОГИЯ, 8-ая ГДП, 8-ая Городская Клиническая Стоматогическая поликлиника, 8-ая городская детская поликл-ка, 8-ая городская детская поликлиника, 8-я гор. поликлиника, 8-я городская детская клиническая поликлиника, 8-я городская клиническая стоматологическия поликлиника, 8-я городская поликлиника(УНП 190500268), 85 бригада связи г.Барановичи, 89417 воинская часть, 8е упр охрана дип, 9 ГКБ, 9 ГКБ ИМ. СЕМАШКО, 9 ГОРОДСКАЯ ПОЛИКЛИНИКА, 9 ГП, 9 Управление по гродненской обл МВД РБ, 9 гкб, 9 шк. г.Борисова, 9-АЯ ГОР. КЛИН. БОЛЬНИЦА, 9-АЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 9-Я Б-ЦА, 9-Я ГКБ, 9-Я ГКБ  ОАО "ЛУЧ" -, 9-Я ГОР КЛИН БОЛЬНИЦА, 9-Я ГОР КЛИНИЧЕСКАЯ БОЛЬНИЦА, 9-Я ГОР. КЛИНИЧЕСКАЯ БОЛЬНИЦА, 9-Я ГОРОДСКАЯ КБ, 9-Я ГОРОДСКАЯ КЛИН БОЛЬНИЦА, 9-Я ГОРОДСКАЯ КЛИН-Я БОЛЬНИЦА, 9-Я ГОРОДСКАЯ КЛИНИЧ БОЛЬНИЦА, 9-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА, 9-Я КЛИНИЧЕСКАЯ БОЛЬНИЦА, 9-Я СТОМОТОЛ-Я ПОЛИ-КА, 9-Я гкб, 9-ая б-ца, 9-я ГКБ, 92616, : ГУЗ"ГЦГП", : Государственное учреждение здравоохранения "Гомельская городская клиническая больница скорой медицинской помощи", ??Белоруснефть-Особино?, ??ОАО?? Азарэнне, ?Азс тех сервис?, ?Блицимидж?, ?Вельми Смачна?, ?Гомельстекло?, ?Гродносельпроект?, ?ИООО Экко Беларусь?, ?Компания по развитию индустриального парка?, ?Норел?, ?ОАО Мостовдрев?, ?ОАО? Белкард, ?ОАО? МЗКТ, ?ОАО? Новогородищенское, ?ООО Табак-Инвест?, ?ООО? Дакар Сервис, ?ООО? Модное Место., ?ООО? триовист, ?РНПЦ радиационной медицины и экологии человека?, ?Савит-Плюс Компани?, ?Управляющая компания холдинга ?Белорусская кожевенно-обувная компания ?Марко?, ?минский вагоноремонтный завод?, A-Л ПЕРЕД.МЕХАН.КОЛОННА №82, A1, ACTAVIS INT LTD(МАЛЬТА) В РБ, ACTAVIS INTERNATIONAL LIMITED, ALPINE CIS Holding GmbH (договор)(УНП 102391876), AO "UNIBEP SPOLKA AKCYJNA", AO "НИКИМТ-Фтомстрой", AO KRKA TOVARNA ZDRAVIL DD NOV MES, AO SKE EUROTRADE AB, AO UNIBEP SA, ARMTEK, Artox lab, Aslan Trans Fruit Sp.z o, Autolight express, Autolite expres, AБ"Тарасюк Игнатюк и партнеры", AЗОТРЕМСТРОЙ, AФ-Л ВОЛКОВЫССКИЕ ЭЛЕКТРОСЕТИ, B/X 52287, B/Ч 15738, B/Ч 92800, B/Ч92616, B2B Logistics, BELPOLBUT Sp.z o.o., British American Tobacco, C ООО Атлант, C000 "Лама-мебель", CCCООО "Волшебный Остров", CCМНП, CE-167 ОАО МОЗЫРЬПРОМСТРОЙ, COCA-COLA HBC, COO "Вкус Рыбы Плюс, COO "Перфект", COO \Этноград", COO Юнайт компани, COO"БЕЛВЕСТ", COOO "АРВИТФУД", COOO "Белвест", COOO "ВЗГЛЯД", COOO "ГЕЙМ СТРИМ", COOO "ДЕМАРШ", COOO "МТС", COOO "НЗТМ", COOO "Сервиcгарант-плюс", COOO "СинерджиКом", COOO "Техниксофт", COOO BRW Брест, COOO БЕЛОРУС. ОБЛАЧ. ТЕХНОЛОГИИ, COOO Белинтерпродукт, COOO ЗОВ-ПЛИТА, COOO ЛЛК- НАФТАН, COOO Лида-Балтия, COOO Могилеввнештранс, COOO ПП Полесье, COOO С-Тэнк, COOO ЧЕВЛЯР, COOO"ЭВИПАК ИНДАСТРИЗ", CTdev, California Trailer Spolka z ograniczona odpowiedzialnoscia, CВЕТЛОГОРСКИЙ РИК, CВИТАНАК, CД УП "ОРБИТА", CДЮШОР Ляховичского района, CДЮШОР ПО ФИГ КАТАНИЮ КОНЬКАХ, CДЮШОР ПО ФИГУРНОМ, CДЮШОР ПО ФИГУРНОМУ КАТАНИЮ, CДЮШОР ПО ФИГУРНОМУ КАТАНИЮ НА КОНЬКАХ, CДЮШОР ПО ФК, CДЮШОР ПО ФК   зеленстрой, CДЮШОР ПО ФК НА КОНЬКАХ, CДЮШОР ПРОФСОЮЗОВ "БЕРЕЗИНА", CДЮШР ГОМЕЛЬСКОГО РАЙОНА   АГР. НОВАЯ ГУТА, CЗАО  "Отико", CЗАО "Агрокомбинат"КОЛОС", CЗАО "Белатмит", CЗАО Агролинк, CИЗО №1 г. Минска, CОАО "Беловежские сыры", CОАО "ДИФА", CОАО Простормаркет, CОАО"Беловежские сыры", CООО "БЕЛКООПСТРАХ", CООО "БЛЭК РЭД УАЙТ", CООО "ВЗГЛЯД", CООО "Георгий и сыновья", CООО "Домико", CООО "Лумбер", CООО "Нативита", CООО "Николь Мореф", CООО "ПП Полесье", CООО "ПРИОРЛАЙФ"  ИП, CООО "СМУ Союзтелефонстрой", CООО "ТК "БЛЭК РЭД УАЙТ", CООО "ТРАНСЭКСПЕДИЦИЯ", CООО АптекарЪ-Центр, CООО БАЙДИМЭКС, CООО БЕЛ.ОБЛАЧНЫЕ ТЕХНОЛОГИИ, CООО Лумбер, CООО Марко, CООО НЕМАН-СПЛАВ, CООО ПП Полесье, CООО Снежко - Белпол, CООО ЭКСКЛЮЗИВ, CООО"Системные Технологии", CП "Мета-Бел" ООО, CП "Транзит" ООО, CП ОАО САНТРА БРЕМОР, CП Санта импекс Брест ООО, CПК ОЗЕРЫ, CПК"Гродненский", CРОЧС, CСУ19 строй трест 1, CСУ3 строй трест 1, CУ 19  ООО" стройтрест 1", CУ 243 ОАО "Гомельский ДСК", CУ 246 ОАО "МАПИД", CУ 25 филиал Минскпромстрой, CУ-123 г.Солигорска, CУ-19 ОАО СТРОЙТРЕСТ №1, CУ-246 ОАО "МАПИД", CУД Клецкого района, CУП "Гервяты ", CУП СОвхоз Коммунист, CФ Куб Витебск Облдорстрой, CХУ УП Минскоблгаз, CХФ Клецкий ОАО Слуцкий сыродельный комбинат, Cан Марко, Cанаторий "Энергетик", Cанта 81, Cвислочский РОЧС, Cлуцкое сдюшор, Cоюз бел еврей общ объед и общин, Cпец коммун транспорт, Cредня школа №3 г. Жабинка, Cредняя школа №2, Cтанция скорой помощи, Cтаролядненское ясли-сад базовая школа, Cтроительно-монтажный поезд 354, Cтроительный трест №14, Cтройтрест №3, Cуд Климовичского района, DANGER PIOTR CZAJKOWSKI, DSM Transport, Deilmann-haniel, "Dominos pizza", EG ПОЛОЦКИЙ ТЕХПРОЕКТ, EP Вит гор поликлиника №6, EPAM Sistems, EPAM Systems, EPAM Systems , EPAM СИСТЕМ, EYG 591130093, Epam, Ewpol group, EУЧ Могилевская областная ДЮСШ Профсоюза Торпеда, F.U.H. "TOMASZ PROKORYM", FIX PRICE, GEGПУП ГОМЕЛЬВТОРЧЕРМЕТ, GIFEST техника, GP Solutions, Godel Technologies Europe, Godel technologies europe , Green розница, H&amp;M, H.Abbe pharmo, HOOO "РН-Запад", HБ Республики Беларусь, HГООО ОСВОД, IBA  GROUP, IBA IT Park (Иностранное производственное унитарное предприятие ?АйБиЭй АйТи Парк?, Innowise Group (ООО Фабрика инноваций и решений), IntexSoft, JEWISH AGENCY FOR ISRAEL, JFJ "Гомсельмаш", JFJ `ТОРГОВЫЙ ДОМ `СОЖ`, JJJ "ЛАИЛИК", JYSK, JОАО ППРОХОНСКОЕ, JОтдел образованя Добрушского РИК, KFC, KFC РЕСТОРАН ООО КРЕАТИВФУДС-ВОСТОК, KFS, KjtЛоевская центральная районная библиотека, Kалинковичский мебельный ком, LC WIKIKI, LC Waikiki, LG ELECTRONIKS, LOgstar spilka Nip: PL7622000189, Legal.Advices, Light Well Organization (LWO), ME transportas, MILE, MOO SOS-ДЕТСКИЕ ДЕРЕВНИ, MS. Truck, Merkeleon e.U.  Австр. Респуб., Multi Parts Supply USA inc РБ, MГП "КИНОВИДЕОПРОКАТ", MГПТК  Ж/Д, MОГИЛЕВОБЛГАЗ, MЧЗ Луч, N 2 НА СТАНЦИИ ОСИПОВИЧИ ОАО ДОРСТРОЙМОНТАЖТРЕСТ, NYX Professional Makeup, Nature Салон Красоты И Здоровья ПТЧУП Колгари, OAO " МикФлора", OAO "Витебскоблавтотранс", OAO "Гродненский механический завод", OAO "МАПИТ" СУ205, OAO "Минскметропроект", OAO "Руденск", OAO "СГЦ Заречье", OAO "Электроаппаратура", OAO MЗШ, OAO Агропродукт, OAO БЗТДиА, OAO Бел Маркет, OAO Гомельстекло, OAO Грицкевичы, OAO КУРИТИЧИ, OAO Керамзитный завод, OAO МГК Припять, OAO МИНСКИЙ МОЛОЧНЫЙ ЗАВОД №1, OAO Миран, OAO Могилевхимволокно, OAO Мозырский НПЗ, OAO СП Амипак, OAO Санта Бремор, OAO СерволюксАгро, OAO Слуцкий льнозавод, OAO Смолевичи Бройлер, OAO Солигорский ДСК, OAO ТЕХНИКА СВЯЗИ, OAO Техника Связи г.Барань, OAO белаз, OAO дом быта магазин "ВИЗИТ", OAO савушкин продукт, OAO"Белвторчермет", OAO"Интеграл", OOO " Парфюм трейд" магазин " Мила", OOO "АдвантаСистем", OOO "БЕЛПОЛКАРД", OOO "БелТрансБус", OOO "Беловежский", OOO "Валшебный остров", OOO "ВысокоеСервис", OOO "ГЭСТАНтранс", OOO "ДОМИНОС ПИЦЦА", OOO "Дженси Спедишн", OOO "Дженти - Спедишн", OOO "Доктор время" Аптека №3, OOO "ЕВРОТОРГ", OOO "Евроторг", OOO "Евроторг" г.Бреста, OOO "ЗЕБРА ЛОГИСТИКС", OOO "Интерлого", OOO "Интерметторг", OOO "КЛАССИКСТРОЙКОМПЛЕКТ", OOO "КаргоТрансКонсалт", OOO "Кливер", OOO "Марко-сервис", OOO "НАНЕКС ПРО", OOO "НАТАДИМ", OOO "Палома Сервис", OOO "Палома сервис", OOO "ПаломаСервис", OOO "Песабелсервис", OOO "Санта Бремор", OOO "Сигналит-М", OOO "ТАЛНОС", OOO "ТОРГОВЫЙ ПОСАД", OOO "ФУТБЕРГ", OOO "ЭЛИНОВА", OOO "пАССАТ №2, OOO ?Юнайтед Компани?, OOO БЕЛИНТЕРПРОДУКТ, OOO БЕЛЦЕНТРСНАП, OOO БРИМАЛ  ОДО ЭНЕРГОКОНТАКТ, OOO БУГРИЭЛТ, OOO БЭСТРИТЭЙЛ, OOO БелИва, OOO Биз Партнёр, OOO БрестОблАвтотранс филлиал  Автомобильный парк 16, OOO ДИВИН ТЕХНО, OOO Евразия Лумбрикканс, OOO Евроторг, OOO Заславская кондитерская фабрика, OOO ИНФОЛАТ, OOO Иглклассиктранс, OOO КАВпак, OOO КРОНОХЕМ, OOO ЛАБОРАТОРИИ ИНВЕНТО, OOO Лайт Вел Организейшн, OOO МАРКО, OOO Манол вайсрусленд, OOO Метомакс, OOO Монлибон, OOO ОСЛЯБЯ, OOO ПАЛОМА СЕРВИС, OOO ПАЛОМА СЕРВИС г.Хойники ТО27, OOO ПРОФИСЕРВ, OOO Палома Сервис, OOO Поллигон МПК, OOO СЕРВИСГАРАНТ-ПЛЮС, OOO СКАЙВИНД ТЕК БАЙ, OOO СПАКОЙ-СПА, OOO Санта-Ритеил, OOO Сельвин, OOO Умикортранс, OOO ХЕЙЛО КИТЧЕНС, OOO Хозяйственные товары, OOO Чефи, OOO Электросталь, OOO ласт прогресс, OOO могилеввнештранс, OOO" ЕВРО ТОРГ", OOO" ЯНДЕКС БЕЛ", OOO"АВТОПРОМСЕРВЕС", OOO"Аупперле", OOO"БЕЛЭКОТЕХНИКА", OOO"Беловежский", OOO"ГОДЕЛ ТЕКНОЛОДЖИС ЮРОП", OOO"ИДЕЯ ДОМА", OOO"ТОРУ", OOO"Топгранула", OOO"Фаворитлес", OOO"Эксперементальная база Довск", OOOВитанд-сервис, OOО"АртСталь", OZ бай, OАO Щучинский завод Автопровод, OАО "ГСКБ ПО КОМП.ОБОР.МИК-ТА", OАО "Трест Шахтаспецстрой", OАО АСБ БЕЛАРУСБАНК, OАО парфюм логистик , OОО" Доминоспицца", PHARMACARE PLC(ГОС-ВО ПАЛ-НА), POL-RUS HR Sp.z o. o., Paf trans, PЗАСО"ПРомтрансинвест", PУП "Фармация", RAR LBfyf, REDPATH DEILMANN, REDPATH DEILMANN GMBH, REDPATH DEILMANN GmbH, REDPATH DEILMANN GmbH РБ, REG ЖКХ Г ПОЛОЦК, Redpath delmann gmbh, Rizzani de Eccher SPA, RomGil, RКСУП Добрынь, S-видео, SCHMITZ CARGOBULL, SIA "Latgales Alus D", SIA "Opti Transports" ст Латвия, SOS-ДЕТ ДЕР БОРОВЛЯНЫ, SOS-ДЕТСКАЯ ДЕРЕВНЯ БОРОВЛЯНЫ, SOS-ДЕТСКАЯ ДЕРЕВНЯ МОГИЛЕВ, SOS-ДЕТСКАЯ ДЕРЕВНЯ Могилев, STEPOVER GMBH, Silver Moon ТЦ столица, SkyWay  Струнные технологии., Soft coffee, TAKEDA OSTEUROPA HOLDING GMBH, TRANSIMEKSA, UAB "Atep-5 Logistics", UAB "HTR" - 1, UAB SAMARINA, UAB somlita, UNIBER.S.A., Usually-perfume Ltd, VRP Consulting, VRP клауд солюшенз, Velcom, Velmie, WORLD MEDICINE LIMITED, XЧ ТЕОРИЯ БЕЗОПАСНОСТИ, XЧСУП Максчтройкомплекс, Yellow Trans, _Гуо дошкольный центр развития ребенка г.Петрикова, `БЕЛИНВЕСТБАНК`, `Бел  общество глухих`, `Гомельобои`, `МОЗЫРСКИЙ РАЙЖИЛКОМХОЗ`, `Мозырский райжилкомхоз`, cАНТЕХГАЗМОНТАЖ" ОАО "МИНСК, cолигорский район Виктория агро, grill kebab, iTechart group, iTechart-group, ida technologies , mark formel, oao савушкин продукт, ooo "батат", oоo беллив, rкуп жкх 1 московского района г минска, rкуп минсктранс, uГУДО ЯСЛИ-САД № 50, wildberries.by, А-100 Комфорт, А/Г МЕЖИСЕТКИ, А/К ЮБИЛЕЙНЫЙ, А1, А1 УП, АБ "АДВОКАТ АЛЬЯНС", АБ "БИЗНЕС-АДВОКАТ", АБ "Горецкий и партнёры", АБ "МАСЛОВ  ГАШИНСКИЙ И ПАРТНЕРЫ", АБ "ОСИПОВА  КОЛТУНОВИЧ И П-Ы", АБ "ПЕТРАШЕВИЧ И ПАРТНЁРЫ", АБ "ПРАВО И СПОРТ", АБ "Степановский Папакуль и партн", АБ "Терра консалт", АБ "ЮрГрупп", АБ АДВОКАТ АЛЬЯНС, АБ ГОРЕЦКИЙ И ПАРТНЕРЫ, АБ Лев  Шестернёв и партнёры, АБ МОТОРС, АБ Офорд груп, АБ Свекловичная, АБ"Тарасюк  Игнатюк и партнеры", АБС Фарбин-Бел, АБСОЛЮТБАНК, АБФФ, АБФФ  Белорусская федерация футбола, АБФФ  ИП ЛОСЕВИЧ В.А., АВД Тракс, АВЕКТИС, АВИА Компания "ТрансАвиаэкспорт", АВИАЗАВОД, АВИАКОМПАНИЯ БЕЛАВИА, АВИАКОМПАНИЯ БЕЛАВИЯ, АВИАЦИОННОГО МАШ АЭРОМАШ", АВИАЦИОННЫЙ ПОЛИГОН 210, АВИАЦИЯ МЧС РБ, АВОП д. Псуя, АВТ ПАРК №1"ВИТЕБСКОБЛАВТОТРАНС, АВТО-ТЕГА, АВТОАГРЕГАТНЫЙ ЗАВОД, АВТОБ. ПАРК №1 Г.ВИТЕБСКА, АВТОБ. ПАРК №1 Г.ВИТЕБСКА", АВТОБ.ПАРК №1 Г.ВИТЕБСКА, АВТОБ.ПАРК №6 ГОМЕЛЬОБЛАВТ., АВТОБ.ПАРК №6 ГОМЕЛЬОБЛАВТОТ, АВТОБАЗА  ЗДРАВООХРАНЕНИЯ, АВТОБАЗА Г. ПЕТРИКОВ, АВТОБАЗА МЕД.УЧЕР БР.ГОРИСКОЛ., АВТОБАЗА РАЙПО, АВТОБАЗА СКОРОЙ МЕД ПОМОЩИ, АВТОБАСНЫЙ ПАРК №3, АВТОБУС ПАРК №1 Г.ВИТЕБСКА, АВТОБУСН ПАРК </t>
-  </si>
-  <si>
-    <t>Ж, М</t>
-  </si>
-  <si>
-    <t>безработный, индивидуальный предприниматель, пенсионер, работающий по найму, служащий, учащийся</t>
+    <t>более 2-х, 1, 2, nan</t>
+  </si>
+  <si>
+    <t>Железнодорожный (г.Витебск) отдел департамента охраны, ООО "МПР РИТЕЙЛ", ОАО ЦЕНТРОЭНЕРГОМОНТАЖ, УП "Брестстройпроект", Вит.обл.клинический Онкодиспансер, УО "Новополоцкий государственный политехнический колледж", НПООО "РИИНК", ОАО "Гомельский ДСК", ОАО "Завод ЖБК г.Молодечно", ОАО "ЩУЧИНСКИЙ МАСЛОСЫРЗАВОД", ОАО "Белинвестбанк"  дирекция по Гомельской области, ОАО "Белинвестбанк, ЗАЛ "Идея Банк", ОАО "ГРОДНОПРОМСТРОЙ", ОАО" АФПК "Жлобинский мясокомбинат", УП "Витебсклифт", УКДП РО кафе "Татьяна", ООО"МАРКЕТИНГОВАЯ ИННОВАЦИОННАЯ ГРУППА", Учреждение здравоохранения "Витебская городская центральная поликлиника", ОВД ШУМИЛИНСКОГО РИК, Жлобинский отдел Департамента охраны МВД РБ, ООО "ДомСтройАгент", ОАО Гейминг групп XO, ФИЛИАЛ "АВТОБУСНЫЙ ПАРК №1 Г.ВИТЕБСКА", ФИЛИАЛ МК-84 ОАО "ЗАПАДЭЛЕКТРОСЕТЬСТРОЙ", ОТДЕЛ ОБРАЗОВАНИЯ СПОРТА И ТУРИЗМА ПИНСКОГО РАЙИСПОЛКОМА, КСУП "Лепешинский", nan, ОСП "Строительное управление №50", ОДО "Виталюр", иНДИВИДУАЛЬНЫЙ ПРЕДПРИНИМАТЕЛЬ, ОДО ЛАНЗАРД, Центр банковских услуг №831 г.Бобруйск ОАО"Белинвестбанк", ДРСУ-49 ОАО ДСТ №7, ОАО ТК "БЕРЕСТЬЕ", СП ЗАО "Могилевский химкомбинат заря", КСУП "ОХОВО", Оршанский ГПЛ Текстильщиков, ЧП "Студия Вип Лейбл", ОАО "Белинвестбанк", ОАО ЦЭМ, СП "САНТА БРЕМОР" ООО, ДСУ-11 ОАО ДСТ №7, Фрунзенский(г.Минска)отдел Деп.охраныМВД, ГУО "Детская школа искусств №3", ДКПУП "СПЕЦИАЛИЗИРОВАННОЕ РСУ Г.ВИТЕБСКА, ОАО "Белсвязьстрой", Индивидуальный предприниматель, ПОЛОЦКИЙ ОДО МВД РБ, ОАО "МОГИЛЕВГАЗСТРОЙ", ОАО "БЕЛЭЛЕКТРОМОНТАЖНАЛАДКА", ВГУ МАШЕРОВА, ЗАО ПТФ "Свитанок", НОВОПОЛОЦКИЙ ОТДЕЛ ДЕПАРТАМЕНТА ОХРАНЫ, ПЕНСИОНЕР, НАЦИОНАЛЬНЫЙ БАНК РЕСПУБЛИКИ БЕЛАРУСЬ, РУП "Белгазтехника", СП "САМБЕСТ" ООО, ИП БРНДАРЬ, Дирекция ОАО Белинвестбанк по Витебской области, РУП "СПО "ХИМВОЛОКНО", ОАО "Могилевский мясокомбинат", УП Гаражи автостоянки и парковки, ГУВД Мингорисполкома, оршанский колледж УО "Витебский государственный университет имени П.М.Машерова", ЗАО "Аэромаш", ГУО СШ № 27 г. Брест, ООО "текстильная компания Импульс", ОРШАНСКОЕ ГРОЧС, ООО "Белинторгстрой" УНП100012930, ДЕПАРТАМЕНТ ОХРАНЫ МВД РБ  ОРШАНСКИЙ ОТДЕЛ ДЕПАРТАМЕНТА ОХРАНЫ МВД РБ, ЦБУ №535 ОАО "Белинвестбанк", УЗ "4-Я ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА", УП "Брестская межрайонная торговая база", ООО "БИОКОМ ТЕХНОЛОГИЯ", ОАО Белинвестбанк, Фрунзенский г. Минска отдел деп-та охраны а" МВД РБ, РУП "ГОМЕЛЬСКАЯ Ф-КА ХУДОЖЕСТВЕННЫХ ИЗДЕЛИЙ "ЛЮБНА", ООО "Синергия -ОИЛ", Индивидуальный предприниматель Власенко Дарья Михайловна, ф-л Минский автовокзал ГП Минсктранс, УП ЖКХ "ВИТРАЙКОМХОЗ", УЧРЕЖДЕНИЕ  "ЦЕНТР ПОВЫШЕНИЯ КВАЛИФИКАЦИИ РУКОВОДЯЩИХ РАБОТНИКОВ И СПЕЦИАЛИСТОВ "ЦЕНТР СПЕЦИАЛЬНОЙ ПОДГОТОВКИ", ГОСУДАРСТВЕННОЕ ПРЕДПРИЯТИЕ "МОГИЛЕВЗЕЛЕНСТРОЙ", Новополоцкий отдел Департамента охраны МВД РБ, ГУ РЕСПУБЛИКАНСКИЙ НПЦ ПСИХИЧЕСКОГО ЗДОРОВЬЯ, ОАО "ЖЛОБИНМЕБЕЛЬ", КЖРЭУП "ЦЕНТРАЛЬНОЕ", Городская клин. больница г.Гродно;Ж;работающий по найму;0;739-200;КАРДАШ ЛИНА СЕРГЕЕВНА;\n16/01/2006;-;-;уволен в запас;2;-;нет;среднее специальное;не имеет отношения;рабочий;7;968,03;женат/замужем;нет;нет;нет;Субочи;Агрогородок;F_СТРОИТЕЛЬСТВО;РБ;14/01/2016;24/01/1986;есть;-;-;0;-;-;4,93;есть;7;95,88;Прекращение договора исполнением;-;20/12/2016;23/03/2016;[2101016 BYN] Экспресс-кредит (наличными) (срок - 1 год);нет;400,00;более 2-х;ВОЛКОВЫССКОЕ ОАО СМТ №32", ОАО "Могилевский текстиль", ПЧУП Метиз, ГФ РУП "Белпочта", В/Ч 92616, МОГИЛЁВСКИЙ АЭРОКЛУБ ИМ. А.М. КУЛАГИНА, ГУ "МИНСКАЯ ГОРОДСКАЯ ВЕТЕРИНАРНАЯ СТАНЦИЯ", ЧП "Сан-Марко", ПРУП "Геосервис", ЧТУП Гигола  унн69048817, Гомельскимй ЗЛИН, Войсковая часть 10091, ОАО "Белинвестбанк" ГОПЕРУ, ОАО "АФПК "Жлобинский мясокомбинат", ИООО "Вастега", ОАО "ОЛЬСА", ЧТУП "Максигрупп", ОАО "СТО КУЗОВОВ", ЗАО "БелТЭН", ТС "Г.ВИТЕБСК  УЛ.ЧАПАЕВА  Д.22-1", ЧТУП "ДЕЛО КОМПАНИ", ООО "Биоком", ГОССТРОЙЭКСПЕРТИЗА по Брестской области, КУП "Региональный центр по ценообразованию в строительстве", ЗАО БАНК ВТБ, Объединенная профсоюзная организации РУП Гомельоблгаз, КУП"АВТОГАРАЖ ГРОДНЕНСКОГО ОБЛИСПОЛКОМА", отдел Образования  спорта и туризма администрации Ленинского района г. Могилева, КУПКиТС "Оршатеплосети", ОАО "Белремстройсвязь" Филиал №3, ГАУ "Гомельская городская ватобаза организаций здравоохранения", ОДО "Вик-Арт", БУК ПО ЖФ ПЕРВОМАЙСКОГО Р-НА, ОАО "Жилстрой", ЗАО "Завод химических изделий", ОАО "ЖУРАВЛИНОЕ", ОТКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "8 МАРТА" (400078265), ЗАСО  "БЕЛНЕФТЕСТРАХ", УП ЖИЛЬЕ, УВД ВИТЕБСКОГО ОБЛИСПОЛКОМА, МОГИЛЕОБЛГАЗ, УВД ГРОДНЕНСКОГО ОБЛИСПОЛКОМА, СООО "БОНШЕ", УЗ "Витебский обласной детский клинический центр", ОАО БМЗ, ООО "АЛЬЯНСПЛАСТ", НП РУП"Диалек", ВОЛКОВЫССКОЕ ОАО "БЕЛЛАКТ", ОАО "Труд", КУП "Экорес", Индивидуальный предприматель, ЧАСТНОЕ ПРЕДПРИЯТИЕ "АЛДАН-ВЕСТ", ОАО "Кобринский МСЗ", ЧУП "ИВЕТТА", Витебское областное клиническое патологоанатомическое бюро, ЗАО "АТЛАНТ", Витебский ф-л РУП "Белтелеком", СП ООО "АКВАТРАЙПЛ", ЗАО "СУПЕРПРОД", Войсковая часть 19764, КЖРЭУП ЦЕНТРАЛЬНОЕ ЖЭУ-25, ВГУ ИМ. П.М. МАШЕРОВА, ОАО ГПС СТРОИТЕЛЬНОЕ УПРАВЛЕНИЕ № 188, 38 ПОЛИКЛИННИКА, КЖРЭУП"ЦЕНТРАЛЬНОЕ", горэлектротранспорт, Гомельский филиал РУП Белпочта, Отдел образования  спорта и туризма Полоцкого Райисполкома, СПФ "РСУ МИНСКОГО РАЙОНА", ОАО ПОЛОЦКИЙ МОЛОЧНЫЙ КОМБИНАТ, ГУО "СРЕДНЯЯ ШКОЛА  №8 Г.СЛОНИМ", КУП "ОРШАКОМХОЗ", ПУП "Белстеклопром", ДК СУП "ВитМедСтрой", ОАО "СТОЛОВИЧИАГРО", УП "БРЕСТОБЛСОЮЗПЕЧАТЬ", ЗАСО "Белнефтестрах", ОАО"Белинвестбанк" отделение №932, ДИРЕКЦИЯ ОАО "БЕЛИНВЕСТБАНК" ПО ВИТЕБСКОЙ ОБЛАСТИ, Жабинковский отдел Департамента охраны МВД РБ, ИООО"ЗТЕ", ОООО "ТРИС - СЕТИ СИСТЕМЫ СЕРВИС", Дирекция ОАО "Белинвестбанк" г.Гродно, ГУЗ"ВИТ.ГОР.ЦЕНТР.КЛИНИЧЕСКАЯ БОЛЬНИЦА"(ТМО-3), МОДО МВД РБ, СООО "ВИТКОНПРОДУКТ", Государственное объединение "Белорусская железная дорога", КАЛИНКОВИЧСКИЙ РАЙОТДЕЛ ПО ЧС, ОАО "ТЕПЛИЧНЫЙ КОМБИНАТ "БЕРЕСТЬЕ", ЦБУ № 535 ОАО "Белинвестбанк" г.Минск, Закрытое акционерное общество Свитанок, ОДО "Промстройотделка", ОАО "ТЕПЛИЧНЫЙ КОМБИНАТ БЕРЕСТЬЕ", РУП "БЕЛОРУСНЕФТЬ-ГОМЕЛЬОБЛНЕФТЕПРОДУКТ" АЗС №25, ОАО Магазин №45 Продтовары, ОАО "Экомол", СУ №243 ОАО "Гомельский ДСК", отд.932 г.Молодечно ОАО "Белинвестбанк", ГФ по Могилевской области ОАО Белинвестбанк, ОАО"Могилевский домостроительный комбинат", ОАО `АВТОБУСНЫЙ ПАРК №6`, УЗ "ВИТЕБСКАЯ ГОРОДСКАЯ АКУШЕРСКО-ГИНЕКОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА", УЗ "МГБСМП", ЧПТУП ВЭТП "СВЕТ", ОАО "МУРАВА", Центр банковских услуг №831 ОАО "Белинвестбанк" г.Бобруйск, ОАО `Гомелькабель`, УП "Жилтеплострой", ИП "МИНСК ПРИНЦЕСС ОТЕЛЬ", Отделение №539 г. Минск ОАО "Белинвестбанк", ЧАСТНОЕ ПРЕДПРИЯТИЕ "ГРАДТЕХМАКС", ОАО "БЕЛИНВЕСТБАНК", ООО "АСБН", ЧУП ФУРНИЛАЙН, ОАО "Компаньон", ЦБУ №604 ОАО "Белинвестбанк" г.Орша, Дирекция ОАО "Белинвестбанк" по Брестской области, Дирекция по Гроденской области, ЦБУ № 536 г.Минск ОАО "Белинвестбанк", ЦБУ № 537 ОАО Белинвестбанк г. Минск, ЦБУ №521 ОАО "Белинвестбанк", пенсионер, ОАО "Actavis ltd international, СООО "БЕЛВЕСТ", ВИТЕБСКАЯ ДИСТАНЦИЯ ПУТИ УП ВИТЕБСКОЕ ОТД.БЕЛОРУССКОЙ Ж/Д Г. ВИТЕБСК, УО "Оршанский государственный лицей текстильщиков им.Г.В.Семенова, БУКДДЭП, ЖЛОБИНСКИЙ ОТДЕЛ ДЕПАРТАМЕНТА ОХРАНЫ МВД РЕСПУБЛИКИ БЕЛАРУСЬ, МГКУП "ГОРВОДОКАНАЛ", МГКУП "ГОРЭЛЕКТРОТРАНСПОРТ", УЗ "ВИТЕБСКАЯ ГОРОДСКАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА СКОРОЙ МЕДИЦИНСКОЙ ПОМОЩИ", УЧРЕЖДЕНИЕ "ЦЕНТРАЛИЗОВАННЫЙ ГАРАЖ УПРАВЛЕНИЯ ЗДРАВООХРАНЕНИЯ", МИНСКАЯ ОБЛАСТНАЯ КОЛЛЕГИЯ АДВОКАТОВ, ИНДИВИДУАЛЬНЫЙ ПРЕДПРИНИМАТЕЛЬ, КПУП "Гомельводоканал", оао МОЛОЧНЫЕ ГОРКИ, Ленинский отдел Департамента охраны МВД РБ, ОАО "ВЕСТА", УЗ "Жлобинская ЦРБ", ООО "РЕМКОМ", ИНДИВИД ПРЕДПРИНИМ - НА ОСНОВ СВ-ВА ИП ВЫД АДМ ОКТ Р-НА Г. ГРОДНО 20.11.2014 ГОДА, ОАО"МНПЗ", ООО ДЕКОИС ГРУПП, ООО Витафлекс, ГРОДН ОБЛ КЛИНИЧЕСКАЯ БОЛЬНИЦА, ОАО "Гомельремстрой", ГОСУДАРСТВЕННОЕ ПРЕДПРИЯТИЕ "ВСКГО", ГУЗ"ВИТЕБСКАЯ ГОРОДСКАЯ ЦЕНТРАЛЬНАЯ ПОЛИКЛИНИКА" филиал №2 пол-ка №2, ГП "ЖПРЭУ Г. ПИНСКА", ООО "НетАир", ОАО "Связьинвест", В/Ч 97010, ФИЛИАЛ РУП "БРЕСТЭНЕРГО", УКТП "ВТТУ", ООО "Столярный мастер", ОАО "БЕЛКНИГА", ООО "БМ-Ликон", КУАП УЧРЕЖДЕНИЙ ЗДРАВООХРАНЕНИЯ, РСУП "Брестплемпредприятие", ИП ООО "ВьртБел" г. Минска, УЗ"ГОР.КЛИН.ПАТОЛОГОАНАТОМИЧЕСКОЕ БЮРО", ТПРУП "БЕЛФАРМАЦИЯ", ОАО Белинвестбанк Отд.№404 г.Береза ГФ по Брестской области, ТКУП "Минсктранс" филиал "Автобусный парк № 4", ГУ "Кобринский психоневрологический дом-интернат для престарелых и инвалидов", ОАО "ГЗЛиН", Жлобинский РОВД, ГЛАВНОЕ УВД МИНГОРИСПОЛКОМА, Депортамент охраны, ПРУЖАНСКИЙ РАЙОННЫЙ ОТДЕЛ ПО ЧРЕЗВЫЧАЙНЫМ СИТУАЦИЯМ, СШ №25, УП "ЗЕЛЕНСТРОЙ МОСКОВСКОГО РАЙОНА Г.МИНСКА", РНПЦ онкологии, ОАО АСБ Беларусбанк ф.№100, ОТДЕЛ ОБРАЗОВАНИЯ СПОРТА И ТУРИЗМА ПИНСКОГО ГОРИСПОЛКОМА ЯСЛИ-САД №5, ОАО "БРЕСТСКАЯ ТИПОГРАФИЯ", ОАО "СЛОНИМСКАЯ КПФ", Локомотивное депо Гомель РУП "Гомельское отделение БелЖД, Гродненский ф-л РУП "Белтаможсервис", Бобруйское КУДП "Теплоэнергетика", Локомотивное депо Молодечненской ЖД УНП 600199554, УЗ "СЛОНИМСКАЯ ЦРБ", ОАО "ПИНСКИЙ АВТОБУСНЫЙ ПАРК", СЗАО "ВМЗ "Новмаш", ОАО "КРАСНЫЙ ОКТЯБРЬ", ООО "Табак-инвест" Филиал "Бобруйский торговый центр "Корона", ООО ГРОДНОАГРОИНВЕСТ, ОДО "ЕвроЛандшафт", -290274146, УЗ Вит.гор.клиническая больница скорой мед. помощи, ВОЛКОВЫССКОЕ ОАО "СМТ №32", ФПР "КОМБИНАТ КООПЕРАТИВНОЙ ПРОМЫШЛЕННОСТИ", ГУЗ Витебская городская центральная поликлиника, ГЛХУ "Могилевский лесхоз", ООО "ГРИНРОЗНИЦА", ЦБУ № 305 ОАО "Белинвестбанк" г. Жлобин, СПК ИМ.ДЗЕРЖИНСКОГО, ООО "Михаил и партнеры", РУП электросвязи "Белтелеком" Минский ф-л, ОРПЦ ОАО "СОВХОЗ-КОМБИНАТ "СОЖ", ЧУП "БУХГАЛТЕРСКИЙ МИР", ОАО"Лидское пиво", Слуцкий отдел Департамента охраны МВД РБ, Ясли-сад №497, ПКУП"Минскпроект", ВЕРХОВНЫЙ СУД РБ, ГУ НБ РБ по Гомельской области, Белорусский государственный университет, ОАО "САЛЕО-Кобрин", ОАО "СВетлогорский ЦКК", Управление Департамента финансовых расследований Комитета государственного контороля Республики Беларусь по Гомельской области, УЗ ВОКЦПиН, ОДО "ФТОРОТЕКС", ООО "ЛюксГрупп", В/ч 97010, ОАО "ГРОДНОПРОМСТРОЙ" ЗАВОД ЖБК, ОГПЛ Текстильщиков, УЗ МГБ, ЗАО "Свитанок", УП "ВИТЕБСКВОДОКАНАЛ", ЧУТПП "ЛАИЛИК", СП "БелДрев" ООО, ЧП "Натва-плюс", Дирекция ОАО Белинвестбанк по Витебской обл, СЛОНИМСКИЙ ФИЛИАЛ РУП "ГРОДНЕНСКОЕ АГЕНТСТВО ПО ГОСУДАРСТВЕННОЙ РЕГИСТРАЦИИ И ЗЕМЕЛЬНОМУ КАДАСТРУ", ООО "Морозный путь", калинковичи мебельный комбинат, ГОСУДАРСТВЕННОЕ ПРЕДПРИЯТИЕ "СЛАДКАЯ СТРАНА", ООО "Верас", ИПУП "ВИК-ЗДОРОВЬЕ ЖИВОТНЫХ", ОАО "Институт"Минскгражданпроект", ОАО  "БОРИСОВСКИЙ ЗАВОД "АВТОГИДРОУСИЛИТЕЛЬ", ОАО "Белгазтопкомплект", ОАО "Кобринский завод агропромышленного машиностроевния", ПУ "Брестгаз", Учреждение здравоохранения "МГБСМП", Могилевский троллейбусный парк №1 ОАО "Могилевоблавтотранс", ОРШАНСКИЙ ЛЬНОКОМБИНАТ, Октябрьский отдел департамета охраны Минска МВД РБ, ОАО"927 УПРАВЛЕНИЕ СПЕЦИАЛИЗИРОВАННЫХ САНТЕХНИЧЕСКИХ РАБОТ", СООО "ГЕЙМСТРИМ", СЛУЦКИЙ СЫРОДЕЛЬНЫЙ КОМБИНАТ, НОВОПОЛОЦКИЙ ФИЛИАЛ РУП "БЕЛТЭИ", ОАО "Свiтанак" г.Жодино ф.№1 в г.Витебск, ОАО  "БЕРЕЗИНСКОЕ", ООО ТОРГОВЫЙ ДОМ ЖДАНОВИЧИ, Войсковая часть №19764, УЗ "ВОСПК", ЗАО "МЕРКОМ", СООО "ГЕЙМ СТРИМ", БАРАНОВИЧСКИЙ ОТД. ДЕПАРТАМЕНТА ОХРАНЫ, УЗ "БГП №2" Г.БРЕСТА, РУП БЕЛОРУСНЕФТЬ ГРОДНООБЛНЕФТЕПРОДУКТ, ВТПРУП "ФАРМАЦИЯ", ВИТЕБСКАЯ ОБЛАСТНАЯ КОЛЛЕГИЯ АДВОКАТОВ, ООО "СТРОЙПАРТНЕР", УГП "ТРЕСТ "ГРОДНОГОРСТРОЙ" - РСУ  РСУ №1 УГП "ТРЕСТ "ГРОДНОГОРСТРОЙ", ООО "ИНТЕХСЕРВИС", ИООО БЕЛСТЕКЛОПРОМ, ОВД СЛОНИМСКОГО РАЙИСПОЛКОМА, ОАО "ВИТЕБСКАЯ БРОЙЛЕРНАЯ ПТИЦЕФАБРИКА", ОАО "Райбытуслуги", ИНДИВИДУАЛЬНЫЙ ПРЕДПРИНИМАТЕЛЬ СЁМУХА НИКОЛАЙ НИКОЛАЕВИЧ, ОАО "Светлогорский ЦКК", ОАО Белинвестбанк дирекция по БО, СП "Санта Бремор" ООО, ООО "Белтехношина", ОАО "Белинвестбанк" ЦБУ №535, ЧУТП "ВестОптцентр", ЦБУ 539 Г.МИНСК ОАО БЕЛИНВЕСТБАНК, КЖРЭУП СОВЕТСКОЕ, ОАО "Барановичиметаллоптторг", ООО "Интергланс", белорусский профсоюз банковских и финансовых работников, ЦБУ № 537 ОАО "Белинвестбанк" г. Минск, ОАО "Банк Москва-Минск" Управление Брестской обл., СООО"ПАНАРАМА", РУП "2566" ЗРРВ, ОАО "СВЕТЛОГОРСКРЕМСТРОЙ`, ОДО "Мостра-групп", ОАО "Белинвестбанк"  ЦБУ №536 г. Минск, КУП ЖРЭУ г.Бреста , ОАО "СВЕТЛОГОРСКИЙ ЗАВОД ЖБИИК", КУП "Минсксанавтотранс", ОАО  "Молоко", ИП Люндышев А.И., ЦБУ № 536 г. Минска ОАО "Белинвестбанк"  УНП 807000028, УЗ "Витебский областной диагностич, Конституционный суд РБ, ТКУП "Блискавица", ОАО "КБ "РАДАР", ГГУПП "СПЕЦАВТОХОЗЯЙСТВО", Гомельский филиал РУП `Белпочта`, КУПТП Комбинат общественного питания, ОАО "МАПИД" завод КПД-1, ОДО "ПРОКТОР", ЦБУ №402 ОАО "Белинвестбанк" г. Жабинка, Представ-во Белгосстраха по г.Гродно, ЧТУП "Солодуха", ГО "БЕЛРЕСУРСЫ"- УПРАВЛЯЮЩАЯ КОМПАНИЯ ХОЛДИНГА "БЕЛРЕСУРСЫ", ЧТП "МДС-Транс", БАРАНОВИЧСКИЙ ФИЛИАЛ ОАО "БРЕСТПРОЕКТ", ОАО БЕРЕЗОВСКИЙ МКК, ОАО "Белинвестбанк" по БО, УЗ "31-я городская поликлиника", СЖБ №11 ОАО СВЕТЛОГОРСКИЙ ДСК, Дирекция ОАО "Белинвестбанк" по гродненской области, ЛЕНИНСКИЙ ОТДЕЛ ОХРАНЫ, УЗ Светлогорская Центральная Больница, АГ КОЗЛОВИЧИ, Брестский областной наркологический дисп, Брестский вагонный участок РУП "Брестское отделение Бел.ж.д.", УП"ГРОДНЕНСКОЕ ОТД.БЕЛТПП", ИООО "ЭПАМ Системз", ОАО ГОРОДЕЙСКИЙ САХАРНЫЙ КОМБИНАТ, КУП "Гомельский городской дорожно-строительный трест", ПИНСКИЙ РАЙОННЫЙ УЗЕЛ ЭЛЕКТРОСВЯЗИ ФИЛИАЛА РУП "БЕЛТЕЛЕКОМ", Трест "Гродногорстрой" РСУ 2, МГУ ДЕПАРТАМЕНТА ОХРАНЫ МВД РБ, ОАО "ГОМЕЛЬСКИЙ ДСК", ГУО СШ №2 г.Могилева, ГП "Ремавтодор" Первомайского района г.Минска, БГУ, дополнит место работы РДУСП "Стравита"- по г.Гродно  основное место работы  РУП "Гродноэнерго", Советское РУВД г.Минска, ОАО "Холдинг Могилевводстрой", ВИТ.ОБЛ.ДЕПАРТ.ОХРАНЫ МВД, ТПЧУП "СЛАВЯНСКАЯ СТОЛИЦА", УЧ.`ГОМЕЛЬСКИЙ ОНКОЛОГИЧЕСКИЙ ДИСПАНСЕР`, ОАО "УНР КЭУ", ОАО "БЕЛЭЛЕКТРОМОНТАЖ" (ФИЛИАЛ "ЭМУ-11" ОАО БЭМ), дом торговли, ОАО "БЕЛИНВЕСТБАНК" ОТД. 536, ООО "ЙОРК КАМПАНИ", НИУ "НИИ проблем криминологии криминалис, ООО "ТАМОЖПРЕСТИЖ", УЗ"гРОДНЕНСКИЙ ОБЛАСТНОЙ КЛИНИЧЕСКИЙ КАРДИОЛОГИЧЕСКИЙ ЦЕНТР", ЦБУ №535 ОАО "Белинвестбанк" г. МИНСК, Оршанский спецкомбинат, ЦБУ № 932 г. Молодечно ОАО"Белинвестбанк", ОАО "БЕЛИНЕВEСТБАНК", в/ч 97010, ДКСУП "Оршанский спецкомбинат", ЧУП "ЮРТЭКС-НАР", СЗАО Серволюкс, ОАО БЕЛИНВЕСТБАНК, Гомельский городской центр гигиены и эпидимиалогии, Отделение №630 г. Орша головного филиала по Витебской области ОАО "Белинвестбанк", ЦБУ №535 ОАО "Белинвестбанк" гМинск, Дирекция ОАО "Белинвестбанк" по Гомельской области, ВЧ 6713, ИЧУТЭП "Квенбергер Логистикс БЕЛ", Управление культуры Мингорисполкома, ГРОДНЕНСКОЕ ОБЛАСТНОЕ УПРАВЛЕНИЕ ДЕПАРТАМЕНТА ОХРАНЫ МВД РЕСПУБЛИКИ БЕЛАРУСЬ, ТEХНОСЕРВИCЦЕНТР СТОО, ПОДТУ РУП "ГРОДНОЭНЕРГО", ЧУПП "Прометей", ЧУП "Белая Фактория", ТПРУП "ФАРМАЦИЯ" АПТЕКА №168 второй категории, SOS-ДЕТСКАЯ ДЕРЕВНЯ Могилев, ВООРГОО "БЕЛ.РЕСП.ОБЩ.СПАСАНИЯ НА ВОДАХ", ГУКПП"Горсвет", индивидуальный предприниматель, Филиал Белгосстраха по урегулированию убытков транспортного страхования, Учреждение "Мозырский городской родильный дом", ЗАО "Гомельский вагоностроительный завод", Управление КГБ РБ по Витебской области, ПОЛОЦКИЙ ОТДЕЛ ДЕПАРТАМЕНТА ОХРАНЫ МВД, ГЛХУ "СУРАЖСКИЙ ЛЕСХОЗ" ЩЕЛБОВСКОЕ ЛЕСНИЧЕСТВО, ТЦСОН ГОРОДОКСКОГО Р-НА, ОАО "УПРАВЛЯЮЩАЯ КОМПАНИЯ ХОЛДИНГА "ЛИДСЕЛЬМАШ", РУП ВИТЕБСКИЙ ДСК, УП "КОММУНАЛЬНИК", Централиз. бух-рия отдела обр.  спорта и туризма адм. Первом. р-на г. Витебска, ЦБУ № 305, РУП "Брестторгтехника", ОАО "ВИТЕБСКИЕ КОВРЫ", ДСУ-49 ОАО ДСТ №7, ООО "Минотель" Ресторан "Панорама", ООО "ТРИС" СЕТИ-СИСТЕМЫ-СЕРВИС, В/Ч, ЗАО "СНЕЖИНКА", ОАО "БАТЭ", БУК ДПО ЖФ Первомайского района, ОАО "ЦЕНТРОЭНЕРГОМОНТАЖ", Учреждение СИЗО-2 УДИН МВД РБ по Витебской области, УЗ ВОКБ, ОАО "ЛАКОКРАСКА", СП"ЖИЛМОНОЛИТПРОЕКТ" ОАО "ЖИЛСТРОЙ", Заводской  отдел Департамента охраны, ЗАО "Витэкс", войсковая часть 36857, ООО НЕКСТ РАЙЗЕН, ООО "ЕМКОР", ЧУП "Цветлит" ОО "БЕЛОГ", ЧПУП Гомельобои, БКУП "ТЕПЛОЭНЕРГЕТИКИ", УЗ "Витебское областное клиническое пато, ОАО "СТРОИТЕЛЬ", ВИТЕБСКИЙ ГОРОДСКОЙ КЛИНИЧЕСКИЙ РОДДОМ №2, КУП "ГОМ. ОБЛ. УКС", ЧАСТНОЕ ПРЕДПРИЯТИЕ "ЗАЛЕНСКИЙ П.О.", ГУВД ОМОН МИНГОРИСПОЛКОМА, Управление по труду и занятости  социальной защиты ОРИК, КУ ПТП "КОМБИНАТ ОБЩЕСТВЕННОГО ПИТАНИЯ" кафе Монтана, ИООО"Алиди-Вест", ОАО "Строительно-монтажный трест № 40", ИП, ОАО "ГОСТИНИЦА "МОГИЛЕВ", ГЛАВНОЕ УПРАВЛЕНИЕ ВЕДОМСТВЕННОГО КОНТРОЛЯ, РУП "Витебскэнерго" ф-л Витебские электрические сети, Ленинский отдел департамента охраны МВД РБ, ГСРП "УЛИС", РПУП "Гомельоблгаз", БРУСП `БЕЛГОССТРАХ`, ОАО "АСБ БЕЛАРУСБАНК" ФИЛИАЛ № 113 ЦБУ 122, ООО "КБМ-инвест", Учреждение "СИЗО №7" УДИН МВД по БРЕСТСКОЙ ОБЛАСТИ, Прокуратура Брестской области, ОАО"Оршасырзавод", СООО "СанМарко", ИП"ПЛАНЕТА ИГР", КПУП `ГОМЕЛЬВОДОКАНАЛ`, СПОРТИВНОЕ   ОЗДОРОВИТЕЛЬНОЕ  ОБЩЕСТВЕННОЕ  ОБЪЕДИНЕНИЕ "ИРИДА", УЗ "Пинская центральная больница", ООО "ТРИАДАИНВЕСТ", КУП ПО ОКАЗАНИЮ БЫТОВЫХ УСЛУГ "ВИТРАЙБЫТ, ЧТУП "А.В.Кузуб", УЗ "Жабинковская ЦРБ", Рем.-реставрац.филиал ОАО"Минскремстрой", КТПУП "ОРША-СЕРВИС", КПУП "Брестский мусороперерабатывающий завод", ЗАСЛАВСКИЙ ОДО МВД РБ, Национальный банк Республики Беларусь, ООО "ГЕОЛЭНД", ОАО АЛЕКСАНДРИЙСКОЕ, Железнодорожный (г. Витебск) отдел Департамента охраны, ИП ЛУКЬЯНЧУК Д Т, КУП "Молодечноводоканал", ОАО "БНБ-Банк", УП "БАРАНОВИЧСКОЕ ОТДЕЛЕНИЕ БЕЛ. Ж. Д. "СТАНЦИЯ ЛУНИНЕЦ", ОАО "ВИТЕБСКИЙ МЯСОКОМБИНАТ", ЦБУ №402 ОАО Белинвестбанк г. Жабинка, ОАО "СПМК-81", ГПО "ГОРРЕМАВТОДОР МИНГОРИСПОЛКОМА", ТД ЗАО ВитебскАгропродукт, СУП "Жлобинметаллургстрой", ЧУП ГЕОГРАНД ДАТЛИ, СПК "Рассвет-Мыто", УЗ 9ГКБ, ТУП "Гомелькоопвторресурсы", ОАО "РУЖАНЫ-АГРО", ГЛХУ "ОРШАНСКИЙ ОПЫТНЫЙ ЛЕСХОЗ", УНИТАРНОЕ ПРЕДПРИЯТИЕ "ТАБАК", БРЕСТСКАЯ ДИСТАНЦИЯ ЗАЩИТНЫХ ЛЕСОНАСАЖДЕНИЙ, РУП "Пинский ЦСМС", ОАО "Городец-агро", Войсковая часть № 19764, КУ ПТП "КОМБИНАТ ОБЩЕСТВЕННОГО ПИТАНИЯ", Завод КПД №3 ОАО "МАПИД", УЗ БЕРЕЗОВСКАЯ ЦРБ ИМ.Э.Э.ВЕРЖБИЦКОГО, Филиал Автобусный парк №4 ОАО Миноблавтотранс, Витебская областная орг-ция профсоюза работников гос. и др. учреждений, ОЭК УП "ГАРАЖИ  АВТОCТОЯНКИ И ПАРКОВКИ", КУМПП ЖКХ "Кобринское ЖКХ", РУП "Белдортранс", ЧТУП "Марквуд", ОАО "Брестский чулочный комбинат", ООО "ФАБРИКА СВЕТОПРОЗРАЧНЫХ ИЗДЕЛИЙ", ООО "ЗАГЕДАН", УЗ "ВИТЕБСКИЙ ОБЛАСТНОЙ КАРДИОЛОГИЧЕСКИЙ ДИСПАНСЕР", ОДО "АЛГАС-ПЛЮС", ОАО "Брестский электромеханический завод", ЧАСТНОЕ ПРЕДПРИЯТИЕ "ПОЛИПЛАСТ ПАК", Отдел образования  спорта и туризма Вороновского РИК", ГУ "Брестский академический театр драмы", КУП "ВИТЕБСКИЙ КОНДИТЕРСКИЙ КОМБИНАТ "ВИТЬБА", КПУП "ОРШАНСКАЯ ТИПОГРАФИЯ", Бр.областное управление Департамента охраны МВД РБ, ИП САВЧУК В.А., ДИРЕКЦИЯ ОАО "БЕЛИНВЕСТБАНК"  ПО ВИТЕБСКОЙ ОБЛАСТИ, ООО "КЭПИТАЛ ЛОГИСТИК", Московский (г.Бреста) ОДО МВД РБ, ВИТЕБСКАЯ БРОЙЛЕРНАЯ ПТИЦЕФАБРИКА, ЦЕНТР ДО МВД РБ, БКУП "Водоканал", ЧП "Златогор", КУП "Гомельоблдорстройкомплект", ПУП "ПИНСКАЯ МЕБЕЛЬНАЯ "ФАБРИКА АДРИАНА", ЧТУП "Форватор", ОАО "ВКШТ", РУСПП "1- ая Минская птицефабрика" магазин №2, ООО СОЛ ИНСТРУМЕНТС, ООО "СОЛБЕГСОФТ", Ф-Л"ТРОЛЛЕЙБУСН.ПАРК №3 КУП "МИНСКТРАНС", ОАО ГРОДНЕНСКАЯ ОБУВНАЯ ФАБРИКА "НЕМАН", КУП `АРХИТЕКТУРНО-ПЛАНИР. БЮРО УАИГ`, ООО "ЭлитКровляСтрой", ГЛХУ Калинковичский лесхоз, Пружанское КУПП "Коммунальник", ЗАО "АЭРОМАШ", КУП "СМЭП Мингорисполкома", Учреждение здравоохранения "Городская детская инфекционная клиническая больница", Гомельский филиал РУП "Белпочта", ОАО "АРТКУК", ИП Тупиков А.В., Жлобинавтотранс, СП "СОФТФОРМ" ООО, ГУО "Детская школа искусств №5" "г.Гомеля", ООО ФОРТАКС-ЭКСПРЕСС, ПЧУП "Гравитал", УО "ПИНСКИЙ ГОС. КОЛЛЕДЖ ИСКУССТВ", ОАО "Брест-Юбилейный"  АЛМИ, ОАО "Агро-Агро", ООО "Сэйвин Грин", КЖРЭУП ЦЕНТРАЛЬНОЕ, ИООО "Газпромнефть-Белнефтепродукт", филиал "Жлобинавтотранс", РУП "БЕЛПОЧТА", КСМЭУП "СМЭП Гомельского облисполкома", НЕ РАБОТАЕТ, ГУО "Средняя школа №15", Суд Центрального р-на г.Гомеля, Учр. здравоохранения "МГССМП", ОДО "САЛЮСЛАЙН", УП "БРЕСТОБЛГАЗ", ГПУ ЗРЗ "Выдрица", ИООО "ВМГ Индустри", СООО "СанМарко" г. Витебск, ГП `БЕЛГИПРОДОР` филиал, Республиканское дочернее унитарное страховое предприятие "Стравита"- представительство Республиканского дочернего унитарного страхового предприятия "Стравита" по г.Гродно и Гродненской области (806000046), УП по оказанию услуг "Велком", ДИРЕКЦИЯ ОАО "БЕЛИНВЕСТБАНК" ПО ГРОДНЕНСКОЙ ОБЛАСТИ, ЦБУ №406 ОАО БЕЛИНВЕСТБАНК Г.ПИНСК, ОАО Светлогорский ДСК, ИП ГАЙДУК А А, УПРАВЛЕНИЕ СЛЕДСТВЕННОГО КОМИТЕТА РБ ПО ВИТЕБСКОЙ ОБЛАСТИ, ООО "ЛЕВЕРЕКС ИНТЕРНЕЙШНЛ", Вит.гор.центр.клинич.больница, ОАО "Витебский ДСК", ОАО "БЕЛЛИФТ", ЦБУ№604 ОАО БЕЛИНВЕСТБАНК Г.ОРША, Санаторий "Надзея", ЦБУ №802 ОАО "Белинвестбанк" г.Горки, ВОДОКАНАЛ, ПЧУП "Цветлит", КУП "Оршакомхоз", ОАО ""Лидский молочно-консервный комбинат", РУП "Белмедпрепараты", Филиал ЗСЖ №11 ОАО Светлогорский ДСК, СУ-222 ОАО "СТРОЙТРЕСТ №7", ООО "СЕЙЛСЕРВИСОЛЮШЕНС", Дирекция ОАО "Белинвестбанк" по Брестской обл., РЕСП.ПРОИЗВОДСТВЕННР-ТОРГОВОЕ УНИТАРНОЕ ПРЕДП-Е  УДП РБ, СУП "Гомельская СПМК-119" ОАО "Гомельоблстрой", СЛОНИМСКОЕ УМГ ОАО "ГАЗПРОМ ТРАНСГАЗ БЕЛАРУСЬ", УВД ГРОДНЕНСКОГО ОБЛИСПОЛКОМА. Ленинский РОВД г. Гродно, ОАО "ХК Банк", АТК ОАО "БАТЭ", пенсионерка, ГП"ВПКиТС", ООО "ТУТ БАЙ МЕДИА", ООО"ЧИСТОГОЛИКИ", ООО"ПРОМАГРОПЛАСТ", ГУ МФ РБ по г. Минску, ГУП"ЖРЭО №1 Фрунзенского р-на г.Минска", Государственное предприятие ВПКиТС, РУЭСП "ДНЕПРОБУГВОДПУТЬ" ФИЛИАЛ "ВИТЕБСКВОДТРАНС" РУЭСП "ДНЕПРОБУГВОДПУТЬ" (ВКШТ), Учреждение Мозырская городская детская б, ООО "КОТТЕДЖСИТИ", ФОУ СК "Бодрость", ЦБУ №406 ОАО "БЕЛИНВЕСТБАНК" Г.ПИНСК, УП БЕЛКООПВНЕШТОРГ БЕЛКООПСОЮЗА "ГРОДНЕНСКОЕ ЗВЕРОХОЗЯЙСТВО", ОАО"Белинвестбанк", Индивидуальный предприниматель Чикунов Сергей Васильевич, ОАО ГОМСЕЛЬМАШ, Могилеваттракционы, отделвнутренних дел Жабинковского райсполкома, РПУП ГОМЕЛЬОБЛГАЗ, Комитет государственного контроля Республики Беларусь, ОДО "СТС-Стиль", ОАО "АСБ Беларусбанк", ОДО "СПОРТТУР"`, УЗ "Витебская областная больница", ЧУП "ГРОВИК", ОАО "ВЕСТА-БОРИСОВ", СООО "ВИТЕБСКИЙ ЗАВОД БЕЗАЛКОГОЛЬНЫХ НАПИТКОВ", ОАО "Галантэя", ГОСУДАРСТВЕННОЕ ПРЕДПРИЯТИЕ "УДМСИБ МИНГОРИСПОЛКОМА", Октябрьский (г. Минск) отдел Департамета охраны МВД Республики Беларусь, ООО "АВТОПРАВО", Минская городская коллегия адвокатов, Коммунальное ремонтное унитарное предпри, ОАО "Строительный трест №14" филиал УМ-75, ЧПУП БелТекстиль-Салфетка, ОАО "Теплоэнергетик", УП "Брестоблгаз", ОАО "Белинвестбанк" ЦБУ №536, Дирекция по Могилевской области ОАО Белинвестбанк, ДИРЕКЦИЯ ПО ГОМ.ОБЛ.ОАО`БЕЛИНВЕСТБАНК`, ИП "СП "ВИК-ЗДОРОВЬЕ ЖИВОТНЫХ", РНПЦ Оториноларингологии, Филиал "Троллейбусный парк №4"Минсктранс, ОАО  "Белювелирторг" филиал магазина №49, СПЕФ ОАО "АГРОКОМБИНАТ"СКИДЕЛЬСКИЙ", СУ-168 ОАО "СТРОЙТРЕСТ №7", ОДО "ЭЛМА", Геогранд-Датви, ЗАО "Белспецэнерго", Бобруйский отдел Департамента охраны, УНИТАРНОЕ ПРЕДПРИЯТИЕ "ГРОДНОВТОРЧЕРМЕТ", Брестский гос.проф.-техн.колледж связи, ООО Альянспласт, КСУП "Высокий", Рогачевский РУПС, Гордормост, УПРАВЛЕНИЕ СОЦИАЛЬНОЙ ЗАЩИТЫ, ОАО "Гомельпромстрой", ФИЛИАЛ ПРУЖАНСКОГО РАЙПО "ПРОДТОВАРЫ", УЗ ВИТ.ОБЛ. СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА, ГОМЕЛЬСКОЕ ОБЛАСТНОЕ УПРАВЛЕНИЕ ГОСПРОМНАДЗОРА, ЧТТУП"Внешторгтранссервис", УП "ВИМАС", ООО "ПО "Энергокомплект", ООО ИНВАЮР-СТРОЙ, ГОУП Лечебно-производственные трудовые мастерские, ООО "Группа компаний Жилстройкомплект", ООО "НОВЫЙ ЛЕКАРЬ", ОАО"ВИТЕБСКИЕ КОВРЫ", УП "ЭКОРЕС", ОАО "Светлогорскхимволокно", ДРСО ОДО Поиск-4, ГУО МЧС, СП СУ №114 ОАО "ЖИЛСТРОЙ", ДКУЖРЭП "ЖРЭТ ОКТЯБРЬСКОГО РАЙОНА", Гомельское УП Фармация СП "филиал"Центральная аптека №190 г. Мозырь, Могилевский ф-л РУП"Белорус.протезно-ортопед.восс.центр", РУП "ВИТЕБСКЭНЕРГО" ФИЛИАЛ "ВИТЕБСКИЕ ЭЛЕКТРИЧЕСКИЕ СЕТИ", УЗ ОРШАНСКАЯ  СТОМОТОЛОГИЧЕСКАЯ ПОЛИКЛИННИКА, КПУП `ГОМЕЛЬОБЛТЕПЛОСЕТЬ`, ОТДЕЛ ОБРАЗОВАНИЯ СПОРТА И ТУРИЗМА БЕРЕЗОВСКОГО РИК, ООО ГОМЕЛЬФАРМ, РУПП "ИК 12-ВА", ООО "Колибри", ООО "ОДОН-ПЛЮС", УЗ Вит.обл. центр психиатрии и наркологии, СП ОАО "Гомельский электротехнический завод", ГУЗ ВИТЕБСКАЯ ГОРОДСКАЯ ЦЕНТРАЛЬНАЯ ПОЛИКЛИНИКА, Брестгорремстрой трест РСУ №2 (филиал), ДО МВД РБ ПО ОХРАНЕ ДИП. ПРЕДСТАВИТЕЛЬСТВ И КОН. УЧ.ИГ, УЗ "МЦГП" ПОЛИКЛИНИКА № 2, УГП"ГРОДНЕНСКОЕ ТРОЛЛЕЙБУСНОЕ УПРАВЛЕНИЕ, ГУВД МИНГОРИСПОЛКОМА, ПУП Гомельобои, ИП Марчук Игорь Геннадьевич, ИП "БелтексОптик", УВД Витебского облисполкома, Республиканское унитарное предприятие "Гродненское производственное кожевенное объединение" (500080183), Бобруйское государственное предприятие "Водоканал", ТРУП МИНСКОЕ ОТД.БЕЛ.Ж.Д.ОРШАНСКАЯ ДИСТАНЦИЯ ПУТИ, РУП "Минская Фармация", ОАО"ХКБанк", ОАО "Новобелицкая торговая компания "Алеся", ООО "Бросвил", ИП Политов В.А., КАЛИНКОВИЧСКАЯ ЦРБ, Ленинский департамент охраны, ПТУП "Гефест-техника", ИП Рафеев Олег Иванович, ЧАСТНОЕ ПРЕДПРИЯТИЕ "РОНДЕКС", СП ОАО СПАРТАК, КУПКИТС "ОРШАТЕПЛОСЕТИ", УЗ"ВИТЕБСКАЯ ГОРОДСКАЯ ДЕТСКАЯ СТОМАТОЛОГИЧЕСКАЯ ПОЛИКЛИНИКА", ОАО "СветлогорскХимволокно", ГУО Средняя школа №24, УК "ВИТЕБСКИЙ КРАЕВЕДЧЕСКИЙ МУЗЕЙ", УП"БРЕСТОБЛГАЗ", КУП "СЕЛЬЧАНКА", ОАО "ПМК-212" Г.МОЛОДЕЧНО, ОАО "РЕМСПЕЦСТРОЙ", КУП "ВИТЕБСКИЙ КОНДИТЕРСКИЙ КОМБИНАТ "ВИТЬБА"  ФИЛИАЛ КУП "ВИТЕБСКИЙ КОНДИТЕРСКИЙ КОМБИНАТ "ВИТЬБА" "СЛАДКАЯ СТРАНА", Унитарное предприятие "Ремавтодор Московcкого р-на, ИП Тетерук Г.Н., ОАО"Моготекс", ОАО Слуцкий мясокомбинат, ООО "Торговый Дом "БеллентаПлюс", КЖРЭУП `СОВЕТСКОЕ`, ООО "БЕЛМАШТОРГИНВЕСТ", ОАО "БЕЛОРУССКАЯ ВАЛЮТНО-ФОНДОВАЯ БИРЖА", ОАО БЕРЕЗОВСКИЙ МЯСОКОНСЕРВНЫЙ КОМБИНАТ, РОДДОМ №2, В/Ч 92504, СООО "Белвест", ГОСУДАРСТВЕННОЕ УЧРЕЖДЕНИЕ ОБРАЗОВАНИЯ "СРЕДЯЯ ШКОЛА №17" Г. МОГИЛЕВА, ОАО "ДОМ ТОРГОВЛИ" Г.ПОЛОЦК, ГУО "УПК ЯСЛИ-САД-НАЧАЛЬНАЯ ШКОЛА № 8 Г.БРЕСТА", ИП Яковлев, ПУ "ГРОДНОГАЗ", СП "СУ №233" ОАО "ЖИЛСТРОЙ", ООО ИНТЕРСТАЛЬ, УЧРЕЖДЕНИЕ "ГОМЕЛЬСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА", ЧУП "СВЕТОПРИБОР" ОО "БЕЛТИЗ", ОАО "Спецавтопредприятие", РУП "ВИТЕБСКИЙ ДСК", ЧТУП "БЕЛЯК", ОАО "САЛЕО-Кобрин, СООО "Гейм Стрим", ЗАО "АВГУСТ-БЕЛ", УЗ Витебская городская станция скорой помощи, РУП "Объединенная редакция МВД РБ", СУП ГК "Орбита", ООО "ИЗДАТЕЛЬСКИЙ ДОМ "ИНТЕКС-ПРЕСС", ОАО "МАПИД" Завод КПД-1, Барановичский отд. Департамента охраны М, УП ПРОЕКТНЫЙ ИНСТИТУТ ВИТЕБСКГИПРОЗЕМ, РУП "Витебскэнерго" филиал "Энергосбыт", ВОЛКОВЫССКИЙ ФИЛИАЛ РУП "ГРОДНЕНСКОЕ АГЕНСТВО ПО ГОСУДАРСТВЕННОЙ РЕГИСТРАЦИИ И ЗЕМЕЛЬНОМУ КАДАСТРУ", ИП КОРЗАН А.К., УЗ "5-я городская клиническая больница", ПРУП "БЕЛГИПРОГАЗ", Бобруйский горрайотдел по чрезвычайным ситуациям, ОАО "СТРОЙТРЕСТ N7" СУ-115 ОАО "СТРОЙТРЕСТ N7", ПК ООО "Тезносинтез", ООО "Профкомплекс", ИП МИХЕЕВА ТАТЬЯНА ИВАНОВНА, ГД УП "ЖЭС №54 ЖРЭО №1 ФРУНЗ.РАЙОНА, ОАО "ВИТАВТОМАТИКА", ЧТУП "ЛЕГАВТОПРОМ", ООО "Амазон-Колорит", ЦБУ № 407 ОАО "Белинвестбанк" г. Пружаны, ИП на основании свид -ва о гос рег выд Администр Окт р-на г. Гродно 05.01.2015 года., ОДО ЖЕЛЕЗНОДОРОЖНОГО РАЙОНА Г. ВИТЕБСКА, ДКСУП "Гостиница-Орша", ФИЛИАЛ "МСУ-7" РУП  "МОСТОСТРОЙ", ЛВЗ ПРИДВИНЬЕ, ЦБУ №604 ОАО "бЕЛИНВЕСТБАНК" г.Орша, ЧТУП "МСК-КАРГО", ЧУП"Феерия красоты", ГОУП "ГРОДНЕНСКАЯ ТИПОГРАФИЯ", ООО АЛИКО ТРЭЙД, Брестская ТПРУП "Фармация" пинска ЦРА №134, УО ГГТУ им.Сухого, ПРЕДСТАВИТЕЛЬСТВО ООО "БЕЛДРЕВ" ПО Г.ОРША, ЗАСО "БЕЛНЕФТЕСТРАХ", МИНСКАЯ ДУХОВНАЯ СЕМИНАРИЯ, ОАО "ЛИФТСЕРВИС", СУ-3 ОАО "СТРОЙТРЕСТ № 1", Главное управление юстиции Могилевского облисполкома, УЗ "Больница скорой медицинской помощи", СП "ПРОМЕКС" ООО, ОАО "ДОМ ТОРГОВЛИ "СВИСЛОЧЬ", ООО"Белхол", ООО "СЕРГОСТРОЙ", ПРУП "ГЕОСЕРВИС", Дирекции ОАО "Белинвестбанк"по Брестской области, УЧРЕЖД."РЦОП ПО ГИМНАСТИКЕ ХУДОЖ.", Войсковая часть 97020, НОДО МВД РБ Г.НОВОПОЛОЦК, Октябрьский РОВД г. Гродно УВД ГРОДНЕНСКОГО ОБЛИСПОЛКОМА, ОАО "РАДИОВОЛНА", ГОЛ.ФИЛ. ПО ГОМ.ОБЛ.ОАО`БЕЛИНВЕСТБАНК`, Транспортно-экспедиционное унитарное предприятие "АТраС", Гомельская областная детская клиническая больница, ЦБУ №535 г. Минск ОАО "Белинвестбанк", Департамент государственной инспекции труда, УО БГТУ, 201 отделение ГФ по Гродненской обл. ОАО "Белинвестбанк", ЦБУ№537 ОАО "Белинвестбанк", ЦБУ №537 ОАО "Белинвестбанк", ЦБУ №537 ОАО БЕЛИНВЕСТБАНК, ГУ "Хоккейный клуб "Брест", Центр олимпийского резерва г. Жлобин, ОАО "Гомельский химический завод", УКДП РИТУАЛЬНОГО ОБСЛУЖИВАНИЯ, ОАО "ГОМЕЛЬСКИЙ ЛИКЕРО-ВОДОЧНЫЙ ЗАВОД "РАДАМИР"", ИООО "БелЕвросеть", ОАО "ПРУЖАНСКИЙ РКБО", ОАО МАЗ Могилевтрансмаш, ОАО МОГИЛЕВХИМВОЛОКНО, ГУ "МИНСКОЕ ЭУ ВС", СРУП "Витебский домостроительный комбинат", Общество с ограниченной ответственностью "КУСТОВ-инвест" (491061568), ЦЕНТР ПОВЫШЕНИЯ КВАЛИФИКАЦИИ РУКОВОДЯЩИХ РАБОТНИКОВ И СПЕЦИАЛИСТОВ ДЕПАРТАМЕНТА ОХРАНЫ МВД РЕСПУБЛИКИ БЕЛАРУСЬ __, Частное унитарное предприятие по оказанию услуг "БеЮрСервис", ЛОКОМОТИВНОЕ ДЕПО ВИТЕБСК, ОАО ГРОНИТЕКС, ГПУ НП "Беловежская пуща", ОАО "ПРУЖАНСКИЙ РАЙАГРОСЕРВИС", ЧАСТНОЕ ПРЕДПРИЯТИЕ "КАМЕНЕЦТРАНС", Отдел Департамента охраны МВД РБ, ОАО "СТРОЙТРЕСТ №7" СУ-34 ОАО "СТРОЙТРЕСТ №7", УГП ТРЕСТ ГРОДНОГОРСТРОЙ -РСУ-4, ГП ГОРДОРМОСТ, Открытое Акционерное Общество "Белэнергоремналадка", ОАО "ГОМЕЛЬХЛЕБПРОМ", ГУ "Гомельская областная филармония", Витебский вагонный участок, Филиал завода "Ювелир", РУП Могилевское агенство по государственной регистрации и земельному кадастру, ОАО `Сахарторг`, ЗАСО "ПРОМТРАНСИНВЕСТ", Витебская областная коллегия адвокатов, ГУО Ясли- сад № 28, ОРХ СЕЛЕЦ, КРУП "Гордормост", Институт ОАО "Брестпроект", Отдел образования спорта и туризма Ленинского р-на г.Бреста ГУО "Ясли-сад" №22, ОАО "Комбинат "ВОСТОК", ОАО "Дом торговли"., УЗ "КАЛИНКОВИЧСКАЯ ЦРБ", ООО "Ремэнергострой", ГОСУДАРСТВЕННОЕ ПРЕДПРИЯТИЕ  "ЖЭУ №3" ЖРЭО МОСКОВСКОГО РАЙОНА Г. МИНСКА", ПМСН ГУВД Мингорисполкома, ОАО "ГАЛАНТЭЯ", УЗ "Витебская областная клиническая больница", УО МОЛОДЕЧНЕНСКИЙ ГОСУДАРСТВЕННЫЙ МУЗЫКАЛЬНЫЙ КОЛЛЕДЖ ИМ.М.К.ОГИНСКОГО, ИП КЛИМУК К.А., ОАО "Белэнергоремналадка", УГАИ УВД Витебского облисполкома, ОРШАНСКАЯ ДИСТАНЦИЯ ЗАЩИТНЫХ ЛЕСОНАСАЖЛЕНИЙ, ОАО "СВЕТЛОГОРСКИЙ ЦКК", РУП "Изд-во "Белорусский Дом Печати", Ф-л "МТТС" РУП"Белтелеком", ОАО ОРШАНСКИЙ ИНСТРУМЕНТАЛЬНЫЙ ЗАВОД, КУАПУЗ, ПУП "НИТЬ" ОО "БЕЛОРУССКОЕ ОБЩЕСТВО ГЛУХ, УП "Брестская СПМК-14", КУП "УНИВЕРМАГ "СЛУЦК", ЧТУП "АлданВест", РУП "Гродненское производственное кожевенное объединение", ГП ЖРЭТ ПЕРВОМАЙСКОГО РАЙОНА Г. ВИТЕБСКА ЖЭУ-8, ЦБУ № 538 ОАО "БЕЛИНВЕСТБАНК" Г.МИНСК, УТСЧП "СТРОЙСФЕРА", Представительство ЗАСО "ТАСК" в г.Бресте, ДСПМК-93, ИООО"ПРОФИЛИ ВОКС", СП "БЕЛПРОНТО"ООО, УП "ССУ №3 УДМС и Б Мингорисполкома", Районный узел почтовой связи Гомельского ф-ла РУП"Белпочта", ОАО "Нафтан" г.Новополоцк, СООО "Витконпродукт", ДКУЖРЭП "ЖРЭТ Первомайского района", ОАО "Жлобинмебель", МОГИЛЕВСКОЕ ГОСУДАРСТВЕННОЕ ПРЕДПРИЯТИЕ "КИНОВИДЕОПРОКАТ", МОСКОВСКИЙ (Г. БРЕСТА) ОТДЕЛ ДЕПАРТАМЕНТА ОХРАНЫ МВД РЕСПУБЛИКИ БЕЛАРУСЬ, Ленинский (г.Минска) отдел Департамента охраны МВД РБ, ООО "АМГ-Консалт", ООО "ПО "ЭНЕРГОКОМПЛЕКТ", ОНКОДИСПАНСЕР, Бобруйское унитарное коммунальное дочернее дорожно-эксплуатационное предприятие, В/Ч 54804, Военная часть №19764, филиал №5 ГУЗ Витебская городская центральная поликлиника №5, ЗАО "Могилевский КСИ", Центральный (г. Минска) отдел ДО МВД РБ, ООО "МЕГАЛЕС", ООО "Плиссастрой", УЗ "ВИТЕБСКАЯ ОБЛАСТНАЯ КЛИНИЧЕСКАЯ БОЛЬНИЦА", Брестский филиал РУП "БЕЛТАМОЖСЕРВИС", СП "Нодвиг" ООО, УЗ ВОДКЦ подр. "ВИТ. ДЕТСКАЯ ОБЛ. КЛИН-КАЯ БОЛ-ЦА"г.Витебск  ул.Шрадера  7, УЗ "ВГКБСМП", УЧРЕЖДЕНИЕ ЗДРАВОХРАНЕНИЯ "СЛОНИМСКАЯ ОБЛАСТНАЯ СТАНЦИЯ ПЕРЕЛИВАНИЯ КРОВИ", ООО"АэроНавикам", Ээндокринология, УП "ВИТЕСБКГАЗСТРОЙ", ОАО ВЕСТА, Индивидуальный прудприниматель Федосов В.А., Брестское отделение Бел. ж/д., КУП "Спецавтобаза", Мостовский филиал Гродненского ОПО, ОАО Автопарк №6, УВД Гродненского облисполкома, КПУП "Гомельоблтеплосеть", Витебский филиал РУП "Белтелеком", ГУ "1134 ВК МЕДИЦИНСКИЙ ЦЕНТР ВС РБ", CООО "СМУ Союзтелефонстрой", ОАО "Гомелькое ПО "Кристалл" - УКХ "Кристалл-Холдинг", ГП `ПОЛЕСЬЕПРОЕКТ`, ООО "ЛОТОС", Минское УП "Виток", Ф-л "Серволюкс Агро"СЗАО"Серволюкс", ф-л № 400 ОАО " АСБ Беларусбанк", СП "Трепласт" ООО, УЗ "Бобруйский межрайонный онкологический диспансер", Автобусный парк №1, Дирекция ОАО "Белинвестбанк" по Витебской области, РУП "ИЗД-ВО БЕЛОРУССКИЙ ДОМ ПЕЧАТИ", Витебская художественная школа, Узденский РАЙПО, ГУО "ВИТЕБСКОЕ КАДЕТСКОЕ УЧИЛИЩЕ", ЦБУ№306 ОАО "БЕЛИНВЕСТБАНК" г.Мозырь, УП "Партизанское", ООО "ЛАЙТ ВЕЛ ОРГАНИЗЕЙШН", Могилевгрузсервис ТРУП "Могилевское отделение БЖД", ОАО "САВУШКИН ПРОДУКТ", ПТФ ОАО "МИНСКРЕМСТРОЙ", отдел образования  спорта и туризма Кобринского РИК, РУП "БЕЛФАРМАЦИЯ", ГУО "СШ № 66 г. Гомеля", РУП "МИНСКОЕ ОБЛАСТНОЕ АПОГРИЗК", УП "МЭТЗ им.В.И.Козлова", ВТСП Дорстроймонтажтрест, КАУП "СПЕЦАВТОБАЗА", Индивидуальный предприниматель (690057493), НБ РБ, ООО ЕВРОПА-ГОМЕЛЬ, СЗАО БЕЗОПАСНЫЕ ДОРОГИ БЕЛАРУСИ, ЧТУП "ДубкоТранс", УЗ "ВГКРД №2", СООО "ТРАЙПЛФАРМ", ООО "ТРЕПЛАСТ", ЧП Оптиксофт, Учреждение здравоохранения "Бобруйская городская больница скорой медицинской помощи им. В.О.Морзона", ГУ СО ПОЛОЦКИЙ ПСИХОНЕВРОЛОГИЧЕСКИЙ ДОМ-ИНТЕРНАТ ДЛЯ ПРЕСТАРЕЛЫХ И ИНВАЛИДОВ, ОРГАНИЗ. СТР-РА СОВЕТСКОГО Р-НА Г.ГОМЕЛЯ ДОСААФ, ОАО МЗКТ, COOO "Техниксофт", ЧУП "БЕЛСПЕЦРЕСУРС", УЗ "ВИТЕБСКИЙ ГОРОДСКОЙ КЛИНИЧЕСКИЙ РОДИЛЬНЫЙ ДОМ", ОАО "Гомельсовхозстрой", БРУСП "БЕЛГОССТРАХ", ЗАО "ИДЕЯ БАНК", УЗ "Брестский областной противотуберкулезный диспансер", ГУВД  Мингорисполкома, СЗАО "ЯЛИНА", ПТЧУП "СПАРТАКГАЗ", ОАО "Моготекс", ОАО "Чайка", Отдел идеологической работы  культуры и по делам молодежи Гродненского горисполкома, ОАО "Газпром трансгаз Беларусь",</t>
+  </si>
+  <si>
+    <t>М, Ж</t>
+  </si>
+  <si>
+    <t>служащий, работающий по найму, nan, учащийся, пенсионер, безработный, индивидуальный предприниматель</t>
   </si>
   <si>
     <t>[0;1693]</t>
   </si>
   <si>
-    <t>739-100, 739-200, 739-200-202, 739-200-203, 739-200-228, 739-300, 739-400, 739-600, 739-800, 739-800-831, 739-900, 739-900-500, 739-900-527, 739-900-535, 739-900-536, 739-900-537, 739-900-538, 739-900-905, 739-900-906, 739-900-907, 739-900-932, 739-900-933</t>
+    <t>739-600, 739-900, 739-900-500, 739-400, 739-900-536, 739-300, 739-900-932, 739-200-202, 739-800, 739-200, 739-800-831, 739-900-538, 739-900-905, 739-900-906, 739-900-535, 739-900-537, 739-200-228, 739-900-527, 739-200-203, 739-900-933, 739-900-907, 739-100</t>
   </si>
   <si>
     <t>-</t>
@@ -678,7 +687,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <v>202744</v>
@@ -695,7 +704,7 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>245403</v>
@@ -712,7 +721,7 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>246960</v>
@@ -729,7 +738,7 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>108914</v>
@@ -746,7 +755,7 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>161319</v>
@@ -763,7 +772,7 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>237508</v>
@@ -780,7 +789,7 @@
         <v>58</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -797,7 +806,7 @@
         <v>59</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>70933</v>
@@ -814,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>1060</v>
@@ -848,7 +857,7 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E12">
         <v>1035</v>
@@ -865,7 +874,7 @@
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>923</v>
@@ -882,7 +891,7 @@
         <v>64</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>63178</v>
@@ -899,7 +908,7 @@
         <v>58</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -913,10 +922,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>40</v>
@@ -930,10 +939,10 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>40</v>
@@ -947,7 +956,7 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>6122</v>
@@ -964,10 +973,10 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>80333</v>
@@ -981,10 +990,10 @@
         <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20">
         <v>15253</v>
@@ -998,10 +1007,10 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>68942</v>
@@ -1015,10 +1024,10 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1032,10 +1041,10 @@
         <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1049,10 +1058,10 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>137919</v>
@@ -1066,10 +1075,10 @@
         <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E25">
         <v>179682</v>
@@ -1083,10 +1092,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E26">
         <v>149948</v>
@@ -1100,10 +1109,10 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E27">
         <v>135276</v>
@@ -1117,10 +1126,10 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E28">
         <v>165097</v>
@@ -1134,10 +1143,10 @@
         <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E29">
         <v>172113</v>
@@ -1151,10 +1160,10 @@
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <v>139103</v>
@@ -1168,10 +1177,10 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>134471</v>
@@ -1185,10 +1194,10 @@
         <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E32">
         <v>135276</v>
@@ -1202,10 +1211,10 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E33">
         <v>145229</v>
@@ -1219,10 +1228,10 @@
         <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>151260</v>
@@ -1236,10 +1245,10 @@
         <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E35">
         <v>149948</v>
@@ -1253,10 +1262,10 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E36">
         <v>10566</v>
@@ -1270,10 +1279,10 @@
         <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E37">
         <v>107885</v>
@@ -1287,10 +1296,10 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E38">
         <v>748</v>
@@ -1304,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -1321,10 +1330,10 @@
         <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1338,10 +1347,10 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>118779</v>
@@ -1355,10 +1364,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D42">
-        <v>123712</v>
+        <v>123713</v>
       </c>
       <c r="E42">
         <v>1445</v>
@@ -1372,7 +1381,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1389,10 +1398,10 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>89495</v>
@@ -1406,10 +1415,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1423,7 +1432,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>22</v>
